--- a/Documentos/Tareas/Iteración_5  Registro.xlsx
+++ b/Documentos/Tareas/Iteración_5  Registro.xlsx
@@ -1,26 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raymu\Desktop\ProyectoDesarrolloSW-EQ1\Documentos\Tareas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA73C647-8D97-4052-8ACD-3FF0059327A7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de Uso" sheetId="1" r:id="rId1"/>
     <sheet name="Instructivo" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Casos de Uso'!$B:F,'Casos de Uso'!$1:5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Casos de Uso'!$A$1:$BB$55</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$15</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Casos de Uso'!$B:F,'Casos de Uso'!$1:5</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="73">
   <si>
     <t xml:space="preserve"> Lista de tareas de la iteración</t>
   </si>
@@ -244,14 +250,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,152 +282,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,19 +304,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.799981688894314"/>
+        <fgColor theme="3" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,182 +326,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -718,251 +400,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1007,9 +447,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1034,65 +471,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
-    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
-    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
-    <cellStyle name="Title" xfId="40" builtinId="15"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
-    <cellStyle name="Comma" xfId="46" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
-    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -1103,14 +495,20 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf/>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9">
-    <tableStyle name="MySqlDefault" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
+    <tableStyle name="MySqlDefault" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1119,10 +517,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="89919A"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="1F2326"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1400,170 +798,168 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BA54"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="AT6" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AU31" sqref="AU31"/>
+      <selection pane="bottomRight" activeCell="AP34" sqref="AP34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8533333333333" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.42666666666667" style="10" customWidth="1"/>
-    <col min="2" max="2" width="16.4266666666667" style="10" customWidth="1"/>
+    <col min="1" max="1" width="1.42578125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="10" customWidth="1"/>
     <col min="3" max="3" width="34" style="10" customWidth="1"/>
-    <col min="4" max="4" width="26.7133333333333" style="10" customWidth="1"/>
-    <col min="5" max="5" width="34.7133333333333" style="10" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="34.7109375" style="10" customWidth="1"/>
     <col min="6" max="6" width="13" style="10" customWidth="1"/>
-    <col min="7" max="7" width="15.4266666666667" style="10" customWidth="1"/>
-    <col min="8" max="8" width="5.85333333333333" style="10" customWidth="1"/>
-    <col min="9" max="9" width="5.42666666666667" style="10" customWidth="1"/>
-    <col min="10" max="10" width="2.71333333333333" style="10" customWidth="1"/>
-    <col min="11" max="11" width="5.85333333333333" style="10" customWidth="1"/>
-    <col min="12" max="12" width="5.42666666666667" style="10" customWidth="1"/>
-    <col min="13" max="13" width="2.71333333333333" style="10" customWidth="1"/>
-    <col min="14" max="14" width="5.85333333333333" style="10" customWidth="1"/>
-    <col min="15" max="15" width="5.42666666666667" style="10" customWidth="1"/>
-    <col min="16" max="16" width="2.71333333333333" style="10" customWidth="1"/>
-    <col min="17" max="17" width="5.85333333333333" style="10" customWidth="1"/>
-    <col min="18" max="18" width="5.42666666666667" style="10" customWidth="1"/>
-    <col min="19" max="19" width="2.71333333333333" style="10" customWidth="1"/>
-    <col min="20" max="20" width="5.85333333333333" style="10" customWidth="1"/>
-    <col min="21" max="21" width="5.42666666666667" style="10" customWidth="1"/>
-    <col min="22" max="22" width="2.71333333333333" style="10" customWidth="1"/>
-    <col min="23" max="23" width="5.85333333333333" style="10" customWidth="1"/>
-    <col min="24" max="24" width="5.42666666666667" style="10" customWidth="1"/>
-    <col min="25" max="25" width="2.71333333333333" style="10" customWidth="1"/>
-    <col min="26" max="26" width="5.85333333333333" style="10" customWidth="1"/>
-    <col min="27" max="27" width="5.42666666666667" style="10" customWidth="1"/>
-    <col min="28" max="28" width="2.71333333333333" style="10" customWidth="1"/>
-    <col min="29" max="29" width="5.85333333333333" style="10" customWidth="1"/>
-    <col min="30" max="30" width="5.42666666666667" style="10" customWidth="1"/>
-    <col min="31" max="31" width="2.71333333333333" style="10" customWidth="1"/>
-    <col min="32" max="32" width="5.85333333333333" style="10" customWidth="1"/>
-    <col min="33" max="33" width="5.42666666666667" style="10" customWidth="1"/>
-    <col min="34" max="34" width="2.71333333333333" style="10" customWidth="1"/>
-    <col min="35" max="35" width="5.85333333333333" style="10" customWidth="1"/>
-    <col min="36" max="36" width="5.42666666666667" style="10" customWidth="1"/>
-    <col min="37" max="37" width="2.71333333333333" style="10" customWidth="1"/>
-    <col min="38" max="38" width="5.85333333333333" style="10" customWidth="1"/>
-    <col min="39" max="39" width="5.42666666666667" style="10" customWidth="1"/>
-    <col min="40" max="40" width="2.71333333333333" style="10" customWidth="1"/>
-    <col min="41" max="41" width="5.85333333333333" style="10" customWidth="1"/>
-    <col min="42" max="42" width="5.42666666666667" style="10" customWidth="1"/>
-    <col min="43" max="43" width="2.71333333333333" style="10" customWidth="1"/>
-    <col min="44" max="44" width="5.85333333333333" style="10" customWidth="1"/>
-    <col min="45" max="45" width="5.42666666666667" style="10" customWidth="1"/>
-    <col min="46" max="46" width="2.71333333333333" style="10" customWidth="1"/>
-    <col min="47" max="47" width="5.85333333333333" style="10" customWidth="1"/>
-    <col min="48" max="48" width="5.42666666666667" style="10" customWidth="1"/>
-    <col min="49" max="49" width="2.71333333333333" style="10" customWidth="1"/>
-    <col min="50" max="50" width="5.85333333333333" style="10" customWidth="1"/>
-    <col min="51" max="51" width="5.42666666666667" style="10" customWidth="1"/>
-    <col min="52" max="52" width="7.85333333333333" style="10" customWidth="1"/>
-    <col min="53" max="53" width="6.71333333333333" style="10" customWidth="1"/>
-    <col min="54" max="16384" width="10.8533333333333" style="10"/>
+    <col min="7" max="7" width="15.42578125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" style="10" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="2.7109375" style="10" customWidth="1"/>
+    <col min="11" max="11" width="5.85546875" style="10" customWidth="1"/>
+    <col min="12" max="12" width="5.42578125" style="10" customWidth="1"/>
+    <col min="13" max="13" width="2.7109375" style="10" customWidth="1"/>
+    <col min="14" max="14" width="5.85546875" style="10" customWidth="1"/>
+    <col min="15" max="15" width="5.42578125" style="10" customWidth="1"/>
+    <col min="16" max="16" width="2.7109375" style="10" customWidth="1"/>
+    <col min="17" max="17" width="5.85546875" style="10" customWidth="1"/>
+    <col min="18" max="18" width="5.42578125" style="10" customWidth="1"/>
+    <col min="19" max="19" width="2.7109375" style="10" customWidth="1"/>
+    <col min="20" max="20" width="5.85546875" style="10" customWidth="1"/>
+    <col min="21" max="21" width="5.42578125" style="10" customWidth="1"/>
+    <col min="22" max="22" width="2.7109375" style="10" customWidth="1"/>
+    <col min="23" max="23" width="5.85546875" style="10" customWidth="1"/>
+    <col min="24" max="24" width="5.42578125" style="10" customWidth="1"/>
+    <col min="25" max="25" width="2.7109375" style="10" customWidth="1"/>
+    <col min="26" max="26" width="5.85546875" style="10" customWidth="1"/>
+    <col min="27" max="27" width="5.42578125" style="10" customWidth="1"/>
+    <col min="28" max="28" width="2.7109375" style="10" customWidth="1"/>
+    <col min="29" max="29" width="5.85546875" style="10" customWidth="1"/>
+    <col min="30" max="30" width="5.42578125" style="10" customWidth="1"/>
+    <col min="31" max="31" width="2.7109375" style="10" customWidth="1"/>
+    <col min="32" max="32" width="5.85546875" style="10" customWidth="1"/>
+    <col min="33" max="33" width="5.42578125" style="10" customWidth="1"/>
+    <col min="34" max="34" width="2.7109375" style="10" customWidth="1"/>
+    <col min="35" max="35" width="5.85546875" style="10" customWidth="1"/>
+    <col min="36" max="36" width="5.42578125" style="10" customWidth="1"/>
+    <col min="37" max="37" width="2.7109375" style="10" customWidth="1"/>
+    <col min="38" max="38" width="5.85546875" style="10" customWidth="1"/>
+    <col min="39" max="39" width="5.42578125" style="10" customWidth="1"/>
+    <col min="40" max="40" width="2.7109375" style="10" customWidth="1"/>
+    <col min="41" max="41" width="5.85546875" style="10" customWidth="1"/>
+    <col min="42" max="42" width="5.42578125" style="10" customWidth="1"/>
+    <col min="43" max="43" width="2.7109375" style="10" customWidth="1"/>
+    <col min="44" max="44" width="5.85546875" style="10" customWidth="1"/>
+    <col min="45" max="45" width="5.42578125" style="10" customWidth="1"/>
+    <col min="46" max="46" width="2.7109375" style="10" customWidth="1"/>
+    <col min="47" max="47" width="5.85546875" style="10" customWidth="1"/>
+    <col min="48" max="48" width="5.42578125" style="10" customWidth="1"/>
+    <col min="49" max="49" width="2.7109375" style="10" customWidth="1"/>
+    <col min="50" max="50" width="5.85546875" style="10" customWidth="1"/>
+    <col min="51" max="51" width="5.42578125" style="10" customWidth="1"/>
+    <col min="52" max="52" width="7.85546875" style="10" customWidth="1"/>
+    <col min="53" max="53" width="6.7109375" style="10" customWidth="1"/>
+    <col min="54" max="16384" width="10.85546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.25" spans="2:2">
+    <row r="1" spans="2:53" ht="28.5">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="26.25" spans="2:2">
+    <row r="2" spans="2:53" ht="28.5">
       <c r="B2" s="2"/>
     </row>
-    <row r="3" ht="18" spans="2:2">
+    <row r="3" spans="2:53" ht="21">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="14.1" customHeight="1" spans="8:53">
-      <c r="H4" s="20" t="s">
+    <row r="4" spans="2:53" ht="14.1" customHeight="1">
+      <c r="H4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="29"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="20" t="s">
+      <c r="I4" s="30"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="29"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="20" t="s">
+      <c r="L4" s="30"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="29"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="20" t="s">
+      <c r="O4" s="30"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="R4" s="29"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="20" t="s">
+      <c r="R4" s="30"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="U4" s="29"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="20" t="s">
+      <c r="U4" s="30"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="20" t="s">
+      <c r="X4" s="30"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="AA4" s="29"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="20" t="s">
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="AD4" s="29"/>
-      <c r="AE4" s="30"/>
-      <c r="AF4" s="20" t="s">
+      <c r="AD4" s="30"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="AG4" s="29"/>
-      <c r="AH4" s="30"/>
-      <c r="AI4" s="20" t="s">
+      <c r="AG4" s="30"/>
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="AJ4" s="29"/>
-      <c r="AK4" s="30"/>
-      <c r="AL4" s="20" t="s">
+      <c r="AJ4" s="30"/>
+      <c r="AK4" s="28"/>
+      <c r="AL4" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AM4" s="29"/>
-      <c r="AN4" s="30"/>
-      <c r="AO4" s="20" t="s">
+      <c r="AM4" s="30"/>
+      <c r="AN4" s="28"/>
+      <c r="AO4" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="AP4" s="29"/>
-      <c r="AQ4" s="30"/>
-      <c r="AR4" s="20" t="s">
+      <c r="AP4" s="30"/>
+      <c r="AQ4" s="28"/>
+      <c r="AR4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AS4" s="29"/>
-      <c r="AT4" s="30"/>
-      <c r="AU4" s="20" t="s">
+      <c r="AS4" s="30"/>
+      <c r="AT4" s="28"/>
+      <c r="AU4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AV4" s="29"/>
-      <c r="AW4" s="30"/>
-      <c r="AX4" s="20" t="s">
+      <c r="AV4" s="30"/>
+      <c r="AW4" s="28"/>
+      <c r="AX4" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="AY4" s="29"/>
-      <c r="AZ4" s="20" t="s">
+      <c r="AY4" s="30"/>
+      <c r="AZ4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="BA4" s="29"/>
-    </row>
-    <row r="5" ht="25.5" spans="2:53">
+      <c r="BA4" s="30"/>
+    </row>
+    <row r="5" spans="2:53" ht="45">
       <c r="B5" s="11" t="s">
         <v>18</v>
       </c>
@@ -1582,118 +978,118 @@
       <c r="G5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21" t="s">
+      <c r="J5" s="20"/>
+      <c r="K5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="L5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21" t="s">
+      <c r="M5" s="20"/>
+      <c r="N5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="21" t="s">
+      <c r="O5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21" t="s">
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="R5" s="21" t="s">
+      <c r="R5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21" t="s">
+      <c r="S5" s="20"/>
+      <c r="T5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="U5" s="21" t="s">
+      <c r="U5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21" t="s">
+      <c r="V5" s="20"/>
+      <c r="W5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="X5" s="21" t="s">
+      <c r="X5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="21" t="s">
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AA5" s="21" t="s">
+      <c r="AA5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="AB5" s="21"/>
-      <c r="AC5" s="21" t="s">
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AD5" s="21" t="s">
+      <c r="AD5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="AE5" s="21"/>
-      <c r="AF5" s="21" t="s">
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AG5" s="21" t="s">
+      <c r="AG5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="AH5" s="21"/>
-      <c r="AI5" s="21" t="s">
+      <c r="AH5" s="20"/>
+      <c r="AI5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AJ5" s="21" t="s">
+      <c r="AJ5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="AK5" s="21"/>
-      <c r="AL5" s="21" t="s">
+      <c r="AK5" s="20"/>
+      <c r="AL5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AM5" s="21" t="s">
+      <c r="AM5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="AN5" s="21"/>
-      <c r="AO5" s="21" t="s">
+      <c r="AN5" s="20"/>
+      <c r="AO5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AP5" s="21" t="s">
+      <c r="AP5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="AQ5" s="21"/>
-      <c r="AR5" s="21" t="s">
+      <c r="AQ5" s="20"/>
+      <c r="AR5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AS5" s="21" t="s">
+      <c r="AS5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="AT5" s="21"/>
-      <c r="AU5" s="21" t="s">
+      <c r="AT5" s="20"/>
+      <c r="AU5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AV5" s="21" t="s">
+      <c r="AV5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="AW5" s="21"/>
-      <c r="AX5" s="21" t="s">
+      <c r="AW5" s="20"/>
+      <c r="AX5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AY5" s="21" t="s">
+      <c r="AY5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="AZ5" s="21" t="s">
+      <c r="AZ5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="BA5" s="21" t="s">
+      <c r="BA5" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" s="6" customFormat="1" spans="2:53">
+    <row r="6" spans="2:53" s="6" customFormat="1">
       <c r="B6" s="12" t="s">
         <v>26</v>
       </c>
@@ -1709,110 +1105,110 @@
       <c r="F6" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="21">
         <v>2</v>
       </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23">
+      <c r="H6" s="22"/>
+      <c r="I6" s="22">
         <f>G6-H6</f>
         <v>2</v>
       </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23">
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22">
         <f t="shared" ref="L6:L26" si="0">I6-K6</f>
         <v>2</v>
       </c>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23">
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22">
         <f t="shared" ref="O6:O26" si="1">L6-N6</f>
         <v>2</v>
       </c>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23">
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22">
         <f t="shared" ref="R6:R26" si="2">O6-Q6</f>
         <v>2</v>
       </c>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23">
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22">
         <f t="shared" ref="U6:U26" si="3">R6-T6</f>
         <v>2</v>
       </c>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="23">
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="22">
         <f t="shared" ref="X6:X26" si="4">U6-W6</f>
         <v>2</v>
       </c>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="23"/>
-      <c r="AA6" s="23">
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22">
         <f t="shared" ref="AA6:AA26" si="5">X6-Z6</f>
         <v>2</v>
       </c>
-      <c r="AB6" s="23"/>
-      <c r="AC6" s="23"/>
-      <c r="AD6" s="23">
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="22">
         <f t="shared" ref="AD6:AD26" si="6">AA6-AC6</f>
         <v>2</v>
       </c>
-      <c r="AE6" s="23"/>
-      <c r="AF6" s="23"/>
-      <c r="AG6" s="23">
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="22">
         <f t="shared" ref="AG6:AG26" si="7">AD6-AF6</f>
         <v>2</v>
       </c>
-      <c r="AH6" s="23"/>
-      <c r="AI6" s="23"/>
-      <c r="AJ6" s="23">
+      <c r="AH6" s="22"/>
+      <c r="AI6" s="22"/>
+      <c r="AJ6" s="22">
         <f t="shared" ref="AJ6:AJ26" si="8">AG6-AI6</f>
         <v>2</v>
       </c>
-      <c r="AK6" s="23"/>
-      <c r="AL6" s="23"/>
-      <c r="AM6" s="23">
+      <c r="AK6" s="22"/>
+      <c r="AL6" s="22"/>
+      <c r="AM6" s="22">
         <f t="shared" ref="AM6:AM26" si="9">AJ6-AL6</f>
         <v>2</v>
       </c>
-      <c r="AN6" s="23"/>
-      <c r="AO6" s="23">
+      <c r="AN6" s="22"/>
+      <c r="AO6" s="22">
         <v>1.5</v>
       </c>
-      <c r="AP6" s="23">
+      <c r="AP6" s="22">
         <f t="shared" ref="AP6:AP26" si="10">AM6-AO6</f>
         <v>0.5</v>
       </c>
-      <c r="AQ6" s="23"/>
-      <c r="AR6" s="23"/>
-      <c r="AS6" s="23">
+      <c r="AQ6" s="22"/>
+      <c r="AR6" s="22"/>
+      <c r="AS6" s="22">
         <f t="shared" ref="AS6:AS26" si="11">AP6-AR6</f>
         <v>0.5</v>
       </c>
-      <c r="AT6" s="23"/>
-      <c r="AU6" s="23"/>
-      <c r="AV6" s="23">
+      <c r="AT6" s="22"/>
+      <c r="AU6" s="22"/>
+      <c r="AV6" s="22">
         <f t="shared" ref="AV6:AV26" si="12">AS6-AU6</f>
         <v>0.5</v>
       </c>
-      <c r="AW6" s="23"/>
-      <c r="AX6" s="23"/>
-      <c r="AY6" s="23">
+      <c r="AW6" s="22"/>
+      <c r="AX6" s="22"/>
+      <c r="AY6" s="22">
         <f t="shared" ref="AY6:AY26" si="13">AV6-AX6</f>
         <v>0.5</v>
       </c>
-      <c r="AZ6" s="23">
+      <c r="AZ6" s="22">
         <f t="shared" ref="AZ6:AZ26" si="14">H6+K6+N6+Q6+T6+W6+Z6+AC6+AF6+AI6+AL6+AO6+AR6+AU6+AX6</f>
         <v>1.5</v>
       </c>
-      <c r="BA6" s="23">
+      <c r="BA6" s="22">
         <f t="shared" ref="BA6:BA26" si="15">G6-AZ6</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" s="6" customFormat="1" spans="2:53">
+    <row r="7" spans="2:53" s="6" customFormat="1">
       <c r="B7" s="12"/>
       <c r="C7" s="13"/>
       <c r="D7" s="13" t="s">
@@ -1824,340 +1220,344 @@
       <c r="F7" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="21">
         <v>2</v>
       </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23">
+      <c r="H7" s="22"/>
+      <c r="I7" s="22">
         <f>G7-H7</f>
         <v>2</v>
       </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23">
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22">
         <f t="shared" ref="L7" si="16">I7-K7</f>
         <v>2</v>
       </c>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23">
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22">
         <f t="shared" ref="O7" si="17">L7-N7</f>
         <v>2</v>
       </c>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23">
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22">
         <f t="shared" ref="R7" si="18">O7-Q7</f>
         <v>2</v>
       </c>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23">
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22">
         <f t="shared" ref="U7" si="19">R7-T7</f>
         <v>2</v>
       </c>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23">
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="22">
         <f t="shared" ref="X7" si="20">U7-W7</f>
         <v>2</v>
       </c>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="23">
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22">
         <f t="shared" ref="AA7" si="21">X7-Z7</f>
         <v>2</v>
       </c>
-      <c r="AB7" s="23"/>
-      <c r="AC7" s="23"/>
-      <c r="AD7" s="23">
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="22"/>
+      <c r="AD7" s="22">
         <f t="shared" ref="AD7" si="22">AA7-AC7</f>
         <v>2</v>
       </c>
-      <c r="AE7" s="23"/>
-      <c r="AF7" s="23"/>
-      <c r="AG7" s="23">
+      <c r="AE7" s="22"/>
+      <c r="AF7" s="22"/>
+      <c r="AG7" s="22">
         <f t="shared" ref="AG7" si="23">AD7-AF7</f>
         <v>2</v>
       </c>
-      <c r="AH7" s="23"/>
-      <c r="AI7" s="23"/>
-      <c r="AJ7" s="23">
+      <c r="AH7" s="22"/>
+      <c r="AI7" s="22"/>
+      <c r="AJ7" s="22">
         <f t="shared" ref="AJ7" si="24">AG7-AI7</f>
         <v>2</v>
       </c>
-      <c r="AK7" s="23"/>
-      <c r="AL7" s="23"/>
-      <c r="AM7" s="23">
+      <c r="AK7" s="22"/>
+      <c r="AL7" s="22"/>
+      <c r="AM7" s="22">
         <f t="shared" ref="AM7" si="25">AJ7-AL7</f>
         <v>2</v>
       </c>
-      <c r="AN7" s="23"/>
-      <c r="AO7" s="23"/>
-      <c r="AP7" s="23">
+      <c r="AN7" s="22"/>
+      <c r="AO7" s="22"/>
+      <c r="AP7" s="22">
         <f t="shared" ref="AP7" si="26">AM7-AO7</f>
         <v>2</v>
       </c>
-      <c r="AQ7" s="23"/>
-      <c r="AR7" s="23">
-        <v>1</v>
-      </c>
-      <c r="AS7" s="23">
+      <c r="AQ7" s="22"/>
+      <c r="AR7" s="22">
+        <v>1</v>
+      </c>
+      <c r="AS7" s="22">
         <f t="shared" ref="AS7" si="27">AP7-AR7</f>
         <v>1</v>
       </c>
-      <c r="AT7" s="23"/>
-      <c r="AU7" s="23"/>
-      <c r="AV7" s="23">
+      <c r="AT7" s="22"/>
+      <c r="AU7" s="22"/>
+      <c r="AV7" s="22">
         <f t="shared" ref="AV7" si="28">AS7-AU7</f>
         <v>1</v>
       </c>
-      <c r="AW7" s="23"/>
-      <c r="AX7" s="23"/>
-      <c r="AY7" s="23">
+      <c r="AW7" s="22"/>
+      <c r="AX7" s="22"/>
+      <c r="AY7" s="22">
         <f t="shared" ref="AY7" si="29">AV7-AX7</f>
         <v>1</v>
       </c>
-      <c r="AZ7" s="23">
+      <c r="AZ7" s="22">
         <f t="shared" ref="AZ7" si="30">H7+K7+N7+Q7+T7+W7+Z7+AC7+AF7+AI7+AL7+AO7+AR7+AU7+AX7</f>
         <v>1</v>
       </c>
-      <c r="BA7" s="23">
+      <c r="BA7" s="22">
         <f t="shared" ref="BA7" si="31">G7-AZ7</f>
         <v>1</v>
       </c>
     </row>
-    <row r="8" s="7" customFormat="1" spans="2:53">
-      <c r="B8" s="14" t="s">
+    <row r="8" spans="2:53" s="6" customFormat="1">
+      <c r="B8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="24">
-        <v>1</v>
-      </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25">
+      <c r="E8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="21">
+        <v>1</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22">
         <f t="shared" ref="I8:I31" si="32">G8-H8</f>
         <v>1</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25">
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25">
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25">
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25">
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="25">
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="25"/>
-      <c r="AA8" s="25">
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AB8" s="25"/>
-      <c r="AC8" s="25"/>
-      <c r="AD8" s="25">
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AE8" s="25"/>
-      <c r="AF8" s="25"/>
-      <c r="AG8" s="25">
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="22">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AH8" s="25"/>
-      <c r="AI8" s="25"/>
-      <c r="AJ8" s="25">
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="22">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AK8" s="25"/>
-      <c r="AL8" s="25"/>
-      <c r="AM8" s="25">
+      <c r="AK8" s="22"/>
+      <c r="AL8" s="22"/>
+      <c r="AM8" s="22">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AN8" s="25"/>
-      <c r="AO8" s="25"/>
-      <c r="AP8" s="25">
+      <c r="AN8" s="22"/>
+      <c r="AO8" s="22"/>
+      <c r="AP8" s="22">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AQ8" s="25"/>
-      <c r="AR8" s="25"/>
-      <c r="AS8" s="25">
+      <c r="AQ8" s="22"/>
+      <c r="AR8" s="22"/>
+      <c r="AS8" s="22">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="AT8" s="25"/>
-      <c r="AU8" s="25"/>
-      <c r="AV8" s="25">
+      <c r="AT8" s="22"/>
+      <c r="AU8" s="22"/>
+      <c r="AV8" s="22">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="AW8" s="25"/>
-      <c r="AX8" s="25"/>
-      <c r="AY8" s="25">
+      <c r="AW8" s="22"/>
+      <c r="AX8" s="22">
+        <v>1</v>
+      </c>
+      <c r="AY8" s="22">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AZ8" s="25">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="22">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BA8" s="25">
+        <v>1</v>
+      </c>
+      <c r="BA8" s="22">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" s="7" customFormat="1" spans="2:53">
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:53" s="6" customFormat="1">
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="24">
-        <v>1</v>
-      </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25">
+      <c r="E9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="21">
+        <v>1</v>
+      </c>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25">
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22">
         <f t="shared" ref="L9" si="33">I9-K9</f>
         <v>1</v>
       </c>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25">
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22">
         <f t="shared" ref="O9" si="34">L9-N9</f>
         <v>1</v>
       </c>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25">
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22">
         <f t="shared" ref="R9" si="35">O9-Q9</f>
         <v>1</v>
       </c>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25">
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22">
         <f t="shared" ref="U9" si="36">R9-T9</f>
         <v>1</v>
       </c>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25">
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="22">
         <f t="shared" ref="X9" si="37">U9-W9</f>
         <v>1</v>
       </c>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25"/>
-      <c r="AA9" s="25">
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22">
         <f t="shared" ref="AA9" si="38">X9-Z9</f>
         <v>1</v>
       </c>
-      <c r="AB9" s="25"/>
-      <c r="AC9" s="25"/>
-      <c r="AD9" s="25">
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22">
         <f t="shared" ref="AD9" si="39">AA9-AC9</f>
         <v>1</v>
       </c>
-      <c r="AE9" s="25"/>
-      <c r="AF9" s="25"/>
-      <c r="AG9" s="25">
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="22">
         <f t="shared" ref="AG9" si="40">AD9-AF9</f>
         <v>1</v>
       </c>
-      <c r="AH9" s="25"/>
-      <c r="AI9" s="25"/>
-      <c r="AJ9" s="25">
+      <c r="AH9" s="22"/>
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="22">
         <f t="shared" ref="AJ9" si="41">AG9-AI9</f>
         <v>1</v>
       </c>
-      <c r="AK9" s="25"/>
-      <c r="AL9" s="25"/>
-      <c r="AM9" s="25">
+      <c r="AK9" s="22"/>
+      <c r="AL9" s="22"/>
+      <c r="AM9" s="22">
         <f t="shared" ref="AM9" si="42">AJ9-AL9</f>
         <v>1</v>
       </c>
-      <c r="AN9" s="25"/>
-      <c r="AO9" s="25"/>
-      <c r="AP9" s="25">
+      <c r="AN9" s="22"/>
+      <c r="AO9" s="22"/>
+      <c r="AP9" s="22">
         <f t="shared" ref="AP9" si="43">AM9-AO9</f>
         <v>1</v>
       </c>
-      <c r="AQ9" s="25"/>
-      <c r="AR9" s="25"/>
-      <c r="AS9" s="25">
+      <c r="AQ9" s="22"/>
+      <c r="AR9" s="22"/>
+      <c r="AS9" s="22">
         <f t="shared" ref="AS9" si="44">AP9-AR9</f>
         <v>1</v>
       </c>
-      <c r="AT9" s="25"/>
-      <c r="AU9" s="25"/>
-      <c r="AV9" s="25">
+      <c r="AT9" s="22"/>
+      <c r="AU9" s="22"/>
+      <c r="AV9" s="22">
         <f t="shared" ref="AV9" si="45">AS9-AU9</f>
         <v>1</v>
       </c>
-      <c r="AW9" s="25"/>
-      <c r="AX9" s="25"/>
-      <c r="AY9" s="25">
+      <c r="AW9" s="22"/>
+      <c r="AX9" s="22">
+        <v>1</v>
+      </c>
+      <c r="AY9" s="22">
         <f t="shared" ref="AY9" si="46">AV9-AX9</f>
-        <v>1</v>
-      </c>
-      <c r="AZ9" s="25">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="22">
         <f t="shared" ref="AZ9" si="47">H9+K9+N9+Q9+T9+W9+Z9+AC9+AF9+AI9+AL9+AO9+AR9+AU9+AX9</f>
-        <v>0</v>
-      </c>
-      <c r="BA9" s="25">
+        <v>1</v>
+      </c>
+      <c r="BA9" s="22">
         <f t="shared" ref="BA9" si="48">G9-AZ9</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" s="8" customFormat="1" spans="2:53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:53" s="16" customFormat="1">
       <c r="B10" s="16" t="s">
         <v>36</v>
       </c>
@@ -2173,79 +1573,108 @@
       <c r="F10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="8">
-        <v>1</v>
-      </c>
-      <c r="I10" s="8">
+      <c r="G10" s="16">
+        <v>1</v>
+      </c>
+      <c r="I10" s="25">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="L10" s="8">
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="O10" s="8">
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R10" s="8">
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U10" s="8">
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="X10" s="8">
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="AA10" s="8">
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AD10" s="8">
+      <c r="AB10" s="25"/>
+      <c r="AC10" s="25"/>
+      <c r="AD10" s="25">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AG10" s="8">
+      <c r="AE10" s="25"/>
+      <c r="AF10" s="25"/>
+      <c r="AG10" s="25">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AJ10" s="8">
+      <c r="AH10" s="25"/>
+      <c r="AI10" s="25"/>
+      <c r="AJ10" s="25">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AM10" s="8">
+      <c r="AK10" s="25"/>
+      <c r="AL10" s="25"/>
+      <c r="AM10" s="25">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AP10" s="8">
+      <c r="AN10" s="25"/>
+      <c r="AO10" s="25"/>
+      <c r="AP10" s="25">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AS10" s="8">
+      <c r="AQ10" s="25"/>
+      <c r="AR10" s="25"/>
+      <c r="AS10" s="25">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="AV10" s="8">
+      <c r="AT10" s="25"/>
+      <c r="AU10" s="25"/>
+      <c r="AV10" s="25">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="AY10" s="8">
+      <c r="AW10" s="25"/>
+      <c r="AX10" s="25"/>
+      <c r="AY10" s="25">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="AZ10" s="8">
+      <c r="AZ10" s="25">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BA10" s="8">
+      <c r="BA10" s="25">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" s="8" customFormat="1" spans="4:53">
+    <row r="11" spans="2:53" s="16" customFormat="1">
+      <c r="C11" s="8"/>
       <c r="D11" s="8" t="s">
         <v>31</v>
       </c>
@@ -2255,82 +1684,109 @@
       <c r="F11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="8">
-        <v>1</v>
-      </c>
-      <c r="I11" s="8">
+      <c r="G11" s="16">
+        <v>1</v>
+      </c>
+      <c r="I11" s="25">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="L11" s="8">
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25">
         <f t="shared" ref="L11" si="49">I11-K11</f>
         <v>1</v>
       </c>
-      <c r="O11" s="8">
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25">
         <f t="shared" ref="O11" si="50">L11-N11</f>
         <v>1</v>
       </c>
-      <c r="R11" s="8">
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25">
         <f t="shared" ref="R11" si="51">O11-Q11</f>
         <v>1</v>
       </c>
-      <c r="U11" s="8">
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25">
         <f t="shared" ref="U11" si="52">R11-T11</f>
         <v>1</v>
       </c>
-      <c r="X11" s="8">
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25">
         <f t="shared" ref="X11" si="53">U11-W11</f>
         <v>1</v>
       </c>
-      <c r="AA11" s="8">
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25">
         <f t="shared" ref="AA11" si="54">X11-Z11</f>
         <v>1</v>
       </c>
-      <c r="AD11" s="8">
+      <c r="AB11" s="25"/>
+      <c r="AC11" s="25"/>
+      <c r="AD11" s="25">
         <f t="shared" ref="AD11" si="55">AA11-AC11</f>
         <v>1</v>
       </c>
-      <c r="AG11" s="8">
+      <c r="AE11" s="25"/>
+      <c r="AF11" s="25"/>
+      <c r="AG11" s="25">
         <f t="shared" ref="AG11" si="56">AD11-AF11</f>
         <v>1</v>
       </c>
-      <c r="AJ11" s="8">
+      <c r="AH11" s="25"/>
+      <c r="AI11" s="25"/>
+      <c r="AJ11" s="25">
         <f t="shared" ref="AJ11" si="57">AG11-AI11</f>
         <v>1</v>
       </c>
-      <c r="AM11" s="8">
+      <c r="AK11" s="25"/>
+      <c r="AL11" s="25"/>
+      <c r="AM11" s="25">
         <f t="shared" ref="AM11" si="58">AJ11-AL11</f>
         <v>1</v>
       </c>
-      <c r="AP11" s="8">
+      <c r="AN11" s="25"/>
+      <c r="AO11" s="25"/>
+      <c r="AP11" s="25">
         <f t="shared" ref="AP11" si="59">AM11-AO11</f>
         <v>1</v>
       </c>
-      <c r="AR11" s="8">
-        <v>1</v>
-      </c>
-      <c r="AS11" s="8">
+      <c r="AQ11" s="25"/>
+      <c r="AR11" s="25">
+        <v>1</v>
+      </c>
+      <c r="AS11" s="25">
         <f t="shared" ref="AS11" si="60">AP11-AR11</f>
         <v>0</v>
       </c>
-      <c r="AV11" s="8">
+      <c r="AT11" s="25"/>
+      <c r="AU11" s="25"/>
+      <c r="AV11" s="25">
         <f t="shared" ref="AV11" si="61">AS11-AU11</f>
         <v>0</v>
       </c>
-      <c r="AY11" s="8">
+      <c r="AW11" s="25"/>
+      <c r="AX11" s="25"/>
+      <c r="AY11" s="25">
         <f t="shared" ref="AY11" si="62">AV11-AX11</f>
         <v>0</v>
       </c>
-      <c r="AZ11" s="8">
+      <c r="AZ11" s="25">
         <f t="shared" ref="AZ11" si="63">H11+K11+N11+Q11+T11+W11+Z11+AC11+AF11+AI11+AL11+AO11+AR11+AU11+AX11</f>
         <v>1</v>
       </c>
-      <c r="BA11" s="8">
+      <c r="BA11" s="25">
         <f t="shared" ref="BA11" si="64">G11-AZ11</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" s="6" customFormat="1" spans="2:53">
+    <row r="12" spans="2:53" s="6" customFormat="1">
       <c r="B12" s="12" t="s">
         <v>39</v>
       </c>
@@ -2346,110 +1802,110 @@
       <c r="F12" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="22">
-        <v>1</v>
-      </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23">
+      <c r="G12" s="21">
+        <v>1</v>
+      </c>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23">
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23">
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23">
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23">
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23">
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="22">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="23"/>
-      <c r="AA12" s="23">
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="22">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AB12" s="23"/>
-      <c r="AC12" s="23"/>
-      <c r="AD12" s="23">
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="22"/>
+      <c r="AD12" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AE12" s="23"/>
-      <c r="AF12" s="23"/>
-      <c r="AG12" s="23">
+      <c r="AE12" s="22"/>
+      <c r="AF12" s="22"/>
+      <c r="AG12" s="22">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AH12" s="23"/>
-      <c r="AI12" s="23"/>
-      <c r="AJ12" s="23">
+      <c r="AH12" s="22"/>
+      <c r="AI12" s="22"/>
+      <c r="AJ12" s="22">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AK12" s="23"/>
-      <c r="AL12" s="23"/>
-      <c r="AM12" s="23">
+      <c r="AK12" s="22"/>
+      <c r="AL12" s="22"/>
+      <c r="AM12" s="22">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AN12" s="23"/>
-      <c r="AO12" s="23">
+      <c r="AN12" s="22"/>
+      <c r="AO12" s="22">
         <v>0.7</v>
       </c>
-      <c r="AP12" s="23">
+      <c r="AP12" s="22">
         <f t="shared" si="10"/>
-        <v>0.3</v>
-      </c>
-      <c r="AQ12" s="23"/>
-      <c r="AR12" s="23"/>
-      <c r="AS12" s="23">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AQ12" s="22"/>
+      <c r="AR12" s="22"/>
+      <c r="AS12" s="22">
         <f t="shared" si="11"/>
-        <v>0.3</v>
-      </c>
-      <c r="AT12" s="23"/>
-      <c r="AU12" s="23"/>
-      <c r="AV12" s="23">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AT12" s="22"/>
+      <c r="AU12" s="22"/>
+      <c r="AV12" s="22">
         <f t="shared" si="12"/>
-        <v>0.3</v>
-      </c>
-      <c r="AW12" s="23"/>
-      <c r="AX12" s="23"/>
-      <c r="AY12" s="23">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AW12" s="22"/>
+      <c r="AX12" s="22"/>
+      <c r="AY12" s="22">
         <f t="shared" si="13"/>
-        <v>0.3</v>
-      </c>
-      <c r="AZ12" s="23">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AZ12" s="22">
         <f t="shared" si="14"/>
         <v>0.7</v>
       </c>
-      <c r="BA12" s="23">
+      <c r="BA12" s="22">
         <f t="shared" si="15"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="13" s="6" customFormat="1" spans="2:53">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="2:53" s="6" customFormat="1">
       <c r="B13" s="12"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13" t="s">
@@ -2461,110 +1917,110 @@
       <c r="F13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="22">
-        <v>1</v>
-      </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23">
+      <c r="G13" s="21">
+        <v>1</v>
+      </c>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23">
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22">
         <f t="shared" ref="L13" si="65">I13-K13</f>
         <v>1</v>
       </c>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23">
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22">
         <f t="shared" ref="O13" si="66">L13-N13</f>
         <v>1</v>
       </c>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23">
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22">
         <f t="shared" ref="R13" si="67">O13-Q13</f>
         <v>1</v>
       </c>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23">
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22">
         <f t="shared" ref="U13" si="68">R13-T13</f>
         <v>1</v>
       </c>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23">
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22">
         <f t="shared" ref="X13" si="69">U13-W13</f>
         <v>1</v>
       </c>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="23"/>
-      <c r="AA13" s="23">
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="22">
         <f t="shared" ref="AA13" si="70">X13-Z13</f>
         <v>1</v>
       </c>
-      <c r="AB13" s="23"/>
-      <c r="AC13" s="23"/>
-      <c r="AD13" s="23">
+      <c r="AB13" s="22"/>
+      <c r="AC13" s="22"/>
+      <c r="AD13" s="22">
         <f t="shared" ref="AD13" si="71">AA13-AC13</f>
         <v>1</v>
       </c>
-      <c r="AE13" s="23"/>
-      <c r="AF13" s="23"/>
-      <c r="AG13" s="23">
+      <c r="AE13" s="22"/>
+      <c r="AF13" s="22"/>
+      <c r="AG13" s="22">
         <f t="shared" ref="AG13" si="72">AD13-AF13</f>
         <v>1</v>
       </c>
-      <c r="AH13" s="23"/>
-      <c r="AI13" s="23"/>
-      <c r="AJ13" s="23">
+      <c r="AH13" s="22"/>
+      <c r="AI13" s="22"/>
+      <c r="AJ13" s="22">
         <f t="shared" ref="AJ13" si="73">AG13-AI13</f>
         <v>1</v>
       </c>
-      <c r="AK13" s="23"/>
-      <c r="AL13" s="23"/>
-      <c r="AM13" s="23">
+      <c r="AK13" s="22"/>
+      <c r="AL13" s="22"/>
+      <c r="AM13" s="22">
         <f t="shared" ref="AM13" si="74">AJ13-AL13</f>
         <v>1</v>
       </c>
-      <c r="AN13" s="23"/>
-      <c r="AO13" s="23"/>
-      <c r="AP13" s="23">
+      <c r="AN13" s="22"/>
+      <c r="AO13" s="22"/>
+      <c r="AP13" s="22">
         <f t="shared" ref="AP13" si="75">AM13-AO13</f>
         <v>1</v>
       </c>
-      <c r="AQ13" s="23"/>
-      <c r="AR13" s="23"/>
-      <c r="AS13" s="23">
+      <c r="AQ13" s="22"/>
+      <c r="AR13" s="22"/>
+      <c r="AS13" s="22">
         <f t="shared" ref="AS13" si="76">AP13-AR13</f>
         <v>1</v>
       </c>
-      <c r="AT13" s="23"/>
-      <c r="AU13" s="23">
-        <v>1</v>
-      </c>
-      <c r="AV13" s="23">
+      <c r="AT13" s="22"/>
+      <c r="AU13" s="22">
+        <v>1</v>
+      </c>
+      <c r="AV13" s="22">
         <f t="shared" ref="AV13" si="77">AS13-AU13</f>
         <v>0</v>
       </c>
-      <c r="AW13" s="23"/>
-      <c r="AX13" s="23"/>
-      <c r="AY13" s="23">
+      <c r="AW13" s="22"/>
+      <c r="AX13" s="22"/>
+      <c r="AY13" s="22">
         <f t="shared" ref="AY13" si="78">AV13-AX13</f>
         <v>0</v>
       </c>
-      <c r="AZ13" s="23">
+      <c r="AZ13" s="22">
         <f t="shared" ref="AZ13" si="79">H13+K13+N13+Q13+T13+W13+Z13+AC13+AF13+AI13+AL13+AO13+AR13+AU13+AX13</f>
         <v>1</v>
       </c>
-      <c r="BA13" s="23">
+      <c r="BA13" s="22">
         <f t="shared" ref="BA13" si="80">G13-AZ13</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" s="7" customFormat="1" spans="2:53">
+    <row r="14" spans="2:53" s="7" customFormat="1">
       <c r="B14" s="14" t="s">
         <v>41</v>
       </c>
@@ -2578,110 +2034,112 @@
         <v>34</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="24">
-        <v>1</v>
-      </c>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25">
+        <v>30</v>
+      </c>
+      <c r="G14" s="23">
+        <v>1</v>
+      </c>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25">
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25">
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25">
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25">
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25">
+      <c r="V14" s="24"/>
+      <c r="W14" s="24">
+        <v>1</v>
+      </c>
+      <c r="X14" s="24">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="24">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AB14" s="25"/>
-      <c r="AC14" s="25"/>
-      <c r="AD14" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="24"/>
+      <c r="AC14" s="24"/>
+      <c r="AD14" s="24">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AE14" s="25"/>
-      <c r="AF14" s="25"/>
-      <c r="AG14" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="24"/>
+      <c r="AF14" s="24"/>
+      <c r="AG14" s="24">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AH14" s="25"/>
-      <c r="AI14" s="25"/>
-      <c r="AJ14" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="24"/>
+      <c r="AI14" s="24"/>
+      <c r="AJ14" s="24">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="AK14" s="25"/>
-      <c r="AL14" s="25"/>
-      <c r="AM14" s="25">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="24"/>
+      <c r="AL14" s="24"/>
+      <c r="AM14" s="24">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AN14" s="25"/>
-      <c r="AO14" s="25"/>
-      <c r="AP14" s="25">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="24"/>
+      <c r="AO14" s="24"/>
+      <c r="AP14" s="24">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="AQ14" s="25"/>
-      <c r="AR14" s="25"/>
-      <c r="AS14" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="24"/>
+      <c r="AR14" s="24"/>
+      <c r="AS14" s="24">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="AT14" s="25"/>
-      <c r="AU14" s="25"/>
-      <c r="AV14" s="25">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="24"/>
+      <c r="AU14" s="24"/>
+      <c r="AV14" s="24">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="AW14" s="25"/>
-      <c r="AX14" s="25"/>
-      <c r="AY14" s="25">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="24"/>
+      <c r="AX14" s="24"/>
+      <c r="AY14" s="24">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="AZ14" s="25">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="24">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BA14" s="25">
+        <v>1</v>
+      </c>
+      <c r="BA14" s="24">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" s="7" customFormat="1" spans="2:53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:53" s="7" customFormat="1">
       <c r="B15" s="14"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15" t="s">
@@ -2691,110 +2149,112 @@
         <v>34</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="24">
-        <v>1</v>
-      </c>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25">
+        <v>30</v>
+      </c>
+      <c r="G15" s="23">
+        <v>1</v>
+      </c>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25">
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24">
         <f t="shared" ref="L15" si="81">I15-K15</f>
         <v>1</v>
       </c>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25">
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24">
         <f t="shared" ref="O15" si="82">L15-N15</f>
         <v>1</v>
       </c>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25">
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24">
         <f t="shared" ref="R15" si="83">O15-Q15</f>
         <v>1</v>
       </c>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25">
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24">
         <f t="shared" ref="U15" si="84">R15-T15</f>
         <v>1</v>
       </c>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="25">
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24">
         <f t="shared" ref="X15" si="85">U15-W15</f>
         <v>1</v>
       </c>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="25">
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="24"/>
+      <c r="AA15" s="24">
         <f t="shared" ref="AA15" si="86">X15-Z15</f>
         <v>1</v>
       </c>
-      <c r="AB15" s="25"/>
-      <c r="AC15" s="25"/>
-      <c r="AD15" s="25">
+      <c r="AB15" s="24"/>
+      <c r="AC15" s="24">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="24">
         <f t="shared" ref="AD15" si="87">AA15-AC15</f>
-        <v>1</v>
-      </c>
-      <c r="AE15" s="25"/>
-      <c r="AF15" s="25"/>
-      <c r="AG15" s="25">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="24"/>
+      <c r="AF15" s="24"/>
+      <c r="AG15" s="24">
         <f t="shared" ref="AG15" si="88">AD15-AF15</f>
-        <v>1</v>
-      </c>
-      <c r="AH15" s="25"/>
-      <c r="AI15" s="25"/>
-      <c r="AJ15" s="25">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="24"/>
+      <c r="AI15" s="24"/>
+      <c r="AJ15" s="24">
         <f t="shared" ref="AJ15" si="89">AG15-AI15</f>
-        <v>1</v>
-      </c>
-      <c r="AK15" s="25"/>
-      <c r="AL15" s="25"/>
-      <c r="AM15" s="25">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="24"/>
+      <c r="AL15" s="24"/>
+      <c r="AM15" s="24">
         <f t="shared" ref="AM15" si="90">AJ15-AL15</f>
-        <v>1</v>
-      </c>
-      <c r="AN15" s="25"/>
-      <c r="AO15" s="25"/>
-      <c r="AP15" s="25">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="24"/>
+      <c r="AO15" s="24"/>
+      <c r="AP15" s="24">
         <f t="shared" ref="AP15" si="91">AM15-AO15</f>
-        <v>1</v>
-      </c>
-      <c r="AQ15" s="25"/>
-      <c r="AR15" s="25"/>
-      <c r="AS15" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="24"/>
+      <c r="AR15" s="24"/>
+      <c r="AS15" s="24">
         <f t="shared" ref="AS15" si="92">AP15-AR15</f>
-        <v>1</v>
-      </c>
-      <c r="AT15" s="25"/>
-      <c r="AU15" s="25"/>
-      <c r="AV15" s="25">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="24"/>
+      <c r="AU15" s="24"/>
+      <c r="AV15" s="24">
         <f t="shared" ref="AV15" si="93">AS15-AU15</f>
-        <v>1</v>
-      </c>
-      <c r="AW15" s="25"/>
-      <c r="AX15" s="25"/>
-      <c r="AY15" s="25">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="24"/>
+      <c r="AX15" s="24"/>
+      <c r="AY15" s="24">
         <f t="shared" ref="AY15" si="94">AV15-AX15</f>
-        <v>1</v>
-      </c>
-      <c r="AZ15" s="25">
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="24">
         <f t="shared" ref="AZ15" si="95">H15+K15+N15+Q15+T15+W15+Z15+AC15+AF15+AI15+AL15+AO15+AR15+AU15+AX15</f>
-        <v>0</v>
-      </c>
-      <c r="BA15" s="25">
+        <v>1</v>
+      </c>
+      <c r="BA15" s="24">
         <f t="shared" ref="BA15" si="96">G15-AZ15</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" s="7" customFormat="1" spans="2:53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:53" s="7" customFormat="1">
       <c r="B16" s="14" t="s">
         <v>43</v>
       </c>
@@ -2808,110 +2268,112 @@
         <v>34</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="24">
+        <v>30</v>
+      </c>
+      <c r="G16" s="23">
         <v>2</v>
       </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25">
+      <c r="H16" s="24"/>
+      <c r="I16" s="24">
         <f t="shared" si="32"/>
         <v>2</v>
       </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25">
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25">
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="25"/>
-      <c r="R16" s="25">
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25">
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="25">
+      <c r="V16" s="24"/>
+      <c r="W16" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="X16" s="24">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="Y16" s="25"/>
-      <c r="Z16" s="25"/>
-      <c r="AA16" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="24">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AB16" s="25"/>
-      <c r="AC16" s="25"/>
-      <c r="AD16" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AB16" s="24"/>
+      <c r="AC16" s="24"/>
+      <c r="AD16" s="24">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="AE16" s="25"/>
-      <c r="AF16" s="25"/>
-      <c r="AG16" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AE16" s="24"/>
+      <c r="AF16" s="24"/>
+      <c r="AG16" s="24">
         <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AH16" s="25"/>
-      <c r="AI16" s="25"/>
-      <c r="AJ16" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AH16" s="24"/>
+      <c r="AI16" s="24"/>
+      <c r="AJ16" s="24">
         <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="AK16" s="25"/>
-      <c r="AL16" s="25"/>
-      <c r="AM16" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AK16" s="24"/>
+      <c r="AL16" s="24"/>
+      <c r="AM16" s="24">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="AN16" s="25"/>
-      <c r="AO16" s="25"/>
-      <c r="AP16" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AN16" s="24"/>
+      <c r="AO16" s="24"/>
+      <c r="AP16" s="24">
         <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="AQ16" s="25"/>
-      <c r="AR16" s="25"/>
-      <c r="AS16" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AQ16" s="24"/>
+      <c r="AR16" s="24"/>
+      <c r="AS16" s="24">
         <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="AT16" s="25"/>
-      <c r="AU16" s="25"/>
-      <c r="AV16" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AT16" s="24"/>
+      <c r="AU16" s="24"/>
+      <c r="AV16" s="24">
         <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AW16" s="25"/>
-      <c r="AX16" s="25"/>
-      <c r="AY16" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AW16" s="24"/>
+      <c r="AX16" s="24"/>
+      <c r="AY16" s="24">
         <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="AZ16" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AZ16" s="24">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BA16" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="BA16" s="24">
         <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" s="7" customFormat="1" spans="2:53">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:53" s="7" customFormat="1">
       <c r="B17" s="14"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15" t="s">
@@ -2921,110 +2383,112 @@
         <v>34</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="24">
+        <v>30</v>
+      </c>
+      <c r="G17" s="23">
         <v>2</v>
       </c>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25">
+      <c r="H17" s="24"/>
+      <c r="I17" s="24">
         <f t="shared" si="32"/>
         <v>2</v>
       </c>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25">
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24">
         <f t="shared" ref="L17" si="97">I17-K17</f>
         <v>2</v>
       </c>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25">
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24">
         <f t="shared" ref="O17" si="98">L17-N17</f>
         <v>2</v>
       </c>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25">
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24">
         <f t="shared" ref="R17" si="99">O17-Q17</f>
         <v>2</v>
       </c>
-      <c r="S17" s="25"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="25">
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24">
         <f t="shared" ref="U17" si="100">R17-T17</f>
         <v>2</v>
       </c>
-      <c r="V17" s="25"/>
-      <c r="W17" s="25"/>
-      <c r="X17" s="25">
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24">
         <f t="shared" ref="X17" si="101">U17-W17</f>
         <v>2</v>
       </c>
-      <c r="Y17" s="25"/>
-      <c r="Z17" s="25"/>
-      <c r="AA17" s="25">
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="24">
         <f t="shared" ref="AA17" si="102">X17-Z17</f>
         <v>2</v>
       </c>
-      <c r="AB17" s="25"/>
-      <c r="AC17" s="25"/>
-      <c r="AD17" s="25">
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="AD17" s="24">
         <f t="shared" ref="AD17" si="103">AA17-AC17</f>
-        <v>2</v>
-      </c>
-      <c r="AE17" s="25"/>
-      <c r="AF17" s="25"/>
-      <c r="AG17" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AE17" s="24"/>
+      <c r="AF17" s="24"/>
+      <c r="AG17" s="24">
         <f t="shared" ref="AG17" si="104">AD17-AF17</f>
-        <v>2</v>
-      </c>
-      <c r="AH17" s="25"/>
-      <c r="AI17" s="25"/>
-      <c r="AJ17" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AH17" s="24"/>
+      <c r="AI17" s="24"/>
+      <c r="AJ17" s="24">
         <f t="shared" ref="AJ17" si="105">AG17-AI17</f>
-        <v>2</v>
-      </c>
-      <c r="AK17" s="25"/>
-      <c r="AL17" s="25"/>
-      <c r="AM17" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AK17" s="24"/>
+      <c r="AL17" s="24"/>
+      <c r="AM17" s="24">
         <f t="shared" ref="AM17" si="106">AJ17-AL17</f>
-        <v>2</v>
-      </c>
-      <c r="AN17" s="25"/>
-      <c r="AO17" s="25"/>
-      <c r="AP17" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AN17" s="24"/>
+      <c r="AO17" s="24"/>
+      <c r="AP17" s="24">
         <f t="shared" ref="AP17" si="107">AM17-AO17</f>
-        <v>2</v>
-      </c>
-      <c r="AQ17" s="25"/>
-      <c r="AR17" s="25"/>
-      <c r="AS17" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AQ17" s="24"/>
+      <c r="AR17" s="24"/>
+      <c r="AS17" s="24">
         <f t="shared" ref="AS17" si="108">AP17-AR17</f>
-        <v>2</v>
-      </c>
-      <c r="AT17" s="25"/>
-      <c r="AU17" s="25"/>
-      <c r="AV17" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AT17" s="24"/>
+      <c r="AU17" s="24"/>
+      <c r="AV17" s="24">
         <f t="shared" ref="AV17" si="109">AS17-AU17</f>
-        <v>2</v>
-      </c>
-      <c r="AW17" s="25"/>
-      <c r="AX17" s="25"/>
-      <c r="AY17" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AW17" s="24"/>
+      <c r="AX17" s="24"/>
+      <c r="AY17" s="24">
         <f t="shared" ref="AY17" si="110">AV17-AX17</f>
-        <v>2</v>
-      </c>
-      <c r="AZ17" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AZ17" s="24">
         <f t="shared" ref="AZ17" si="111">H17+K17+N17+Q17+T17+W17+Z17+AC17+AF17+AI17+AL17+AO17+AR17+AU17+AX17</f>
-        <v>0</v>
-      </c>
-      <c r="BA17" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="BA17" s="24">
         <f t="shared" ref="BA17" si="112">G17-AZ17</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" s="9" customFormat="1" spans="2:53">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:53" s="9" customFormat="1">
       <c r="B18" s="17" t="s">
         <v>45</v>
       </c>
@@ -3043,105 +2507,105 @@
       <c r="G18" s="16">
         <v>1</v>
       </c>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26">
+      <c r="H18" s="25"/>
+      <c r="I18" s="25">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26">
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26">
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26">
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26">
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V18" s="26"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="26">
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="26"/>
-      <c r="AA18" s="26">
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AB18" s="26"/>
-      <c r="AC18" s="26"/>
-      <c r="AD18" s="26">
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="25"/>
+      <c r="AD18" s="25">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AE18" s="26"/>
-      <c r="AF18" s="26"/>
-      <c r="AG18" s="26">
+      <c r="AE18" s="25"/>
+      <c r="AF18" s="25"/>
+      <c r="AG18" s="25">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AH18" s="26"/>
-      <c r="AI18" s="26"/>
-      <c r="AJ18" s="26">
+      <c r="AH18" s="25"/>
+      <c r="AI18" s="25"/>
+      <c r="AJ18" s="25">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AK18" s="26"/>
-      <c r="AL18" s="26"/>
-      <c r="AM18" s="26">
+      <c r="AK18" s="25"/>
+      <c r="AL18" s="25"/>
+      <c r="AM18" s="25">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AN18" s="26"/>
-      <c r="AO18" s="26"/>
-      <c r="AP18" s="26">
+      <c r="AN18" s="25"/>
+      <c r="AO18" s="25"/>
+      <c r="AP18" s="25">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AQ18" s="26"/>
-      <c r="AR18" s="26"/>
-      <c r="AS18" s="26">
+      <c r="AQ18" s="25"/>
+      <c r="AR18" s="25"/>
+      <c r="AS18" s="25">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="AT18" s="26"/>
-      <c r="AU18" s="26"/>
-      <c r="AV18" s="26">
+      <c r="AT18" s="25"/>
+      <c r="AU18" s="25"/>
+      <c r="AV18" s="25">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="AW18" s="26"/>
-      <c r="AX18" s="26"/>
-      <c r="AY18" s="26">
+      <c r="AW18" s="25"/>
+      <c r="AX18" s="25"/>
+      <c r="AY18" s="25">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="AZ18" s="26">
+      <c r="AZ18" s="25">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="BA18" s="26">
+      <c r="BA18" s="25">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" s="9" customFormat="1" spans="2:53">
+    <row r="19" spans="2:53" s="9" customFormat="1">
       <c r="B19" s="17"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8" t="s">
@@ -3156,105 +2620,105 @@
       <c r="G19" s="16">
         <v>1</v>
       </c>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26">
+      <c r="H19" s="25"/>
+      <c r="I19" s="25">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26">
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25">
         <f t="shared" ref="L19" si="113">I19-K19</f>
         <v>1</v>
       </c>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26">
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25">
         <f t="shared" ref="O19" si="114">L19-N19</f>
         <v>1</v>
       </c>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26">
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25">
         <f t="shared" ref="R19" si="115">O19-Q19</f>
         <v>1</v>
       </c>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26">
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25">
         <f t="shared" ref="U19" si="116">R19-T19</f>
         <v>1</v>
       </c>
-      <c r="V19" s="26"/>
-      <c r="W19" s="26"/>
-      <c r="X19" s="26">
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="25">
         <f t="shared" ref="X19" si="117">U19-W19</f>
         <v>1</v>
       </c>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="26"/>
-      <c r="AA19" s="26">
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25">
         <f t="shared" ref="AA19" si="118">X19-Z19</f>
         <v>1</v>
       </c>
-      <c r="AB19" s="26"/>
-      <c r="AC19" s="26"/>
-      <c r="AD19" s="26">
+      <c r="AB19" s="25"/>
+      <c r="AC19" s="25"/>
+      <c r="AD19" s="25">
         <f t="shared" ref="AD19" si="119">AA19-AC19</f>
         <v>1</v>
       </c>
-      <c r="AE19" s="26"/>
-      <c r="AF19" s="26"/>
-      <c r="AG19" s="26">
+      <c r="AE19" s="25"/>
+      <c r="AF19" s="25"/>
+      <c r="AG19" s="25">
         <f t="shared" ref="AG19" si="120">AD19-AF19</f>
         <v>1</v>
       </c>
-      <c r="AH19" s="26"/>
-      <c r="AI19" s="26"/>
-      <c r="AJ19" s="26">
+      <c r="AH19" s="25"/>
+      <c r="AI19" s="25"/>
+      <c r="AJ19" s="25">
         <f t="shared" ref="AJ19" si="121">AG19-AI19</f>
         <v>1</v>
       </c>
-      <c r="AK19" s="26"/>
-      <c r="AL19" s="26"/>
-      <c r="AM19" s="26">
+      <c r="AK19" s="25"/>
+      <c r="AL19" s="25"/>
+      <c r="AM19" s="25">
         <f t="shared" ref="AM19" si="122">AJ19-AL19</f>
         <v>1</v>
       </c>
-      <c r="AN19" s="26"/>
-      <c r="AO19" s="26"/>
-      <c r="AP19" s="26">
+      <c r="AN19" s="25"/>
+      <c r="AO19" s="25"/>
+      <c r="AP19" s="25">
         <f t="shared" ref="AP19" si="123">AM19-AO19</f>
         <v>1</v>
       </c>
-      <c r="AQ19" s="26"/>
-      <c r="AR19" s="26"/>
-      <c r="AS19" s="26">
+      <c r="AQ19" s="25"/>
+      <c r="AR19" s="25"/>
+      <c r="AS19" s="25">
         <f t="shared" ref="AS19" si="124">AP19-AR19</f>
         <v>1</v>
       </c>
-      <c r="AT19" s="26"/>
-      <c r="AU19" s="26"/>
-      <c r="AV19" s="26">
+      <c r="AT19" s="25"/>
+      <c r="AU19" s="25"/>
+      <c r="AV19" s="25">
         <f t="shared" ref="AV19" si="125">AS19-AU19</f>
         <v>1</v>
       </c>
-      <c r="AW19" s="26"/>
-      <c r="AX19" s="26"/>
-      <c r="AY19" s="26">
+      <c r="AW19" s="25"/>
+      <c r="AX19" s="25"/>
+      <c r="AY19" s="25">
         <f t="shared" ref="AY19" si="126">AV19-AX19</f>
         <v>1</v>
       </c>
-      <c r="AZ19" s="26">
+      <c r="AZ19" s="25">
         <f t="shared" ref="AZ19" si="127">H19+K19+N19+Q19+T19+W19+Z19+AC19+AF19+AI19+AL19+AO19+AR19+AU19+AX19</f>
         <v>0</v>
       </c>
-      <c r="BA19" s="26">
+      <c r="BA19" s="25">
         <f t="shared" ref="BA19" si="128">G19-AZ19</f>
         <v>1</v>
       </c>
     </row>
-    <row r="20" s="7" customFormat="1" spans="2:53">
+    <row r="20" spans="2:53" s="7" customFormat="1">
       <c r="B20" s="14" t="s">
         <v>47</v>
       </c>
@@ -3268,110 +2732,112 @@
         <v>34</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="24">
+        <v>30</v>
+      </c>
+      <c r="G20" s="23">
         <v>2</v>
       </c>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25">
+      <c r="H20" s="24"/>
+      <c r="I20" s="24">
         <f t="shared" si="32"/>
         <v>2</v>
       </c>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25">
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25">
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25">
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25">
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="V20" s="25"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="25">
+      <c r="V20" s="24"/>
+      <c r="W20" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="X20" s="24">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="Y20" s="25"/>
-      <c r="Z20" s="25"/>
-      <c r="AA20" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="Y20" s="24"/>
+      <c r="Z20" s="24"/>
+      <c r="AA20" s="24">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="AB20" s="25"/>
-      <c r="AC20" s="25"/>
-      <c r="AD20" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AB20" s="24"/>
+      <c r="AC20" s="24"/>
+      <c r="AD20" s="24">
         <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="AE20" s="25"/>
-      <c r="AF20" s="25"/>
-      <c r="AG20" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AE20" s="24"/>
+      <c r="AF20" s="24"/>
+      <c r="AG20" s="24">
         <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="AH20" s="25"/>
-      <c r="AI20" s="25"/>
-      <c r="AJ20" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AH20" s="24"/>
+      <c r="AI20" s="24"/>
+      <c r="AJ20" s="24">
         <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
-      <c r="AK20" s="25"/>
-      <c r="AL20" s="25"/>
-      <c r="AM20" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AK20" s="24"/>
+      <c r="AL20" s="24"/>
+      <c r="AM20" s="24">
         <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="AN20" s="25"/>
-      <c r="AO20" s="25"/>
-      <c r="AP20" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AN20" s="24"/>
+      <c r="AO20" s="24"/>
+      <c r="AP20" s="24">
         <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="AQ20" s="25"/>
-      <c r="AR20" s="25"/>
-      <c r="AS20" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AQ20" s="24"/>
+      <c r="AR20" s="24"/>
+      <c r="AS20" s="24">
         <f t="shared" si="11"/>
-        <v>2</v>
-      </c>
-      <c r="AT20" s="25"/>
-      <c r="AU20" s="25"/>
-      <c r="AV20" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AT20" s="24"/>
+      <c r="AU20" s="24"/>
+      <c r="AV20" s="24">
         <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="AW20" s="25"/>
-      <c r="AX20" s="25"/>
-      <c r="AY20" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AW20" s="24"/>
+      <c r="AX20" s="24"/>
+      <c r="AY20" s="24">
         <f t="shared" si="13"/>
-        <v>2</v>
-      </c>
-      <c r="AZ20" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AZ20" s="24">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="BA20" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="BA20" s="24">
         <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" s="7" customFormat="1" spans="2:53">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:53" s="7" customFormat="1">
       <c r="B21" s="14"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15" t="s">
@@ -3381,110 +2847,112 @@
         <v>34</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="24">
+        <v>30</v>
+      </c>
+      <c r="G21" s="23">
         <v>2</v>
       </c>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25">
+      <c r="H21" s="24"/>
+      <c r="I21" s="24">
         <f t="shared" si="32"/>
         <v>2</v>
       </c>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25">
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24">
         <f t="shared" ref="L21" si="129">I21-K21</f>
         <v>2</v>
       </c>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25">
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24">
         <f t="shared" ref="O21" si="130">L21-N21</f>
         <v>2</v>
       </c>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25">
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24">
         <f t="shared" ref="R21" si="131">O21-Q21</f>
         <v>2</v>
       </c>
-      <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="25">
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24">
         <f t="shared" ref="U21" si="132">R21-T21</f>
         <v>2</v>
       </c>
-      <c r="V21" s="25"/>
-      <c r="W21" s="25"/>
-      <c r="X21" s="25">
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24">
         <f t="shared" ref="X21" si="133">U21-W21</f>
         <v>2</v>
       </c>
-      <c r="Y21" s="25"/>
-      <c r="Z21" s="25"/>
-      <c r="AA21" s="25">
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="24"/>
+      <c r="AA21" s="24">
         <f t="shared" ref="AA21" si="134">X21-Z21</f>
         <v>2</v>
       </c>
-      <c r="AB21" s="25"/>
-      <c r="AC21" s="25"/>
-      <c r="AD21" s="25">
+      <c r="AB21" s="24"/>
+      <c r="AC21" s="24"/>
+      <c r="AD21" s="24">
         <f t="shared" ref="AD21" si="135">AA21-AC21</f>
         <v>2</v>
       </c>
-      <c r="AE21" s="25"/>
-      <c r="AF21" s="25"/>
-      <c r="AG21" s="25">
+      <c r="AE21" s="24"/>
+      <c r="AF21" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="AG21" s="24">
         <f t="shared" ref="AG21" si="136">AD21-AF21</f>
-        <v>2</v>
-      </c>
-      <c r="AH21" s="25"/>
-      <c r="AI21" s="25"/>
-      <c r="AJ21" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AH21" s="24"/>
+      <c r="AI21" s="24"/>
+      <c r="AJ21" s="24">
         <f t="shared" ref="AJ21" si="137">AG21-AI21</f>
-        <v>2</v>
-      </c>
-      <c r="AK21" s="25"/>
-      <c r="AL21" s="25"/>
-      <c r="AM21" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AK21" s="24"/>
+      <c r="AL21" s="24"/>
+      <c r="AM21" s="24">
         <f t="shared" ref="AM21" si="138">AJ21-AL21</f>
-        <v>2</v>
-      </c>
-      <c r="AN21" s="25"/>
-      <c r="AO21" s="25"/>
-      <c r="AP21" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AN21" s="24"/>
+      <c r="AO21" s="24"/>
+      <c r="AP21" s="24">
         <f t="shared" ref="AP21" si="139">AM21-AO21</f>
-        <v>2</v>
-      </c>
-      <c r="AQ21" s="25"/>
-      <c r="AR21" s="25"/>
-      <c r="AS21" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AQ21" s="24"/>
+      <c r="AR21" s="24"/>
+      <c r="AS21" s="24">
         <f t="shared" ref="AS21" si="140">AP21-AR21</f>
-        <v>2</v>
-      </c>
-      <c r="AT21" s="25"/>
-      <c r="AU21" s="25"/>
-      <c r="AV21" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AT21" s="24"/>
+      <c r="AU21" s="24"/>
+      <c r="AV21" s="24">
         <f t="shared" ref="AV21" si="141">AS21-AU21</f>
-        <v>2</v>
-      </c>
-      <c r="AW21" s="25"/>
-      <c r="AX21" s="25"/>
-      <c r="AY21" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AW21" s="24"/>
+      <c r="AX21" s="24"/>
+      <c r="AY21" s="24">
         <f t="shared" ref="AY21" si="142">AV21-AX21</f>
-        <v>2</v>
-      </c>
-      <c r="AZ21" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="AZ21" s="24">
         <f t="shared" ref="AZ21" si="143">H21+K21+N21+Q21+T21+W21+Z21+AC21+AF21+AI21+AL21+AO21+AR21+AU21+AX21</f>
-        <v>0</v>
-      </c>
-      <c r="BA21" s="25">
+        <v>1.5</v>
+      </c>
+      <c r="BA21" s="24">
         <f t="shared" ref="BA21" si="144">G21-AZ21</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" s="9" customFormat="1" spans="2:53">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:53" s="9" customFormat="1">
       <c r="B22" s="17" t="s">
         <v>49</v>
       </c>
@@ -3503,107 +2971,107 @@
       <c r="G22" s="16">
         <v>1</v>
       </c>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26">
+      <c r="H22" s="25"/>
+      <c r="I22" s="25">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26">
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26">
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26">
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26">
+      <c r="S22" s="25"/>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V22" s="26"/>
-      <c r="W22" s="26"/>
-      <c r="X22" s="26">
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="26"/>
-      <c r="AA22" s="26">
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="25">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AB22" s="26"/>
-      <c r="AC22" s="26"/>
-      <c r="AD22" s="26">
+      <c r="AB22" s="25"/>
+      <c r="AC22" s="25"/>
+      <c r="AD22" s="25">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AE22" s="26"/>
-      <c r="AF22" s="26"/>
-      <c r="AG22" s="26">
+      <c r="AE22" s="25"/>
+      <c r="AF22" s="25"/>
+      <c r="AG22" s="25">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AH22" s="26"/>
-      <c r="AI22" s="26"/>
-      <c r="AJ22" s="26">
+      <c r="AH22" s="25"/>
+      <c r="AI22" s="25"/>
+      <c r="AJ22" s="25">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AK22" s="26"/>
-      <c r="AL22" s="26"/>
-      <c r="AM22" s="26">
+      <c r="AK22" s="25"/>
+      <c r="AL22" s="25"/>
+      <c r="AM22" s="25">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AN22" s="26"/>
-      <c r="AO22" s="26"/>
-      <c r="AP22" s="26">
+      <c r="AN22" s="25"/>
+      <c r="AO22" s="25"/>
+      <c r="AP22" s="25">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AQ22" s="26"/>
-      <c r="AR22" s="26">
+      <c r="AQ22" s="25"/>
+      <c r="AR22" s="25">
         <v>0.5</v>
       </c>
-      <c r="AS22" s="26">
+      <c r="AS22" s="25">
         <f t="shared" si="11"/>
         <v>0.5</v>
       </c>
-      <c r="AT22" s="26"/>
-      <c r="AU22" s="26"/>
-      <c r="AV22" s="26">
+      <c r="AT22" s="25"/>
+      <c r="AU22" s="25"/>
+      <c r="AV22" s="25">
         <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
-      <c r="AW22" s="26"/>
-      <c r="AX22" s="26"/>
-      <c r="AY22" s="26">
+      <c r="AW22" s="25"/>
+      <c r="AX22" s="25"/>
+      <c r="AY22" s="25">
         <f t="shared" si="13"/>
         <v>0.5</v>
       </c>
-      <c r="AZ22" s="26">
+      <c r="AZ22" s="25">
         <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
-      <c r="BA22" s="26">
+      <c r="BA22" s="25">
         <f t="shared" si="15"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" s="9" customFormat="1" spans="2:53">
+    <row r="23" spans="2:53" s="9" customFormat="1">
       <c r="B23" s="17"/>
       <c r="C23" s="8"/>
       <c r="D23" s="8" t="s">
@@ -3618,107 +3086,107 @@
       <c r="G23" s="16">
         <v>1</v>
       </c>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26">
+      <c r="H23" s="25"/>
+      <c r="I23" s="25">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26">
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25">
         <f t="shared" ref="L23" si="145">I23-K23</f>
         <v>1</v>
       </c>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26">
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25">
         <f t="shared" ref="O23" si="146">L23-N23</f>
         <v>1</v>
       </c>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26">
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25">
         <f t="shared" ref="R23" si="147">O23-Q23</f>
         <v>1</v>
       </c>
-      <c r="S23" s="26"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="26">
+      <c r="S23" s="25"/>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25">
         <f t="shared" ref="U23" si="148">R23-T23</f>
         <v>1</v>
       </c>
-      <c r="V23" s="26"/>
-      <c r="W23" s="26"/>
-      <c r="X23" s="26">
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25">
         <f t="shared" ref="X23" si="149">U23-W23</f>
         <v>1</v>
       </c>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="26"/>
-      <c r="AA23" s="26">
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25">
         <f t="shared" ref="AA23" si="150">X23-Z23</f>
         <v>1</v>
       </c>
-      <c r="AB23" s="26"/>
-      <c r="AC23" s="26"/>
-      <c r="AD23" s="26">
+      <c r="AB23" s="25"/>
+      <c r="AC23" s="25"/>
+      <c r="AD23" s="25">
         <f t="shared" ref="AD23" si="151">AA23-AC23</f>
         <v>1</v>
       </c>
-      <c r="AE23" s="26"/>
-      <c r="AF23" s="26"/>
-      <c r="AG23" s="26">
+      <c r="AE23" s="25"/>
+      <c r="AF23" s="25"/>
+      <c r="AG23" s="25">
         <f t="shared" ref="AG23" si="152">AD23-AF23</f>
         <v>1</v>
       </c>
-      <c r="AH23" s="26"/>
-      <c r="AI23" s="26"/>
-      <c r="AJ23" s="26">
+      <c r="AH23" s="25"/>
+      <c r="AI23" s="25"/>
+      <c r="AJ23" s="25">
         <f t="shared" ref="AJ23" si="153">AG23-AI23</f>
         <v>1</v>
       </c>
-      <c r="AK23" s="26"/>
-      <c r="AL23" s="26"/>
-      <c r="AM23" s="26">
+      <c r="AK23" s="25"/>
+      <c r="AL23" s="25"/>
+      <c r="AM23" s="25">
         <f t="shared" ref="AM23" si="154">AJ23-AL23</f>
         <v>1</v>
       </c>
-      <c r="AN23" s="26"/>
-      <c r="AO23" s="26"/>
-      <c r="AP23" s="26">
+      <c r="AN23" s="25"/>
+      <c r="AO23" s="25"/>
+      <c r="AP23" s="25">
         <f t="shared" ref="AP23" si="155">AM23-AO23</f>
         <v>1</v>
       </c>
-      <c r="AQ23" s="26"/>
-      <c r="AR23" s="26">
+      <c r="AQ23" s="25"/>
+      <c r="AR23" s="25">
         <v>0.5</v>
       </c>
-      <c r="AS23" s="26">
+      <c r="AS23" s="25">
         <f t="shared" ref="AS23" si="156">AP23-AR23</f>
         <v>0.5</v>
       </c>
-      <c r="AT23" s="26"/>
-      <c r="AU23" s="26"/>
-      <c r="AV23" s="26">
+      <c r="AT23" s="25"/>
+      <c r="AU23" s="25"/>
+      <c r="AV23" s="25">
         <f t="shared" ref="AV23" si="157">AS23-AU23</f>
         <v>0.5</v>
       </c>
-      <c r="AW23" s="26"/>
-      <c r="AX23" s="26"/>
-      <c r="AY23" s="26">
+      <c r="AW23" s="25"/>
+      <c r="AX23" s="25"/>
+      <c r="AY23" s="25">
         <f t="shared" ref="AY23" si="158">AV23-AX23</f>
         <v>0.5</v>
       </c>
-      <c r="AZ23" s="26">
+      <c r="AZ23" s="25">
         <f t="shared" ref="AZ23" si="159">H23+K23+N23+Q23+T23+W23+Z23+AC23+AF23+AI23+AL23+AO23+AR23+AU23+AX23</f>
         <v>0.5</v>
       </c>
-      <c r="BA23" s="26">
+      <c r="BA23" s="25">
         <f t="shared" ref="BA23" si="160">G23-AZ23</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" s="6" customFormat="1" spans="2:53">
+    <row r="24" spans="2:53" s="6" customFormat="1">
       <c r="B24" s="12" t="s">
         <v>51</v>
       </c>
@@ -3734,110 +3202,110 @@
       <c r="F24" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="22">
-        <v>1</v>
-      </c>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23">
+      <c r="G24" s="21">
+        <v>1</v>
+      </c>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23">
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23">
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23">
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23">
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V24" s="23"/>
-      <c r="W24" s="23"/>
-      <c r="X24" s="23">
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="22">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Y24" s="23"/>
-      <c r="Z24" s="23"/>
-      <c r="AA24" s="23">
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="22">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AB24" s="23"/>
-      <c r="AC24" s="23"/>
-      <c r="AD24" s="23">
+      <c r="AB24" s="22"/>
+      <c r="AC24" s="22"/>
+      <c r="AD24" s="22">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AE24" s="23"/>
-      <c r="AF24" s="23"/>
-      <c r="AG24" s="23">
+      <c r="AE24" s="22"/>
+      <c r="AF24" s="22"/>
+      <c r="AG24" s="22">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AH24" s="23"/>
-      <c r="AI24" s="23"/>
-      <c r="AJ24" s="23">
+      <c r="AH24" s="22"/>
+      <c r="AI24" s="22"/>
+      <c r="AJ24" s="22">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AK24" s="23"/>
-      <c r="AL24" s="23">
+      <c r="AK24" s="22"/>
+      <c r="AL24" s="22">
         <v>0.7</v>
       </c>
-      <c r="AM24" s="23">
+      <c r="AM24" s="22">
         <f t="shared" si="9"/>
-        <v>0.3</v>
-      </c>
-      <c r="AN24" s="23"/>
-      <c r="AO24" s="23"/>
-      <c r="AP24" s="23">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AN24" s="22"/>
+      <c r="AO24" s="22"/>
+      <c r="AP24" s="22">
         <f t="shared" si="10"/>
-        <v>0.3</v>
-      </c>
-      <c r="AQ24" s="23"/>
-      <c r="AR24" s="23"/>
-      <c r="AS24" s="23">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AQ24" s="22"/>
+      <c r="AR24" s="22"/>
+      <c r="AS24" s="22">
         <f t="shared" si="11"/>
-        <v>0.3</v>
-      </c>
-      <c r="AT24" s="23"/>
-      <c r="AU24" s="23"/>
-      <c r="AV24" s="23">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AT24" s="22"/>
+      <c r="AU24" s="22"/>
+      <c r="AV24" s="22">
         <f t="shared" si="12"/>
-        <v>0.3</v>
-      </c>
-      <c r="AW24" s="23"/>
-      <c r="AX24" s="23"/>
-      <c r="AY24" s="23">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AW24" s="22"/>
+      <c r="AX24" s="22"/>
+      <c r="AY24" s="22">
         <f t="shared" si="13"/>
-        <v>0.3</v>
-      </c>
-      <c r="AZ24" s="23">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AZ24" s="22">
         <f t="shared" si="14"/>
         <v>0.7</v>
       </c>
-      <c r="BA24" s="23">
+      <c r="BA24" s="22">
         <f t="shared" si="15"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="25" s="6" customFormat="1" spans="2:53">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="2:53" s="6" customFormat="1">
       <c r="B25" s="12"/>
       <c r="C25" s="13"/>
       <c r="D25" s="13" t="s">
@@ -3849,110 +3317,110 @@
       <c r="F25" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="22">
-        <v>1</v>
-      </c>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23">
+      <c r="G25" s="21">
+        <v>1</v>
+      </c>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23">
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22">
         <f t="shared" ref="L25" si="161">I25-K25</f>
         <v>1</v>
       </c>
-      <c r="M25" s="23"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23">
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22">
         <f t="shared" ref="O25" si="162">L25-N25</f>
         <v>1</v>
       </c>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23">
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22">
         <f t="shared" ref="R25" si="163">O25-Q25</f>
         <v>1</v>
       </c>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23">
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22">
         <f t="shared" ref="U25" si="164">R25-T25</f>
         <v>1</v>
       </c>
-      <c r="V25" s="23"/>
-      <c r="W25" s="23"/>
-      <c r="X25" s="23">
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
+      <c r="X25" s="22">
         <f t="shared" ref="X25" si="165">U25-W25</f>
         <v>1</v>
       </c>
-      <c r="Y25" s="23"/>
-      <c r="Z25" s="23"/>
-      <c r="AA25" s="23">
+      <c r="Y25" s="22"/>
+      <c r="Z25" s="22"/>
+      <c r="AA25" s="22">
         <f t="shared" ref="AA25" si="166">X25-Z25</f>
         <v>1</v>
       </c>
-      <c r="AB25" s="23"/>
-      <c r="AC25" s="23"/>
-      <c r="AD25" s="23">
+      <c r="AB25" s="22"/>
+      <c r="AC25" s="22"/>
+      <c r="AD25" s="22">
         <f t="shared" ref="AD25" si="167">AA25-AC25</f>
         <v>1</v>
       </c>
-      <c r="AE25" s="23"/>
-      <c r="AF25" s="23"/>
-      <c r="AG25" s="23">
+      <c r="AE25" s="22"/>
+      <c r="AF25" s="22"/>
+      <c r="AG25" s="22">
         <f t="shared" ref="AG25" si="168">AD25-AF25</f>
         <v>1</v>
       </c>
-      <c r="AH25" s="23"/>
-      <c r="AI25" s="23"/>
-      <c r="AJ25" s="23">
+      <c r="AH25" s="22"/>
+      <c r="AI25" s="22"/>
+      <c r="AJ25" s="22">
         <f t="shared" ref="AJ25" si="169">AG25-AI25</f>
         <v>1</v>
       </c>
-      <c r="AK25" s="23"/>
-      <c r="AL25" s="23"/>
-      <c r="AM25" s="23">
+      <c r="AK25" s="22"/>
+      <c r="AL25" s="22"/>
+      <c r="AM25" s="22">
         <f t="shared" ref="AM25" si="170">AJ25-AL25</f>
         <v>1</v>
       </c>
-      <c r="AN25" s="23"/>
-      <c r="AO25" s="23"/>
-      <c r="AP25" s="23">
+      <c r="AN25" s="22"/>
+      <c r="AO25" s="22"/>
+      <c r="AP25" s="22">
         <f t="shared" ref="AP25" si="171">AM25-AO25</f>
         <v>1</v>
       </c>
-      <c r="AQ25" s="23"/>
-      <c r="AR25" s="23"/>
-      <c r="AS25" s="23">
+      <c r="AQ25" s="22"/>
+      <c r="AR25" s="22"/>
+      <c r="AS25" s="22">
         <f t="shared" ref="AS25" si="172">AP25-AR25</f>
         <v>1</v>
       </c>
-      <c r="AT25" s="23"/>
-      <c r="AU25" s="23">
+      <c r="AT25" s="22"/>
+      <c r="AU25" s="22">
         <v>0.3</v>
       </c>
-      <c r="AV25" s="23">
+      <c r="AV25" s="22">
         <f t="shared" ref="AV25" si="173">AS25-AU25</f>
         <v>0.7</v>
       </c>
-      <c r="AW25" s="23"/>
-      <c r="AX25" s="23"/>
-      <c r="AY25" s="23">
+      <c r="AW25" s="22"/>
+      <c r="AX25" s="22"/>
+      <c r="AY25" s="22">
         <f t="shared" ref="AY25" si="174">AV25-AX25</f>
         <v>0.7</v>
       </c>
-      <c r="AZ25" s="23">
+      <c r="AZ25" s="22">
         <f t="shared" ref="AZ25" si="175">H25+K25+N25+Q25+T25+W25+Z25+AC25+AF25+AI25+AL25+AO25+AR25+AU25+AX25</f>
         <v>0.3</v>
       </c>
-      <c r="BA25" s="23">
+      <c r="BA25" s="22">
         <f t="shared" ref="BA25" si="176">G25-AZ25</f>
         <v>0.7</v>
       </c>
     </row>
-    <row r="26" s="9" customFormat="1" spans="2:53">
+    <row r="26" spans="2:53" s="9" customFormat="1">
       <c r="B26" s="17" t="s">
         <v>53</v>
       </c>
@@ -3971,107 +3439,107 @@
       <c r="G26" s="16">
         <v>1</v>
       </c>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26">
+      <c r="H26" s="25"/>
+      <c r="I26" s="25">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26">
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26">
+      <c r="M26" s="25"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="25">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26">
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="26">
+      <c r="S26" s="25"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="V26" s="26"/>
-      <c r="W26" s="26"/>
-      <c r="X26" s="26">
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
+      <c r="X26" s="25">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="Y26" s="26"/>
-      <c r="Z26" s="26"/>
-      <c r="AA26" s="26">
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="25"/>
+      <c r="AA26" s="25">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="AB26" s="26"/>
-      <c r="AC26" s="26"/>
-      <c r="AD26" s="26">
+      <c r="AB26" s="25"/>
+      <c r="AC26" s="25"/>
+      <c r="AD26" s="25">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="AE26" s="26"/>
-      <c r="AF26" s="26"/>
-      <c r="AG26" s="26">
+      <c r="AE26" s="25"/>
+      <c r="AF26" s="25"/>
+      <c r="AG26" s="25">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="AH26" s="26"/>
-      <c r="AI26" s="26"/>
-      <c r="AJ26" s="26">
+      <c r="AH26" s="25"/>
+      <c r="AI26" s="25"/>
+      <c r="AJ26" s="25">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AK26" s="26"/>
-      <c r="AL26" s="26"/>
-      <c r="AM26" s="26">
+      <c r="AK26" s="25"/>
+      <c r="AL26" s="25"/>
+      <c r="AM26" s="25">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AN26" s="26"/>
-      <c r="AO26" s="26"/>
-      <c r="AP26" s="26">
+      <c r="AN26" s="25"/>
+      <c r="AO26" s="25"/>
+      <c r="AP26" s="25">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AQ26" s="26"/>
-      <c r="AR26" s="26">
+      <c r="AQ26" s="25"/>
+      <c r="AR26" s="25">
         <v>0.8</v>
       </c>
-      <c r="AS26" s="26">
+      <c r="AS26" s="25">
         <f t="shared" si="11"/>
-        <v>0.2</v>
-      </c>
-      <c r="AT26" s="26"/>
-      <c r="AU26" s="26"/>
-      <c r="AV26" s="26">
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AT26" s="25"/>
+      <c r="AU26" s="25"/>
+      <c r="AV26" s="25">
         <f t="shared" si="12"/>
-        <v>0.2</v>
-      </c>
-      <c r="AW26" s="26"/>
-      <c r="AX26" s="26"/>
-      <c r="AY26" s="26">
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AW26" s="25"/>
+      <c r="AX26" s="25"/>
+      <c r="AY26" s="25">
         <f t="shared" si="13"/>
-        <v>0.2</v>
-      </c>
-      <c r="AZ26" s="26">
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AZ26" s="25">
         <f t="shared" si="14"/>
         <v>0.8</v>
       </c>
-      <c r="BA26" s="26">
+      <c r="BA26" s="25">
         <f t="shared" si="15"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="27" s="9" customFormat="1" spans="2:53">
+        <v>0.19999999999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="2:53" s="9" customFormat="1">
       <c r="B27" s="17"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8" t="s">
@@ -4086,104 +3554,104 @@
       <c r="G27" s="16">
         <v>1</v>
       </c>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26">
+      <c r="H27" s="25"/>
+      <c r="I27" s="25">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26">
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25">
         <f t="shared" ref="L27:L29" si="177">I27-K27</f>
         <v>1</v>
       </c>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26">
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25">
         <f t="shared" ref="O27:O29" si="178">L27-N27</f>
         <v>1</v>
       </c>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26">
+      <c r="P27" s="25"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="25">
         <f t="shared" ref="R27:R29" si="179">O27-Q27</f>
         <v>1</v>
       </c>
-      <c r="S27" s="26"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="26">
+      <c r="S27" s="25"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25">
         <f t="shared" ref="U27:U29" si="180">R27-T27</f>
         <v>1</v>
       </c>
-      <c r="V27" s="26"/>
-      <c r="W27" s="26"/>
-      <c r="X27" s="26">
+      <c r="V27" s="25"/>
+      <c r="W27" s="25"/>
+      <c r="X27" s="25">
         <f t="shared" ref="X27:X29" si="181">U27-W27</f>
         <v>1</v>
       </c>
-      <c r="Y27" s="26"/>
-      <c r="Z27" s="26"/>
-      <c r="AA27" s="26">
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="25">
         <f t="shared" ref="AA27:AA29" si="182">X27-Z27</f>
         <v>1</v>
       </c>
-      <c r="AB27" s="26"/>
-      <c r="AC27" s="26"/>
-      <c r="AD27" s="26">
+      <c r="AB27" s="25"/>
+      <c r="AC27" s="25"/>
+      <c r="AD27" s="25">
         <f t="shared" ref="AD27:AD29" si="183">AA27-AC27</f>
         <v>1</v>
       </c>
-      <c r="AE27" s="26"/>
-      <c r="AF27" s="26"/>
-      <c r="AG27" s="26">
+      <c r="AE27" s="25"/>
+      <c r="AF27" s="25"/>
+      <c r="AG27" s="25">
         <f t="shared" ref="AG27:AG29" si="184">AD27-AF27</f>
         <v>1</v>
       </c>
-      <c r="AH27" s="26"/>
-      <c r="AI27" s="26"/>
-      <c r="AJ27" s="26">
+      <c r="AH27" s="25"/>
+      <c r="AI27" s="25"/>
+      <c r="AJ27" s="25">
         <f t="shared" ref="AJ27:AJ29" si="185">AG27-AI27</f>
         <v>1</v>
       </c>
-      <c r="AK27" s="26"/>
-      <c r="AL27" s="26"/>
-      <c r="AM27" s="26">
+      <c r="AK27" s="25"/>
+      <c r="AL27" s="25"/>
+      <c r="AM27" s="25">
         <f t="shared" ref="AM27:AM29" si="186">AJ27-AL27</f>
         <v>1</v>
       </c>
-      <c r="AN27" s="26"/>
-      <c r="AO27" s="26"/>
-      <c r="AP27" s="26">
+      <c r="AN27" s="25"/>
+      <c r="AO27" s="25"/>
+      <c r="AP27" s="25">
         <f t="shared" ref="AP27:AP29" si="187">AM27-AO27</f>
         <v>1</v>
       </c>
-      <c r="AQ27" s="26"/>
-      <c r="AR27" s="26">
+      <c r="AQ27" s="25"/>
+      <c r="AR27" s="25">
         <v>0.8</v>
       </c>
-      <c r="AS27" s="26">
+      <c r="AS27" s="25">
         <f t="shared" ref="AS27:AS29" si="188">AP27-AR27</f>
-        <v>0.2</v>
-      </c>
-      <c r="AT27" s="26"/>
-      <c r="AU27" s="26"/>
-      <c r="AV27" s="26">
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AT27" s="25"/>
+      <c r="AU27" s="25"/>
+      <c r="AV27" s="25">
         <f t="shared" ref="AV27:AV29" si="189">AS27-AU27</f>
-        <v>0.2</v>
-      </c>
-      <c r="AW27" s="26"/>
-      <c r="AX27" s="26"/>
-      <c r="AY27" s="26">
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AW27" s="25"/>
+      <c r="AX27" s="25"/>
+      <c r="AY27" s="25">
         <f t="shared" ref="AY27:AY29" si="190">AV27-AX27</f>
-        <v>0.2</v>
-      </c>
-      <c r="AZ27" s="26">
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="AZ27" s="25">
         <f t="shared" ref="AZ27:AZ29" si="191">H27+K27+N27+Q27+T27+W27+Z27+AC27+AF27+AI27+AL27+AO27+AR27+AU27+AX27</f>
         <v>0.8</v>
       </c>
-      <c r="BA27" s="26">
+      <c r="BA27" s="25">
         <f t="shared" ref="BA27:BA29" si="192">G27-AZ27</f>
-        <v>0.2</v>
+        <v>0.19999999999999996</v>
       </c>
     </row>
     <row r="28" spans="2:53">
@@ -4192,101 +3660,101 @@
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28">
+      <c r="G28" s="26"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="J28" s="25"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28">
+      <c r="J28" s="24"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27">
         <f t="shared" si="177"/>
         <v>0</v>
       </c>
-      <c r="M28" s="25"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28">
+      <c r="M28" s="24"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27">
         <f t="shared" si="178"/>
         <v>0</v>
       </c>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="28">
+      <c r="P28" s="24"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27">
         <f t="shared" si="179"/>
         <v>0</v>
       </c>
-      <c r="S28" s="25"/>
-      <c r="T28" s="28"/>
-      <c r="U28" s="28">
+      <c r="S28" s="24"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="27">
         <f t="shared" si="180"/>
         <v>0</v>
       </c>
-      <c r="V28" s="25"/>
-      <c r="W28" s="28"/>
-      <c r="X28" s="28">
+      <c r="V28" s="24"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="27">
         <f t="shared" si="181"/>
         <v>0</v>
       </c>
-      <c r="Y28" s="25"/>
-      <c r="Z28" s="28"/>
-      <c r="AA28" s="28">
+      <c r="Y28" s="24"/>
+      <c r="Z28" s="27"/>
+      <c r="AA28" s="27">
         <f t="shared" si="182"/>
         <v>0</v>
       </c>
-      <c r="AB28" s="25"/>
-      <c r="AC28" s="28"/>
-      <c r="AD28" s="28">
+      <c r="AB28" s="24"/>
+      <c r="AC28" s="27"/>
+      <c r="AD28" s="27">
         <f t="shared" si="183"/>
         <v>0</v>
       </c>
-      <c r="AE28" s="25"/>
-      <c r="AF28" s="28"/>
-      <c r="AG28" s="28">
+      <c r="AE28" s="24"/>
+      <c r="AF28" s="27"/>
+      <c r="AG28" s="27">
         <f t="shared" si="184"/>
         <v>0</v>
       </c>
-      <c r="AH28" s="25"/>
-      <c r="AI28" s="28"/>
-      <c r="AJ28" s="28">
+      <c r="AH28" s="24"/>
+      <c r="AI28" s="27"/>
+      <c r="AJ28" s="27">
         <f t="shared" si="185"/>
         <v>0</v>
       </c>
-      <c r="AK28" s="25"/>
-      <c r="AL28" s="28"/>
-      <c r="AM28" s="28">
+      <c r="AK28" s="24"/>
+      <c r="AL28" s="27"/>
+      <c r="AM28" s="27">
         <f t="shared" si="186"/>
         <v>0</v>
       </c>
-      <c r="AN28" s="25"/>
-      <c r="AO28" s="28"/>
-      <c r="AP28" s="28">
+      <c r="AN28" s="24"/>
+      <c r="AO28" s="27"/>
+      <c r="AP28" s="27">
         <f t="shared" si="187"/>
         <v>0</v>
       </c>
-      <c r="AQ28" s="25"/>
-      <c r="AR28" s="28"/>
-      <c r="AS28" s="28">
+      <c r="AQ28" s="24"/>
+      <c r="AR28" s="27"/>
+      <c r="AS28" s="27">
         <f t="shared" si="188"/>
         <v>0</v>
       </c>
-      <c r="AT28" s="25"/>
-      <c r="AU28" s="28"/>
-      <c r="AV28" s="28">
+      <c r="AT28" s="24"/>
+      <c r="AU28" s="27"/>
+      <c r="AV28" s="27">
         <f t="shared" si="189"/>
         <v>0</v>
       </c>
-      <c r="AW28" s="25"/>
-      <c r="AX28" s="28"/>
-      <c r="AY28" s="28">
+      <c r="AW28" s="24"/>
+      <c r="AX28" s="27"/>
+      <c r="AY28" s="27">
         <f t="shared" si="190"/>
         <v>0</v>
       </c>
-      <c r="AZ28" s="28">
+      <c r="AZ28" s="27">
         <f t="shared" si="191"/>
         <v>0</v>
       </c>
-      <c r="BA28" s="28">
+      <c r="BA28" s="27">
         <f t="shared" si="192"/>
         <v>0</v>
       </c>
@@ -4300,108 +3768,110 @@
       <c r="E29" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" s="27">
-        <v>1</v>
-      </c>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28">
+      <c r="F29" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="26">
+        <v>1</v>
+      </c>
+      <c r="H29" s="27">
+        <v>1</v>
+      </c>
+      <c r="I29" s="27">
         <f t="shared" si="32"/>
-        <v>1</v>
-      </c>
-      <c r="J29" s="25"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28">
+        <v>0</v>
+      </c>
+      <c r="J29" s="24"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27">
         <f t="shared" si="177"/>
-        <v>1</v>
-      </c>
-      <c r="M29" s="25"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28">
+        <v>0</v>
+      </c>
+      <c r="M29" s="24"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27">
         <f t="shared" si="178"/>
-        <v>1</v>
-      </c>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="28">
+        <v>0</v>
+      </c>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27">
         <f t="shared" si="179"/>
-        <v>1</v>
-      </c>
-      <c r="S29" s="25"/>
-      <c r="T29" s="28"/>
-      <c r="U29" s="28">
+        <v>0</v>
+      </c>
+      <c r="S29" s="24"/>
+      <c r="T29" s="27"/>
+      <c r="U29" s="27">
         <f t="shared" si="180"/>
-        <v>1</v>
-      </c>
-      <c r="V29" s="25"/>
-      <c r="W29" s="28"/>
-      <c r="X29" s="28">
+        <v>0</v>
+      </c>
+      <c r="V29" s="24"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="27">
         <f t="shared" si="181"/>
-        <v>1</v>
-      </c>
-      <c r="Y29" s="25"/>
-      <c r="Z29" s="28"/>
-      <c r="AA29" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="24"/>
+      <c r="Z29" s="27"/>
+      <c r="AA29" s="27">
         <f t="shared" si="182"/>
-        <v>1</v>
-      </c>
-      <c r="AB29" s="25"/>
-      <c r="AC29" s="28"/>
-      <c r="AD29" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="24"/>
+      <c r="AC29" s="27"/>
+      <c r="AD29" s="27">
         <f t="shared" si="183"/>
-        <v>1</v>
-      </c>
-      <c r="AE29" s="25"/>
-      <c r="AF29" s="28"/>
-      <c r="AG29" s="28">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="24"/>
+      <c r="AF29" s="27"/>
+      <c r="AG29" s="27">
         <f t="shared" si="184"/>
-        <v>1</v>
-      </c>
-      <c r="AH29" s="25"/>
-      <c r="AI29" s="28"/>
-      <c r="AJ29" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="24"/>
+      <c r="AI29" s="27"/>
+      <c r="AJ29" s="27">
         <f t="shared" si="185"/>
-        <v>1</v>
-      </c>
-      <c r="AK29" s="25"/>
-      <c r="AL29" s="28"/>
-      <c r="AM29" s="28">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="24"/>
+      <c r="AL29" s="27"/>
+      <c r="AM29" s="27">
         <f t="shared" si="186"/>
-        <v>1</v>
-      </c>
-      <c r="AN29" s="25"/>
-      <c r="AO29" s="28"/>
-      <c r="AP29" s="28">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="24"/>
+      <c r="AO29" s="27"/>
+      <c r="AP29" s="27">
         <f t="shared" si="187"/>
-        <v>1</v>
-      </c>
-      <c r="AQ29" s="25"/>
-      <c r="AR29" s="28"/>
-      <c r="AS29" s="28">
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="24"/>
+      <c r="AR29" s="27"/>
+      <c r="AS29" s="27">
         <f t="shared" si="188"/>
-        <v>1</v>
-      </c>
-      <c r="AT29" s="25"/>
-      <c r="AU29" s="28"/>
-      <c r="AV29" s="28">
+        <v>0</v>
+      </c>
+      <c r="AT29" s="24"/>
+      <c r="AU29" s="27"/>
+      <c r="AV29" s="27">
         <f t="shared" si="189"/>
-        <v>1</v>
-      </c>
-      <c r="AW29" s="25"/>
-      <c r="AX29" s="28"/>
-      <c r="AY29" s="28">
+        <v>0</v>
+      </c>
+      <c r="AW29" s="24"/>
+      <c r="AX29" s="27"/>
+      <c r="AY29" s="27">
         <f t="shared" si="190"/>
-        <v>1</v>
-      </c>
-      <c r="AZ29" s="28">
+        <v>0</v>
+      </c>
+      <c r="AZ29" s="27">
         <f t="shared" si="191"/>
-        <v>0</v>
-      </c>
-      <c r="BA29" s="28">
+        <v>1</v>
+      </c>
+      <c r="BA29" s="27">
         <f t="shared" si="192"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:53">
@@ -4416,103 +3886,103 @@
       <c r="F30" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G30" s="27">
-        <v>1</v>
-      </c>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28">
+      <c r="G30" s="26">
+        <v>1</v>
+      </c>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27">
         <f t="shared" si="32"/>
         <v>1</v>
       </c>
-      <c r="J30" s="25"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28">
+      <c r="J30" s="24"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27">
         <f t="shared" ref="L30:L31" si="193">I30-K30</f>
         <v>1</v>
       </c>
-      <c r="M30" s="25"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28">
+      <c r="M30" s="24"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27">
         <f t="shared" ref="O30:O31" si="194">L30-N30</f>
         <v>1</v>
       </c>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28">
+      <c r="P30" s="24"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27">
         <f t="shared" ref="R30:R31" si="195">O30-Q30</f>
         <v>1</v>
       </c>
-      <c r="S30" s="25"/>
-      <c r="T30" s="28"/>
-      <c r="U30" s="28">
+      <c r="S30" s="24"/>
+      <c r="T30" s="27"/>
+      <c r="U30" s="27">
         <f t="shared" ref="U30:U31" si="196">R30-T30</f>
         <v>1</v>
       </c>
-      <c r="V30" s="25"/>
-      <c r="W30" s="28"/>
-      <c r="X30" s="28">
+      <c r="V30" s="24"/>
+      <c r="W30" s="27"/>
+      <c r="X30" s="27">
         <f t="shared" ref="X30:X31" si="197">U30-W30</f>
         <v>1</v>
       </c>
-      <c r="Y30" s="25"/>
-      <c r="Z30" s="28"/>
-      <c r="AA30" s="28">
+      <c r="Y30" s="24"/>
+      <c r="Z30" s="27"/>
+      <c r="AA30" s="27">
         <f t="shared" ref="AA30:AA31" si="198">X30-Z30</f>
         <v>1</v>
       </c>
-      <c r="AB30" s="25"/>
-      <c r="AC30" s="28"/>
-      <c r="AD30" s="28">
+      <c r="AB30" s="24"/>
+      <c r="AC30" s="27"/>
+      <c r="AD30" s="27">
         <f t="shared" ref="AD30:AD31" si="199">AA30-AC30</f>
         <v>1</v>
       </c>
-      <c r="AE30" s="25"/>
-      <c r="AF30" s="28"/>
-      <c r="AG30" s="28">
+      <c r="AE30" s="24"/>
+      <c r="AF30" s="27"/>
+      <c r="AG30" s="27">
         <f t="shared" ref="AG30:AG31" si="200">AD30-AF30</f>
         <v>1</v>
       </c>
-      <c r="AH30" s="25"/>
-      <c r="AI30" s="28"/>
-      <c r="AJ30" s="28">
+      <c r="AH30" s="24"/>
+      <c r="AI30" s="27"/>
+      <c r="AJ30" s="27">
         <f t="shared" ref="AJ30:AJ31" si="201">AG30-AI30</f>
         <v>1</v>
       </c>
-      <c r="AK30" s="25"/>
-      <c r="AL30" s="28"/>
-      <c r="AM30" s="28">
+      <c r="AK30" s="24"/>
+      <c r="AL30" s="27"/>
+      <c r="AM30" s="27">
         <f t="shared" ref="AM30:AM31" si="202">AJ30-AL30</f>
         <v>1</v>
       </c>
-      <c r="AN30" s="25"/>
-      <c r="AO30" s="28"/>
-      <c r="AP30" s="28">
+      <c r="AN30" s="24"/>
+      <c r="AO30" s="27"/>
+      <c r="AP30" s="27">
         <f t="shared" ref="AP30:AP31" si="203">AM30-AO30</f>
         <v>1</v>
       </c>
-      <c r="AQ30" s="25"/>
-      <c r="AR30" s="28"/>
-      <c r="AS30" s="28">
+      <c r="AQ30" s="24"/>
+      <c r="AR30" s="27"/>
+      <c r="AS30" s="27">
         <f t="shared" ref="AS30:AS31" si="204">AP30-AR30</f>
         <v>1</v>
       </c>
-      <c r="AT30" s="25"/>
-      <c r="AU30" s="28"/>
-      <c r="AV30" s="28">
+      <c r="AT30" s="24"/>
+      <c r="AU30" s="27"/>
+      <c r="AV30" s="27">
         <f t="shared" ref="AV30:AV31" si="205">AS30-AU30</f>
         <v>1</v>
       </c>
-      <c r="AW30" s="25"/>
-      <c r="AX30" s="28"/>
-      <c r="AY30" s="28">
+      <c r="AW30" s="24"/>
+      <c r="AX30" s="27"/>
+      <c r="AY30" s="27">
         <f t="shared" ref="AY30:AY31" si="206">AV30-AX30</f>
         <v>1</v>
       </c>
-      <c r="AZ30" s="28">
+      <c r="AZ30" s="27">
         <f t="shared" ref="AZ30:AZ32" si="207">H30+K30+N30+Q30+T30+W30+Z30+AC30+AF30+AI30+AL30+AO30+AR30+AU30+AX30</f>
         <v>0</v>
       </c>
-      <c r="BA30" s="28">
+      <c r="BA30" s="27">
         <f t="shared" ref="BA30:BA31" si="208">G30-AZ30</f>
         <v>1</v>
       </c>
@@ -4523,106 +3993,94 @@
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28">
+      <c r="G31" s="26"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27">
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="J31" s="25"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28">
+      <c r="J31" s="24"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27">
         <f t="shared" si="193"/>
         <v>0</v>
       </c>
-      <c r="M31" s="25"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28">
+      <c r="M31" s="24"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27">
         <f t="shared" si="194"/>
         <v>0</v>
       </c>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="28">
+      <c r="P31" s="24"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27">
         <f t="shared" si="195"/>
         <v>0</v>
       </c>
-      <c r="S31" s="25"/>
-      <c r="T31" s="28"/>
-      <c r="U31" s="28">
+      <c r="S31" s="24"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27">
         <f t="shared" si="196"/>
         <v>0</v>
       </c>
-      <c r="V31" s="25"/>
-      <c r="W31" s="28"/>
-      <c r="X31" s="28">
+      <c r="V31" s="24"/>
+      <c r="W31" s="27"/>
+      <c r="X31" s="27">
         <f t="shared" si="197"/>
         <v>0</v>
       </c>
-      <c r="Y31" s="25"/>
-      <c r="Z31" s="28"/>
-      <c r="AA31" s="28">
+      <c r="Y31" s="24"/>
+      <c r="Z31" s="27"/>
+      <c r="AA31" s="27">
         <f t="shared" si="198"/>
         <v>0</v>
       </c>
-      <c r="AB31" s="25"/>
-      <c r="AC31" s="28"/>
-      <c r="AD31" s="28">
+      <c r="AB31" s="24"/>
+      <c r="AC31" s="27"/>
+      <c r="AD31" s="27">
         <f t="shared" si="199"/>
         <v>0</v>
       </c>
-      <c r="AE31" s="25"/>
-      <c r="AF31" s="28"/>
-      <c r="AG31" s="28">
+      <c r="AE31" s="24"/>
+      <c r="AF31" s="27"/>
+      <c r="AG31" s="27">
         <f t="shared" si="200"/>
         <v>0</v>
       </c>
-      <c r="AH31" s="25"/>
-      <c r="AI31" s="28"/>
-      <c r="AJ31" s="28">
+      <c r="AH31" s="24"/>
+      <c r="AI31" s="27"/>
+      <c r="AJ31" s="27">
         <f t="shared" si="201"/>
         <v>0</v>
       </c>
-      <c r="AK31" s="25"/>
-      <c r="AL31" s="28"/>
-      <c r="AM31" s="28">
+      <c r="AK31" s="24"/>
+      <c r="AL31" s="27"/>
+      <c r="AM31" s="27">
         <f t="shared" si="202"/>
         <v>0</v>
       </c>
-      <c r="AN31" s="25"/>
-      <c r="AO31" s="28"/>
-      <c r="AP31" s="28">
+      <c r="AN31" s="24"/>
+      <c r="AO31" s="27"/>
+      <c r="AP31" s="27">
         <f t="shared" si="203"/>
         <v>0</v>
       </c>
-      <c r="AQ31" s="25"/>
-      <c r="AR31" s="28"/>
-      <c r="AS31" s="28">
+      <c r="AQ31" s="24"/>
+      <c r="AR31" s="27"/>
+      <c r="AS31" s="27">
         <f t="shared" si="204"/>
         <v>0</v>
       </c>
-      <c r="AT31" s="25"/>
-      <c r="AU31" s="28" t="s">
+      <c r="AT31" s="24"/>
+      <c r="AU31" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="AV31" s="28" t="e">
-        <f t="shared" si="205"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AW31" s="25"/>
-      <c r="AX31" s="28"/>
-      <c r="AY31" s="28" t="e">
-        <f t="shared" si="206"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AZ31" s="28" t="e">
-        <f t="shared" si="207"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BA31" s="28" t="e">
-        <f t="shared" si="208"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="AV31" s="27"/>
+      <c r="AW31" s="24"/>
+      <c r="AX31" s="27"/>
+      <c r="AY31" s="27"/>
+      <c r="AZ31" s="27"/>
+      <c r="BA31" s="27"/>
     </row>
     <row r="32" spans="2:53">
       <c r="B32" s="18"/>
@@ -4630,101 +4088,101 @@
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28">
+      <c r="G32" s="26"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27">
         <f t="shared" ref="I32:I41" si="209">G32-H32</f>
         <v>0</v>
       </c>
-      <c r="J32" s="25"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28">
+      <c r="J32" s="24"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27">
         <f t="shared" ref="L32:L41" si="210">I32-K32</f>
         <v>0</v>
       </c>
-      <c r="M32" s="25"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28">
+      <c r="M32" s="24"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27">
         <f t="shared" ref="O32:O41" si="211">L32-N32</f>
         <v>0</v>
       </c>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="28"/>
-      <c r="R32" s="28">
+      <c r="P32" s="24"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27">
         <f t="shared" ref="R32:R41" si="212">O32-Q32</f>
         <v>0</v>
       </c>
-      <c r="S32" s="25"/>
-      <c r="T32" s="28"/>
-      <c r="U32" s="28">
+      <c r="S32" s="24"/>
+      <c r="T32" s="27"/>
+      <c r="U32" s="27">
         <f t="shared" ref="U32:U41" si="213">R32-T32</f>
         <v>0</v>
       </c>
-      <c r="V32" s="25"/>
-      <c r="W32" s="28"/>
-      <c r="X32" s="28">
+      <c r="V32" s="24"/>
+      <c r="W32" s="27"/>
+      <c r="X32" s="27">
         <f t="shared" ref="X32:X41" si="214">U32-W32</f>
         <v>0</v>
       </c>
-      <c r="Y32" s="25"/>
-      <c r="Z32" s="28"/>
-      <c r="AA32" s="28">
+      <c r="Y32" s="24"/>
+      <c r="Z32" s="27"/>
+      <c r="AA32" s="27">
         <f t="shared" ref="AA32:AA41" si="215">X32-Z32</f>
         <v>0</v>
       </c>
-      <c r="AB32" s="25"/>
-      <c r="AC32" s="28"/>
-      <c r="AD32" s="28">
+      <c r="AB32" s="24"/>
+      <c r="AC32" s="27"/>
+      <c r="AD32" s="27">
         <f t="shared" ref="AD32:AD41" si="216">AA32-AC32</f>
         <v>0</v>
       </c>
-      <c r="AE32" s="25"/>
-      <c r="AF32" s="28"/>
-      <c r="AG32" s="28">
+      <c r="AE32" s="24"/>
+      <c r="AF32" s="27"/>
+      <c r="AG32" s="27">
         <f t="shared" ref="AG32:AG41" si="217">AD32-AF32</f>
         <v>0</v>
       </c>
-      <c r="AH32" s="25"/>
-      <c r="AI32" s="28"/>
-      <c r="AJ32" s="28">
+      <c r="AH32" s="24"/>
+      <c r="AI32" s="27"/>
+      <c r="AJ32" s="27">
         <f t="shared" ref="AJ32:AJ41" si="218">AG32-AI32</f>
         <v>0</v>
       </c>
-      <c r="AK32" s="25"/>
-      <c r="AL32" s="28"/>
-      <c r="AM32" s="28">
+      <c r="AK32" s="24"/>
+      <c r="AL32" s="27"/>
+      <c r="AM32" s="27">
         <f t="shared" ref="AM32:AM41" si="219">AJ32-AL32</f>
         <v>0</v>
       </c>
-      <c r="AN32" s="25"/>
-      <c r="AO32" s="28"/>
-      <c r="AP32" s="28">
+      <c r="AN32" s="24"/>
+      <c r="AO32" s="27"/>
+      <c r="AP32" s="27">
         <f t="shared" ref="AP32:AP41" si="220">AM32-AO32</f>
         <v>0</v>
       </c>
-      <c r="AQ32" s="25"/>
-      <c r="AR32" s="28"/>
-      <c r="AS32" s="28">
+      <c r="AQ32" s="24"/>
+      <c r="AR32" s="27"/>
+      <c r="AS32" s="27">
         <f t="shared" ref="AS32:AS41" si="221">AP32-AR32</f>
         <v>0</v>
       </c>
-      <c r="AT32" s="25"/>
-      <c r="AU32" s="28"/>
-      <c r="AV32" s="28">
+      <c r="AT32" s="24"/>
+      <c r="AU32" s="27"/>
+      <c r="AV32" s="27">
         <f t="shared" ref="AV32:AV41" si="222">AS32-AU32</f>
         <v>0</v>
       </c>
-      <c r="AW32" s="25"/>
-      <c r="AX32" s="28"/>
-      <c r="AY32" s="28">
+      <c r="AW32" s="24"/>
+      <c r="AX32" s="27"/>
+      <c r="AY32" s="27">
         <f t="shared" ref="AY32:AY41" si="223">AV32-AX32</f>
         <v>0</v>
       </c>
-      <c r="AZ32" s="28">
+      <c r="AZ32" s="27">
         <f t="shared" si="207"/>
         <v>0</v>
       </c>
-      <c r="BA32" s="28">
+      <c r="BA32" s="27">
         <f t="shared" ref="BA32:BA41" si="224">G32-AZ32</f>
         <v>0</v>
       </c>
@@ -4735,101 +4193,101 @@
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28">
+      <c r="G33" s="26"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27">
         <f t="shared" si="209"/>
         <v>0</v>
       </c>
-      <c r="J33" s="25"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28">
+      <c r="J33" s="24"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27">
         <f t="shared" si="210"/>
         <v>0</v>
       </c>
-      <c r="M33" s="25"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28">
+      <c r="M33" s="24"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27">
         <f t="shared" si="211"/>
         <v>0</v>
       </c>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="28"/>
-      <c r="R33" s="28">
+      <c r="P33" s="24"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27">
         <f t="shared" si="212"/>
         <v>0</v>
       </c>
-      <c r="S33" s="25"/>
-      <c r="T33" s="28"/>
-      <c r="U33" s="28">
+      <c r="S33" s="24"/>
+      <c r="T33" s="27"/>
+      <c r="U33" s="27">
         <f t="shared" si="213"/>
         <v>0</v>
       </c>
-      <c r="V33" s="25"/>
-      <c r="W33" s="28"/>
-      <c r="X33" s="28">
+      <c r="V33" s="24"/>
+      <c r="W33" s="27"/>
+      <c r="X33" s="27">
         <f t="shared" si="214"/>
         <v>0</v>
       </c>
-      <c r="Y33" s="25"/>
-      <c r="Z33" s="28"/>
-      <c r="AA33" s="28">
+      <c r="Y33" s="24"/>
+      <c r="Z33" s="27"/>
+      <c r="AA33" s="27">
         <f t="shared" si="215"/>
         <v>0</v>
       </c>
-      <c r="AB33" s="25"/>
-      <c r="AC33" s="28"/>
-      <c r="AD33" s="28">
+      <c r="AB33" s="24"/>
+      <c r="AC33" s="27"/>
+      <c r="AD33" s="27">
         <f t="shared" si="216"/>
         <v>0</v>
       </c>
-      <c r="AE33" s="25"/>
-      <c r="AF33" s="28"/>
-      <c r="AG33" s="28">
+      <c r="AE33" s="24"/>
+      <c r="AF33" s="27"/>
+      <c r="AG33" s="27">
         <f t="shared" si="217"/>
         <v>0</v>
       </c>
-      <c r="AH33" s="25"/>
-      <c r="AI33" s="28"/>
-      <c r="AJ33" s="28">
+      <c r="AH33" s="24"/>
+      <c r="AI33" s="27"/>
+      <c r="AJ33" s="27">
         <f t="shared" si="218"/>
         <v>0</v>
       </c>
-      <c r="AK33" s="25"/>
-      <c r="AL33" s="28"/>
-      <c r="AM33" s="28">
+      <c r="AK33" s="24"/>
+      <c r="AL33" s="27"/>
+      <c r="AM33" s="27">
         <f t="shared" si="219"/>
         <v>0</v>
       </c>
-      <c r="AN33" s="25"/>
-      <c r="AO33" s="28"/>
-      <c r="AP33" s="28">
+      <c r="AN33" s="24"/>
+      <c r="AO33" s="27"/>
+      <c r="AP33" s="27">
         <f t="shared" si="220"/>
         <v>0</v>
       </c>
-      <c r="AQ33" s="25"/>
-      <c r="AR33" s="28"/>
-      <c r="AS33" s="28">
+      <c r="AQ33" s="24"/>
+      <c r="AR33" s="27"/>
+      <c r="AS33" s="27">
         <f t="shared" si="221"/>
         <v>0</v>
       </c>
-      <c r="AT33" s="25"/>
-      <c r="AU33" s="28"/>
-      <c r="AV33" s="28">
+      <c r="AT33" s="24"/>
+      <c r="AU33" s="27"/>
+      <c r="AV33" s="27">
         <f t="shared" si="222"/>
         <v>0</v>
       </c>
-      <c r="AW33" s="25"/>
-      <c r="AX33" s="28"/>
-      <c r="AY33" s="28">
+      <c r="AW33" s="24"/>
+      <c r="AX33" s="27"/>
+      <c r="AY33" s="27">
         <f t="shared" si="223"/>
         <v>0</v>
       </c>
-      <c r="AZ33" s="28">
+      <c r="AZ33" s="27">
         <f t="shared" ref="AZ33:AZ34" si="225">H33+K33+N33+Q33+T33+W33+Z33+AC33+AF33+AI33+AL33+AO33+AR33+AU33+AX33</f>
         <v>0</v>
       </c>
-      <c r="BA33" s="28">
+      <c r="BA33" s="27">
         <f t="shared" si="224"/>
         <v>0</v>
       </c>
@@ -4840,101 +4298,101 @@
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28">
+      <c r="G34" s="26"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27">
         <f t="shared" si="209"/>
         <v>0</v>
       </c>
-      <c r="J34" s="25"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28">
+      <c r="J34" s="24"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27">
         <f t="shared" si="210"/>
         <v>0</v>
       </c>
-      <c r="M34" s="25"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28">
+      <c r="M34" s="24"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27">
         <f t="shared" si="211"/>
         <v>0</v>
       </c>
-      <c r="P34" s="25"/>
-      <c r="Q34" s="28"/>
-      <c r="R34" s="28">
+      <c r="P34" s="24"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27">
         <f t="shared" si="212"/>
         <v>0</v>
       </c>
-      <c r="S34" s="25"/>
-      <c r="T34" s="28"/>
-      <c r="U34" s="28">
+      <c r="S34" s="24"/>
+      <c r="T34" s="27"/>
+      <c r="U34" s="27">
         <f t="shared" si="213"/>
         <v>0</v>
       </c>
-      <c r="V34" s="25"/>
-      <c r="W34" s="28"/>
-      <c r="X34" s="28">
+      <c r="V34" s="24"/>
+      <c r="W34" s="27"/>
+      <c r="X34" s="27">
         <f t="shared" si="214"/>
         <v>0</v>
       </c>
-      <c r="Y34" s="25"/>
-      <c r="Z34" s="28"/>
-      <c r="AA34" s="28">
+      <c r="Y34" s="24"/>
+      <c r="Z34" s="27"/>
+      <c r="AA34" s="27">
         <f t="shared" si="215"/>
         <v>0</v>
       </c>
-      <c r="AB34" s="25"/>
-      <c r="AC34" s="28"/>
-      <c r="AD34" s="28">
+      <c r="AB34" s="24"/>
+      <c r="AC34" s="27"/>
+      <c r="AD34" s="27">
         <f t="shared" si="216"/>
         <v>0</v>
       </c>
-      <c r="AE34" s="25"/>
-      <c r="AF34" s="28"/>
-      <c r="AG34" s="28">
+      <c r="AE34" s="24"/>
+      <c r="AF34" s="27"/>
+      <c r="AG34" s="27">
         <f t="shared" si="217"/>
         <v>0</v>
       </c>
-      <c r="AH34" s="25"/>
-      <c r="AI34" s="28"/>
-      <c r="AJ34" s="28">
+      <c r="AH34" s="24"/>
+      <c r="AI34" s="27"/>
+      <c r="AJ34" s="27">
         <f t="shared" si="218"/>
         <v>0</v>
       </c>
-      <c r="AK34" s="25"/>
-      <c r="AL34" s="28"/>
-      <c r="AM34" s="28">
+      <c r="AK34" s="24"/>
+      <c r="AL34" s="27"/>
+      <c r="AM34" s="27">
         <f t="shared" si="219"/>
         <v>0</v>
       </c>
-      <c r="AN34" s="25"/>
-      <c r="AO34" s="28"/>
-      <c r="AP34" s="28">
+      <c r="AN34" s="24"/>
+      <c r="AO34" s="27"/>
+      <c r="AP34" s="27">
         <f t="shared" si="220"/>
         <v>0</v>
       </c>
-      <c r="AQ34" s="25"/>
-      <c r="AR34" s="28"/>
-      <c r="AS34" s="28">
+      <c r="AQ34" s="24"/>
+      <c r="AR34" s="27"/>
+      <c r="AS34" s="27">
         <f t="shared" si="221"/>
         <v>0</v>
       </c>
-      <c r="AT34" s="25"/>
-      <c r="AU34" s="28"/>
-      <c r="AV34" s="28">
+      <c r="AT34" s="24"/>
+      <c r="AU34" s="27"/>
+      <c r="AV34" s="27">
         <f t="shared" si="222"/>
         <v>0</v>
       </c>
-      <c r="AW34" s="25"/>
-      <c r="AX34" s="28"/>
-      <c r="AY34" s="28">
+      <c r="AW34" s="24"/>
+      <c r="AX34" s="27"/>
+      <c r="AY34" s="27">
         <f t="shared" si="223"/>
         <v>0</v>
       </c>
-      <c r="AZ34" s="28">
+      <c r="AZ34" s="27">
         <f t="shared" si="225"/>
         <v>0</v>
       </c>
-      <c r="BA34" s="28">
+      <c r="BA34" s="27">
         <f t="shared" si="224"/>
         <v>0</v>
       </c>
@@ -4945,101 +4403,101 @@
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28">
+      <c r="G35" s="26"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27">
         <f t="shared" si="209"/>
         <v>0</v>
       </c>
-      <c r="J35" s="25"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28">
+      <c r="J35" s="24"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27">
         <f t="shared" si="210"/>
         <v>0</v>
       </c>
-      <c r="M35" s="25"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28">
+      <c r="M35" s="24"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27">
         <f t="shared" si="211"/>
         <v>0</v>
       </c>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="28"/>
-      <c r="R35" s="28">
+      <c r="P35" s="24"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27">
         <f t="shared" si="212"/>
         <v>0</v>
       </c>
-      <c r="S35" s="25"/>
-      <c r="T35" s="28"/>
-      <c r="U35" s="28">
+      <c r="S35" s="24"/>
+      <c r="T35" s="27"/>
+      <c r="U35" s="27">
         <f t="shared" si="213"/>
         <v>0</v>
       </c>
-      <c r="V35" s="25"/>
-      <c r="W35" s="28"/>
-      <c r="X35" s="28">
+      <c r="V35" s="24"/>
+      <c r="W35" s="27"/>
+      <c r="X35" s="27">
         <f t="shared" si="214"/>
         <v>0</v>
       </c>
-      <c r="Y35" s="25"/>
-      <c r="Z35" s="28"/>
-      <c r="AA35" s="28">
+      <c r="Y35" s="24"/>
+      <c r="Z35" s="27"/>
+      <c r="AA35" s="27">
         <f t="shared" si="215"/>
         <v>0</v>
       </c>
-      <c r="AB35" s="25"/>
-      <c r="AC35" s="28"/>
-      <c r="AD35" s="28">
+      <c r="AB35" s="24"/>
+      <c r="AC35" s="27"/>
+      <c r="AD35" s="27">
         <f t="shared" si="216"/>
         <v>0</v>
       </c>
-      <c r="AE35" s="25"/>
-      <c r="AF35" s="28"/>
-      <c r="AG35" s="28">
+      <c r="AE35" s="24"/>
+      <c r="AF35" s="27"/>
+      <c r="AG35" s="27">
         <f t="shared" si="217"/>
         <v>0</v>
       </c>
-      <c r="AH35" s="25"/>
-      <c r="AI35" s="28"/>
-      <c r="AJ35" s="28">
+      <c r="AH35" s="24"/>
+      <c r="AI35" s="27"/>
+      <c r="AJ35" s="27">
         <f t="shared" si="218"/>
         <v>0</v>
       </c>
-      <c r="AK35" s="25"/>
-      <c r="AL35" s="28"/>
-      <c r="AM35" s="28">
+      <c r="AK35" s="24"/>
+      <c r="AL35" s="27"/>
+      <c r="AM35" s="27">
         <f t="shared" si="219"/>
         <v>0</v>
       </c>
-      <c r="AN35" s="25"/>
-      <c r="AO35" s="28"/>
-      <c r="AP35" s="28">
+      <c r="AN35" s="24"/>
+      <c r="AO35" s="27"/>
+      <c r="AP35" s="27">
         <f t="shared" si="220"/>
         <v>0</v>
       </c>
-      <c r="AQ35" s="25"/>
-      <c r="AR35" s="28"/>
-      <c r="AS35" s="28">
+      <c r="AQ35" s="24"/>
+      <c r="AR35" s="27"/>
+      <c r="AS35" s="27">
         <f t="shared" si="221"/>
         <v>0</v>
       </c>
-      <c r="AT35" s="25"/>
-      <c r="AU35" s="28"/>
-      <c r="AV35" s="28">
+      <c r="AT35" s="24"/>
+      <c r="AU35" s="27"/>
+      <c r="AV35" s="27">
         <f t="shared" si="222"/>
         <v>0</v>
       </c>
-      <c r="AW35" s="25"/>
-      <c r="AX35" s="28"/>
-      <c r="AY35" s="28">
+      <c r="AW35" s="24"/>
+      <c r="AX35" s="27"/>
+      <c r="AY35" s="27">
         <f t="shared" si="223"/>
         <v>0</v>
       </c>
-      <c r="AZ35" s="28">
+      <c r="AZ35" s="27">
         <f t="shared" ref="AZ35:AZ36" si="226">H35+K35+N35+Q35+T35+W35+Z35+AC35+AF35+AI35+AL35+AO35+AR35+AU35+AX35</f>
         <v>0</v>
       </c>
-      <c r="BA35" s="28">
+      <c r="BA35" s="27">
         <f t="shared" si="224"/>
         <v>0</v>
       </c>
@@ -5050,101 +4508,101 @@
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28">
+      <c r="G36" s="26"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27">
         <f t="shared" si="209"/>
         <v>0</v>
       </c>
-      <c r="J36" s="25"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="28">
+      <c r="J36" s="24"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27">
         <f t="shared" si="210"/>
         <v>0</v>
       </c>
-      <c r="M36" s="25"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28">
+      <c r="M36" s="24"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27">
         <f t="shared" si="211"/>
         <v>0</v>
       </c>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="28"/>
-      <c r="R36" s="28">
+      <c r="P36" s="24"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27">
         <f t="shared" si="212"/>
         <v>0</v>
       </c>
-      <c r="S36" s="25"/>
-      <c r="T36" s="28"/>
-      <c r="U36" s="28">
+      <c r="S36" s="24"/>
+      <c r="T36" s="27"/>
+      <c r="U36" s="27">
         <f t="shared" si="213"/>
         <v>0</v>
       </c>
-      <c r="V36" s="25"/>
-      <c r="W36" s="28"/>
-      <c r="X36" s="28">
+      <c r="V36" s="24"/>
+      <c r="W36" s="27"/>
+      <c r="X36" s="27">
         <f t="shared" si="214"/>
         <v>0</v>
       </c>
-      <c r="Y36" s="25"/>
-      <c r="Z36" s="28"/>
-      <c r="AA36" s="28">
+      <c r="Y36" s="24"/>
+      <c r="Z36" s="27"/>
+      <c r="AA36" s="27">
         <f t="shared" si="215"/>
         <v>0</v>
       </c>
-      <c r="AB36" s="25"/>
-      <c r="AC36" s="28"/>
-      <c r="AD36" s="28">
+      <c r="AB36" s="24"/>
+      <c r="AC36" s="27"/>
+      <c r="AD36" s="27">
         <f t="shared" si="216"/>
         <v>0</v>
       </c>
-      <c r="AE36" s="25"/>
-      <c r="AF36" s="28"/>
-      <c r="AG36" s="28">
+      <c r="AE36" s="24"/>
+      <c r="AF36" s="27"/>
+      <c r="AG36" s="27">
         <f t="shared" si="217"/>
         <v>0</v>
       </c>
-      <c r="AH36" s="25"/>
-      <c r="AI36" s="28"/>
-      <c r="AJ36" s="28">
+      <c r="AH36" s="24"/>
+      <c r="AI36" s="27"/>
+      <c r="AJ36" s="27">
         <f t="shared" si="218"/>
         <v>0</v>
       </c>
-      <c r="AK36" s="25"/>
-      <c r="AL36" s="28"/>
-      <c r="AM36" s="28">
+      <c r="AK36" s="24"/>
+      <c r="AL36" s="27"/>
+      <c r="AM36" s="27">
         <f t="shared" si="219"/>
         <v>0</v>
       </c>
-      <c r="AN36" s="25"/>
-      <c r="AO36" s="28"/>
-      <c r="AP36" s="28">
+      <c r="AN36" s="24"/>
+      <c r="AO36" s="27"/>
+      <c r="AP36" s="27">
         <f t="shared" si="220"/>
         <v>0</v>
       </c>
-      <c r="AQ36" s="25"/>
-      <c r="AR36" s="28"/>
-      <c r="AS36" s="28">
+      <c r="AQ36" s="24"/>
+      <c r="AR36" s="27"/>
+      <c r="AS36" s="27">
         <f t="shared" si="221"/>
         <v>0</v>
       </c>
-      <c r="AT36" s="25"/>
-      <c r="AU36" s="28"/>
-      <c r="AV36" s="28">
+      <c r="AT36" s="24"/>
+      <c r="AU36" s="27"/>
+      <c r="AV36" s="27">
         <f t="shared" si="222"/>
         <v>0</v>
       </c>
-      <c r="AW36" s="25"/>
-      <c r="AX36" s="28"/>
-      <c r="AY36" s="28">
+      <c r="AW36" s="24"/>
+      <c r="AX36" s="27"/>
+      <c r="AY36" s="27">
         <f t="shared" si="223"/>
         <v>0</v>
       </c>
-      <c r="AZ36" s="28">
+      <c r="AZ36" s="27">
         <f t="shared" si="226"/>
         <v>0</v>
       </c>
-      <c r="BA36" s="28">
+      <c r="BA36" s="27">
         <f t="shared" si="224"/>
         <v>0</v>
       </c>
@@ -5155,101 +4613,101 @@
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28">
+      <c r="G37" s="26"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27">
         <f t="shared" si="209"/>
         <v>0</v>
       </c>
-      <c r="J37" s="25"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="28">
+      <c r="J37" s="24"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27">
         <f t="shared" si="210"/>
         <v>0</v>
       </c>
-      <c r="M37" s="25"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="28">
+      <c r="M37" s="24"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27">
         <f t="shared" si="211"/>
         <v>0</v>
       </c>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="28"/>
-      <c r="R37" s="28">
+      <c r="P37" s="24"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="27">
         <f t="shared" si="212"/>
         <v>0</v>
       </c>
-      <c r="S37" s="25"/>
-      <c r="T37" s="28"/>
-      <c r="U37" s="28">
+      <c r="S37" s="24"/>
+      <c r="T37" s="27"/>
+      <c r="U37" s="27">
         <f t="shared" si="213"/>
         <v>0</v>
       </c>
-      <c r="V37" s="25"/>
-      <c r="W37" s="28"/>
-      <c r="X37" s="28">
+      <c r="V37" s="24"/>
+      <c r="W37" s="27"/>
+      <c r="X37" s="27">
         <f t="shared" si="214"/>
         <v>0</v>
       </c>
-      <c r="Y37" s="25"/>
-      <c r="Z37" s="28"/>
-      <c r="AA37" s="28">
+      <c r="Y37" s="24"/>
+      <c r="Z37" s="27"/>
+      <c r="AA37" s="27">
         <f t="shared" si="215"/>
         <v>0</v>
       </c>
-      <c r="AB37" s="25"/>
-      <c r="AC37" s="28"/>
-      <c r="AD37" s="28">
+      <c r="AB37" s="24"/>
+      <c r="AC37" s="27"/>
+      <c r="AD37" s="27">
         <f t="shared" si="216"/>
         <v>0</v>
       </c>
-      <c r="AE37" s="25"/>
-      <c r="AF37" s="28"/>
-      <c r="AG37" s="28">
+      <c r="AE37" s="24"/>
+      <c r="AF37" s="27"/>
+      <c r="AG37" s="27">
         <f t="shared" si="217"/>
         <v>0</v>
       </c>
-      <c r="AH37" s="25"/>
-      <c r="AI37" s="28"/>
-      <c r="AJ37" s="28">
+      <c r="AH37" s="24"/>
+      <c r="AI37" s="27"/>
+      <c r="AJ37" s="27">
         <f t="shared" si="218"/>
         <v>0</v>
       </c>
-      <c r="AK37" s="25"/>
-      <c r="AL37" s="28"/>
-      <c r="AM37" s="28">
+      <c r="AK37" s="24"/>
+      <c r="AL37" s="27"/>
+      <c r="AM37" s="27">
         <f t="shared" si="219"/>
         <v>0</v>
       </c>
-      <c r="AN37" s="25"/>
-      <c r="AO37" s="28"/>
-      <c r="AP37" s="28">
+      <c r="AN37" s="24"/>
+      <c r="AO37" s="27"/>
+      <c r="AP37" s="27">
         <f t="shared" si="220"/>
         <v>0</v>
       </c>
-      <c r="AQ37" s="25"/>
-      <c r="AR37" s="28"/>
-      <c r="AS37" s="28">
+      <c r="AQ37" s="24"/>
+      <c r="AR37" s="27"/>
+      <c r="AS37" s="27">
         <f t="shared" si="221"/>
         <v>0</v>
       </c>
-      <c r="AT37" s="25"/>
-      <c r="AU37" s="28"/>
-      <c r="AV37" s="28">
+      <c r="AT37" s="24"/>
+      <c r="AU37" s="27"/>
+      <c r="AV37" s="27">
         <f t="shared" si="222"/>
         <v>0</v>
       </c>
-      <c r="AW37" s="25"/>
-      <c r="AX37" s="28"/>
-      <c r="AY37" s="28">
+      <c r="AW37" s="24"/>
+      <c r="AX37" s="27"/>
+      <c r="AY37" s="27">
         <f t="shared" si="223"/>
         <v>0</v>
       </c>
-      <c r="AZ37" s="28">
+      <c r="AZ37" s="27">
         <f t="shared" ref="AZ37:AZ38" si="227">H37+K37+N37+Q37+T37+W37+Z37+AC37+AF37+AI37+AL37+AO37+AR37+AU37+AX37</f>
         <v>0</v>
       </c>
-      <c r="BA37" s="28">
+      <c r="BA37" s="27">
         <f t="shared" si="224"/>
         <v>0</v>
       </c>
@@ -5260,101 +4718,101 @@
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28">
+      <c r="G38" s="26"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27">
         <f t="shared" si="209"/>
         <v>0</v>
       </c>
-      <c r="J38" s="25"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="28">
+      <c r="J38" s="24"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27">
         <f t="shared" si="210"/>
         <v>0</v>
       </c>
-      <c r="M38" s="25"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28">
+      <c r="M38" s="24"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="27">
         <f t="shared" si="211"/>
         <v>0</v>
       </c>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="28"/>
-      <c r="R38" s="28">
+      <c r="P38" s="24"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="27">
         <f t="shared" si="212"/>
         <v>0</v>
       </c>
-      <c r="S38" s="25"/>
-      <c r="T38" s="28"/>
-      <c r="U38" s="28">
+      <c r="S38" s="24"/>
+      <c r="T38" s="27"/>
+      <c r="U38" s="27">
         <f t="shared" si="213"/>
         <v>0</v>
       </c>
-      <c r="V38" s="25"/>
-      <c r="W38" s="28"/>
-      <c r="X38" s="28">
+      <c r="V38" s="24"/>
+      <c r="W38" s="27"/>
+      <c r="X38" s="27">
         <f t="shared" si="214"/>
         <v>0</v>
       </c>
-      <c r="Y38" s="25"/>
-      <c r="Z38" s="28"/>
-      <c r="AA38" s="28">
+      <c r="Y38" s="24"/>
+      <c r="Z38" s="27"/>
+      <c r="AA38" s="27">
         <f t="shared" si="215"/>
         <v>0</v>
       </c>
-      <c r="AB38" s="25"/>
-      <c r="AC38" s="28"/>
-      <c r="AD38" s="28">
+      <c r="AB38" s="24"/>
+      <c r="AC38" s="27"/>
+      <c r="AD38" s="27">
         <f t="shared" si="216"/>
         <v>0</v>
       </c>
-      <c r="AE38" s="25"/>
-      <c r="AF38" s="28"/>
-      <c r="AG38" s="28">
+      <c r="AE38" s="24"/>
+      <c r="AF38" s="27"/>
+      <c r="AG38" s="27">
         <f t="shared" si="217"/>
         <v>0</v>
       </c>
-      <c r="AH38" s="25"/>
-      <c r="AI38" s="28"/>
-      <c r="AJ38" s="28">
+      <c r="AH38" s="24"/>
+      <c r="AI38" s="27"/>
+      <c r="AJ38" s="27">
         <f t="shared" si="218"/>
         <v>0</v>
       </c>
-      <c r="AK38" s="25"/>
-      <c r="AL38" s="28"/>
-      <c r="AM38" s="28">
+      <c r="AK38" s="24"/>
+      <c r="AL38" s="27"/>
+      <c r="AM38" s="27">
         <f t="shared" si="219"/>
         <v>0</v>
       </c>
-      <c r="AN38" s="25"/>
-      <c r="AO38" s="28"/>
-      <c r="AP38" s="28">
+      <c r="AN38" s="24"/>
+      <c r="AO38" s="27"/>
+      <c r="AP38" s="27">
         <f t="shared" si="220"/>
         <v>0</v>
       </c>
-      <c r="AQ38" s="25"/>
-      <c r="AR38" s="28"/>
-      <c r="AS38" s="28">
+      <c r="AQ38" s="24"/>
+      <c r="AR38" s="27"/>
+      <c r="AS38" s="27">
         <f t="shared" si="221"/>
         <v>0</v>
       </c>
-      <c r="AT38" s="25"/>
-      <c r="AU38" s="28"/>
-      <c r="AV38" s="28">
+      <c r="AT38" s="24"/>
+      <c r="AU38" s="27"/>
+      <c r="AV38" s="27">
         <f t="shared" si="222"/>
         <v>0</v>
       </c>
-      <c r="AW38" s="25"/>
-      <c r="AX38" s="28"/>
-      <c r="AY38" s="28">
+      <c r="AW38" s="24"/>
+      <c r="AX38" s="27"/>
+      <c r="AY38" s="27">
         <f t="shared" si="223"/>
         <v>0</v>
       </c>
-      <c r="AZ38" s="28">
+      <c r="AZ38" s="27">
         <f t="shared" si="227"/>
         <v>0</v>
       </c>
-      <c r="BA38" s="28">
+      <c r="BA38" s="27">
         <f t="shared" si="224"/>
         <v>0</v>
       </c>
@@ -5365,101 +4823,101 @@
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28">
+      <c r="G39" s="26"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27">
         <f t="shared" si="209"/>
         <v>0</v>
       </c>
-      <c r="J39" s="25"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28">
+      <c r="J39" s="24"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27">
         <f t="shared" si="210"/>
         <v>0</v>
       </c>
-      <c r="M39" s="25"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28">
+      <c r="M39" s="24"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27">
         <f t="shared" si="211"/>
         <v>0</v>
       </c>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="28"/>
-      <c r="R39" s="28">
+      <c r="P39" s="24"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="27">
         <f t="shared" si="212"/>
         <v>0</v>
       </c>
-      <c r="S39" s="25"/>
-      <c r="T39" s="28"/>
-      <c r="U39" s="28">
+      <c r="S39" s="24"/>
+      <c r="T39" s="27"/>
+      <c r="U39" s="27">
         <f t="shared" si="213"/>
         <v>0</v>
       </c>
-      <c r="V39" s="25"/>
-      <c r="W39" s="28"/>
-      <c r="X39" s="28">
+      <c r="V39" s="24"/>
+      <c r="W39" s="27"/>
+      <c r="X39" s="27">
         <f t="shared" si="214"/>
         <v>0</v>
       </c>
-      <c r="Y39" s="25"/>
-      <c r="Z39" s="28"/>
-      <c r="AA39" s="28">
+      <c r="Y39" s="24"/>
+      <c r="Z39" s="27"/>
+      <c r="AA39" s="27">
         <f t="shared" si="215"/>
         <v>0</v>
       </c>
-      <c r="AB39" s="25"/>
-      <c r="AC39" s="28"/>
-      <c r="AD39" s="28">
+      <c r="AB39" s="24"/>
+      <c r="AC39" s="27"/>
+      <c r="AD39" s="27">
         <f t="shared" si="216"/>
         <v>0</v>
       </c>
-      <c r="AE39" s="25"/>
-      <c r="AF39" s="28"/>
-      <c r="AG39" s="28">
+      <c r="AE39" s="24"/>
+      <c r="AF39" s="27"/>
+      <c r="AG39" s="27">
         <f t="shared" si="217"/>
         <v>0</v>
       </c>
-      <c r="AH39" s="25"/>
-      <c r="AI39" s="28"/>
-      <c r="AJ39" s="28">
+      <c r="AH39" s="24"/>
+      <c r="AI39" s="27"/>
+      <c r="AJ39" s="27">
         <f t="shared" si="218"/>
         <v>0</v>
       </c>
-      <c r="AK39" s="25"/>
-      <c r="AL39" s="28"/>
-      <c r="AM39" s="28">
+      <c r="AK39" s="24"/>
+      <c r="AL39" s="27"/>
+      <c r="AM39" s="27">
         <f t="shared" si="219"/>
         <v>0</v>
       </c>
-      <c r="AN39" s="25"/>
-      <c r="AO39" s="28"/>
-      <c r="AP39" s="28">
+      <c r="AN39" s="24"/>
+      <c r="AO39" s="27"/>
+      <c r="AP39" s="27">
         <f t="shared" si="220"/>
         <v>0</v>
       </c>
-      <c r="AQ39" s="25"/>
-      <c r="AR39" s="28"/>
-      <c r="AS39" s="28">
+      <c r="AQ39" s="24"/>
+      <c r="AR39" s="27"/>
+      <c r="AS39" s="27">
         <f t="shared" si="221"/>
         <v>0</v>
       </c>
-      <c r="AT39" s="25"/>
-      <c r="AU39" s="28"/>
-      <c r="AV39" s="28">
+      <c r="AT39" s="24"/>
+      <c r="AU39" s="27"/>
+      <c r="AV39" s="27">
         <f t="shared" si="222"/>
         <v>0</v>
       </c>
-      <c r="AW39" s="25"/>
-      <c r="AX39" s="28"/>
-      <c r="AY39" s="28">
+      <c r="AW39" s="24"/>
+      <c r="AX39" s="27"/>
+      <c r="AY39" s="27">
         <f t="shared" si="223"/>
         <v>0</v>
       </c>
-      <c r="AZ39" s="28">
+      <c r="AZ39" s="27">
         <f t="shared" ref="AZ39:AZ40" si="228">H39+K39+N39+Q39+T39+W39+Z39+AC39+AF39+AI39+AL39+AO39+AR39+AU39+AX39</f>
         <v>0</v>
       </c>
-      <c r="BA39" s="28">
+      <c r="BA39" s="27">
         <f t="shared" si="224"/>
         <v>0</v>
       </c>
@@ -5470,101 +4928,101 @@
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28">
+      <c r="G40" s="26"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27">
         <f t="shared" si="209"/>
         <v>0</v>
       </c>
-      <c r="J40" s="25"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="28">
+      <c r="J40" s="24"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27">
         <f t="shared" si="210"/>
         <v>0</v>
       </c>
-      <c r="M40" s="25"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="28">
+      <c r="M40" s="24"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27">
         <f t="shared" si="211"/>
         <v>0</v>
       </c>
-      <c r="P40" s="25"/>
-      <c r="Q40" s="28"/>
-      <c r="R40" s="28">
+      <c r="P40" s="24"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="27">
         <f t="shared" si="212"/>
         <v>0</v>
       </c>
-      <c r="S40" s="25"/>
-      <c r="T40" s="28"/>
-      <c r="U40" s="28">
+      <c r="S40" s="24"/>
+      <c r="T40" s="27"/>
+      <c r="U40" s="27">
         <f t="shared" si="213"/>
         <v>0</v>
       </c>
-      <c r="V40" s="25"/>
-      <c r="W40" s="28"/>
-      <c r="X40" s="28">
+      <c r="V40" s="24"/>
+      <c r="W40" s="27"/>
+      <c r="X40" s="27">
         <f t="shared" si="214"/>
         <v>0</v>
       </c>
-      <c r="Y40" s="25"/>
-      <c r="Z40" s="28"/>
-      <c r="AA40" s="28">
+      <c r="Y40" s="24"/>
+      <c r="Z40" s="27"/>
+      <c r="AA40" s="27">
         <f t="shared" si="215"/>
         <v>0</v>
       </c>
-      <c r="AB40" s="25"/>
-      <c r="AC40" s="28"/>
-      <c r="AD40" s="28">
+      <c r="AB40" s="24"/>
+      <c r="AC40" s="27"/>
+      <c r="AD40" s="27">
         <f t="shared" si="216"/>
         <v>0</v>
       </c>
-      <c r="AE40" s="25"/>
-      <c r="AF40" s="28"/>
-      <c r="AG40" s="28">
+      <c r="AE40" s="24"/>
+      <c r="AF40" s="27"/>
+      <c r="AG40" s="27">
         <f t="shared" si="217"/>
         <v>0</v>
       </c>
-      <c r="AH40" s="25"/>
-      <c r="AI40" s="28"/>
-      <c r="AJ40" s="28">
+      <c r="AH40" s="24"/>
+      <c r="AI40" s="27"/>
+      <c r="AJ40" s="27">
         <f t="shared" si="218"/>
         <v>0</v>
       </c>
-      <c r="AK40" s="25"/>
-      <c r="AL40" s="28"/>
-      <c r="AM40" s="28">
+      <c r="AK40" s="24"/>
+      <c r="AL40" s="27"/>
+      <c r="AM40" s="27">
         <f t="shared" si="219"/>
         <v>0</v>
       </c>
-      <c r="AN40" s="25"/>
-      <c r="AO40" s="28"/>
-      <c r="AP40" s="28">
+      <c r="AN40" s="24"/>
+      <c r="AO40" s="27"/>
+      <c r="AP40" s="27">
         <f t="shared" si="220"/>
         <v>0</v>
       </c>
-      <c r="AQ40" s="25"/>
-      <c r="AR40" s="28"/>
-      <c r="AS40" s="28">
+      <c r="AQ40" s="24"/>
+      <c r="AR40" s="27"/>
+      <c r="AS40" s="27">
         <f t="shared" si="221"/>
         <v>0</v>
       </c>
-      <c r="AT40" s="25"/>
-      <c r="AU40" s="28"/>
-      <c r="AV40" s="28">
+      <c r="AT40" s="24"/>
+      <c r="AU40" s="27"/>
+      <c r="AV40" s="27">
         <f t="shared" si="222"/>
         <v>0</v>
       </c>
-      <c r="AW40" s="25"/>
-      <c r="AX40" s="28"/>
-      <c r="AY40" s="28">
+      <c r="AW40" s="24"/>
+      <c r="AX40" s="27"/>
+      <c r="AY40" s="27">
         <f t="shared" si="223"/>
         <v>0</v>
       </c>
-      <c r="AZ40" s="28">
+      <c r="AZ40" s="27">
         <f t="shared" si="228"/>
         <v>0</v>
       </c>
-      <c r="BA40" s="28">
+      <c r="BA40" s="27">
         <f t="shared" si="224"/>
         <v>0</v>
       </c>
@@ -5575,101 +5033,101 @@
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28">
+      <c r="G41" s="26"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27">
         <f t="shared" si="209"/>
         <v>0</v>
       </c>
-      <c r="J41" s="25"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28">
+      <c r="J41" s="24"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27">
         <f t="shared" si="210"/>
         <v>0</v>
       </c>
-      <c r="M41" s="25"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28">
+      <c r="M41" s="24"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27">
         <f t="shared" si="211"/>
         <v>0</v>
       </c>
-      <c r="P41" s="25"/>
-      <c r="Q41" s="28"/>
-      <c r="R41" s="28">
+      <c r="P41" s="24"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="27">
         <f t="shared" si="212"/>
         <v>0</v>
       </c>
-      <c r="S41" s="25"/>
-      <c r="T41" s="28"/>
-      <c r="U41" s="28">
+      <c r="S41" s="24"/>
+      <c r="T41" s="27"/>
+      <c r="U41" s="27">
         <f t="shared" si="213"/>
         <v>0</v>
       </c>
-      <c r="V41" s="25"/>
-      <c r="W41" s="28"/>
-      <c r="X41" s="28">
+      <c r="V41" s="24"/>
+      <c r="W41" s="27"/>
+      <c r="X41" s="27">
         <f t="shared" si="214"/>
         <v>0</v>
       </c>
-      <c r="Y41" s="25"/>
-      <c r="Z41" s="28"/>
-      <c r="AA41" s="28">
+      <c r="Y41" s="24"/>
+      <c r="Z41" s="27"/>
+      <c r="AA41" s="27">
         <f t="shared" si="215"/>
         <v>0</v>
       </c>
-      <c r="AB41" s="25"/>
-      <c r="AC41" s="28"/>
-      <c r="AD41" s="28">
+      <c r="AB41" s="24"/>
+      <c r="AC41" s="27"/>
+      <c r="AD41" s="27">
         <f t="shared" si="216"/>
         <v>0</v>
       </c>
-      <c r="AE41" s="25"/>
-      <c r="AF41" s="28"/>
-      <c r="AG41" s="28">
+      <c r="AE41" s="24"/>
+      <c r="AF41" s="27"/>
+      <c r="AG41" s="27">
         <f t="shared" si="217"/>
         <v>0</v>
       </c>
-      <c r="AH41" s="25"/>
-      <c r="AI41" s="28"/>
-      <c r="AJ41" s="28">
+      <c r="AH41" s="24"/>
+      <c r="AI41" s="27"/>
+      <c r="AJ41" s="27">
         <f t="shared" si="218"/>
         <v>0</v>
       </c>
-      <c r="AK41" s="25"/>
-      <c r="AL41" s="28"/>
-      <c r="AM41" s="28">
+      <c r="AK41" s="24"/>
+      <c r="AL41" s="27"/>
+      <c r="AM41" s="27">
         <f t="shared" si="219"/>
         <v>0</v>
       </c>
-      <c r="AN41" s="25"/>
-      <c r="AO41" s="28"/>
-      <c r="AP41" s="28">
+      <c r="AN41" s="24"/>
+      <c r="AO41" s="27"/>
+      <c r="AP41" s="27">
         <f t="shared" si="220"/>
         <v>0</v>
       </c>
-      <c r="AQ41" s="25"/>
-      <c r="AR41" s="28"/>
-      <c r="AS41" s="28">
+      <c r="AQ41" s="24"/>
+      <c r="AR41" s="27"/>
+      <c r="AS41" s="27">
         <f t="shared" si="221"/>
         <v>0</v>
       </c>
-      <c r="AT41" s="25"/>
-      <c r="AU41" s="28"/>
-      <c r="AV41" s="28">
+      <c r="AT41" s="24"/>
+      <c r="AU41" s="27"/>
+      <c r="AV41" s="27">
         <f t="shared" si="222"/>
         <v>0</v>
       </c>
-      <c r="AW41" s="25"/>
-      <c r="AX41" s="28"/>
-      <c r="AY41" s="28">
+      <c r="AW41" s="24"/>
+      <c r="AX41" s="27"/>
+      <c r="AY41" s="27">
         <f t="shared" si="223"/>
         <v>0</v>
       </c>
-      <c r="AZ41" s="28">
+      <c r="AZ41" s="27">
         <f t="shared" ref="AZ41:AZ42" si="229">H41+K41+N41+Q41+T41+W41+Z41+AC41+AF41+AI41+AL41+AO41+AR41+AU41+AX41</f>
         <v>0</v>
       </c>
-      <c r="BA41" s="28">
+      <c r="BA41" s="27">
         <f t="shared" si="224"/>
         <v>0</v>
       </c>
@@ -5680,101 +5138,101 @@
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28">
+      <c r="G42" s="26"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27">
         <f t="shared" ref="I42:I46" si="230">G42-H42</f>
         <v>0</v>
       </c>
-      <c r="J42" s="25"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28">
+      <c r="J42" s="24"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27">
         <f t="shared" ref="L42:L46" si="231">I42-K42</f>
         <v>0</v>
       </c>
-      <c r="M42" s="25"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28">
+      <c r="M42" s="24"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="27">
         <f t="shared" ref="O42:O46" si="232">L42-N42</f>
         <v>0</v>
       </c>
-      <c r="P42" s="25"/>
-      <c r="Q42" s="28"/>
-      <c r="R42" s="28">
+      <c r="P42" s="24"/>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="27">
         <f t="shared" ref="R42:R46" si="233">O42-Q42</f>
         <v>0</v>
       </c>
-      <c r="S42" s="25"/>
-      <c r="T42" s="28"/>
-      <c r="U42" s="28">
+      <c r="S42" s="24"/>
+      <c r="T42" s="27"/>
+      <c r="U42" s="27">
         <f t="shared" ref="U42:U46" si="234">R42-T42</f>
         <v>0</v>
       </c>
-      <c r="V42" s="25"/>
-      <c r="W42" s="28"/>
-      <c r="X42" s="28">
+      <c r="V42" s="24"/>
+      <c r="W42" s="27"/>
+      <c r="X42" s="27">
         <f t="shared" ref="X42:X46" si="235">U42-W42</f>
         <v>0</v>
       </c>
-      <c r="Y42" s="25"/>
-      <c r="Z42" s="28"/>
-      <c r="AA42" s="28">
+      <c r="Y42" s="24"/>
+      <c r="Z42" s="27"/>
+      <c r="AA42" s="27">
         <f t="shared" ref="AA42:AA46" si="236">X42-Z42</f>
         <v>0</v>
       </c>
-      <c r="AB42" s="25"/>
-      <c r="AC42" s="28"/>
-      <c r="AD42" s="28">
+      <c r="AB42" s="24"/>
+      <c r="AC42" s="27"/>
+      <c r="AD42" s="27">
         <f t="shared" ref="AD42:AD46" si="237">AA42-AC42</f>
         <v>0</v>
       </c>
-      <c r="AE42" s="25"/>
-      <c r="AF42" s="28"/>
-      <c r="AG42" s="28">
+      <c r="AE42" s="24"/>
+      <c r="AF42" s="27"/>
+      <c r="AG42" s="27">
         <f t="shared" ref="AG42:AG46" si="238">AD42-AF42</f>
         <v>0</v>
       </c>
-      <c r="AH42" s="25"/>
-      <c r="AI42" s="28"/>
-      <c r="AJ42" s="28">
+      <c r="AH42" s="24"/>
+      <c r="AI42" s="27"/>
+      <c r="AJ42" s="27">
         <f t="shared" ref="AJ42:AJ46" si="239">AG42-AI42</f>
         <v>0</v>
       </c>
-      <c r="AK42" s="25"/>
-      <c r="AL42" s="28"/>
-      <c r="AM42" s="28">
+      <c r="AK42" s="24"/>
+      <c r="AL42" s="27"/>
+      <c r="AM42" s="27">
         <f t="shared" ref="AM42:AM46" si="240">AJ42-AL42</f>
         <v>0</v>
       </c>
-      <c r="AN42" s="25"/>
-      <c r="AO42" s="28"/>
-      <c r="AP42" s="28">
+      <c r="AN42" s="24"/>
+      <c r="AO42" s="27"/>
+      <c r="AP42" s="27">
         <f t="shared" ref="AP42:AP46" si="241">AM42-AO42</f>
         <v>0</v>
       </c>
-      <c r="AQ42" s="25"/>
-      <c r="AR42" s="28"/>
-      <c r="AS42" s="28">
+      <c r="AQ42" s="24"/>
+      <c r="AR42" s="27"/>
+      <c r="AS42" s="27">
         <f t="shared" ref="AS42:AS46" si="242">AP42-AR42</f>
         <v>0</v>
       </c>
-      <c r="AT42" s="25"/>
-      <c r="AU42" s="28"/>
-      <c r="AV42" s="28">
+      <c r="AT42" s="24"/>
+      <c r="AU42" s="27"/>
+      <c r="AV42" s="27">
         <f t="shared" ref="AV42:AV46" si="243">AS42-AU42</f>
         <v>0</v>
       </c>
-      <c r="AW42" s="25"/>
-      <c r="AX42" s="28"/>
-      <c r="AY42" s="28">
+      <c r="AW42" s="24"/>
+      <c r="AX42" s="27"/>
+      <c r="AY42" s="27">
         <f t="shared" ref="AY42:AY46" si="244">AV42-AX42</f>
         <v>0</v>
       </c>
-      <c r="AZ42" s="28">
+      <c r="AZ42" s="27">
         <f t="shared" si="229"/>
         <v>0</v>
       </c>
-      <c r="BA42" s="28">
+      <c r="BA42" s="27">
         <f t="shared" ref="BA42:BA46" si="245">G42-AZ42</f>
         <v>0</v>
       </c>
@@ -5785,101 +5243,101 @@
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28">
+      <c r="G43" s="26"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27">
         <f t="shared" si="230"/>
         <v>0</v>
       </c>
-      <c r="J43" s="25"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="28">
+      <c r="J43" s="24"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27">
         <f t="shared" si="231"/>
         <v>0</v>
       </c>
-      <c r="M43" s="25"/>
-      <c r="N43" s="28"/>
-      <c r="O43" s="28">
+      <c r="M43" s="24"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27">
         <f t="shared" si="232"/>
         <v>0</v>
       </c>
-      <c r="P43" s="25"/>
-      <c r="Q43" s="28"/>
-      <c r="R43" s="28">
+      <c r="P43" s="24"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="27">
         <f t="shared" si="233"/>
         <v>0</v>
       </c>
-      <c r="S43" s="25"/>
-      <c r="T43" s="28"/>
-      <c r="U43" s="28">
+      <c r="S43" s="24"/>
+      <c r="T43" s="27"/>
+      <c r="U43" s="27">
         <f t="shared" si="234"/>
         <v>0</v>
       </c>
-      <c r="V43" s="25"/>
-      <c r="W43" s="28"/>
-      <c r="X43" s="28">
+      <c r="V43" s="24"/>
+      <c r="W43" s="27"/>
+      <c r="X43" s="27">
         <f t="shared" si="235"/>
         <v>0</v>
       </c>
-      <c r="Y43" s="25"/>
-      <c r="Z43" s="28"/>
-      <c r="AA43" s="28">
+      <c r="Y43" s="24"/>
+      <c r="Z43" s="27"/>
+      <c r="AA43" s="27">
         <f t="shared" si="236"/>
         <v>0</v>
       </c>
-      <c r="AB43" s="25"/>
-      <c r="AC43" s="28"/>
-      <c r="AD43" s="28">
+      <c r="AB43" s="24"/>
+      <c r="AC43" s="27"/>
+      <c r="AD43" s="27">
         <f t="shared" si="237"/>
         <v>0</v>
       </c>
-      <c r="AE43" s="25"/>
-      <c r="AF43" s="28"/>
-      <c r="AG43" s="28">
+      <c r="AE43" s="24"/>
+      <c r="AF43" s="27"/>
+      <c r="AG43" s="27">
         <f t="shared" si="238"/>
         <v>0</v>
       </c>
-      <c r="AH43" s="25"/>
-      <c r="AI43" s="28"/>
-      <c r="AJ43" s="28">
+      <c r="AH43" s="24"/>
+      <c r="AI43" s="27"/>
+      <c r="AJ43" s="27">
         <f t="shared" si="239"/>
         <v>0</v>
       </c>
-      <c r="AK43" s="25"/>
-      <c r="AL43" s="28"/>
-      <c r="AM43" s="28">
+      <c r="AK43" s="24"/>
+      <c r="AL43" s="27"/>
+      <c r="AM43" s="27">
         <f t="shared" si="240"/>
         <v>0</v>
       </c>
-      <c r="AN43" s="25"/>
-      <c r="AO43" s="28"/>
-      <c r="AP43" s="28">
+      <c r="AN43" s="24"/>
+      <c r="AO43" s="27"/>
+      <c r="AP43" s="27">
         <f t="shared" si="241"/>
         <v>0</v>
       </c>
-      <c r="AQ43" s="25"/>
-      <c r="AR43" s="28"/>
-      <c r="AS43" s="28">
+      <c r="AQ43" s="24"/>
+      <c r="AR43" s="27"/>
+      <c r="AS43" s="27">
         <f t="shared" si="242"/>
         <v>0</v>
       </c>
-      <c r="AT43" s="25"/>
-      <c r="AU43" s="28"/>
-      <c r="AV43" s="28">
+      <c r="AT43" s="24"/>
+      <c r="AU43" s="27"/>
+      <c r="AV43" s="27">
         <f t="shared" si="243"/>
         <v>0</v>
       </c>
-      <c r="AW43" s="25"/>
-      <c r="AX43" s="28"/>
-      <c r="AY43" s="28">
+      <c r="AW43" s="24"/>
+      <c r="AX43" s="27"/>
+      <c r="AY43" s="27">
         <f t="shared" si="244"/>
         <v>0</v>
       </c>
-      <c r="AZ43" s="28">
+      <c r="AZ43" s="27">
         <f t="shared" ref="AZ43:AZ44" si="246">H43+K43+N43+Q43+T43+W43+Z43+AC43+AF43+AI43+AL43+AO43+AR43+AU43+AX43</f>
         <v>0</v>
       </c>
-      <c r="BA43" s="28">
+      <c r="BA43" s="27">
         <f t="shared" si="245"/>
         <v>0</v>
       </c>
@@ -5890,101 +5348,101 @@
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28">
+      <c r="G44" s="26"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27">
         <f t="shared" si="230"/>
         <v>0</v>
       </c>
-      <c r="J44" s="25"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="28">
+      <c r="J44" s="24"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27">
         <f t="shared" si="231"/>
         <v>0</v>
       </c>
-      <c r="M44" s="25"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="28">
+      <c r="M44" s="24"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27">
         <f t="shared" si="232"/>
         <v>0</v>
       </c>
-      <c r="P44" s="25"/>
-      <c r="Q44" s="28"/>
-      <c r="R44" s="28">
+      <c r="P44" s="24"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="27">
         <f t="shared" si="233"/>
         <v>0</v>
       </c>
-      <c r="S44" s="25"/>
-      <c r="T44" s="28"/>
-      <c r="U44" s="28">
+      <c r="S44" s="24"/>
+      <c r="T44" s="27"/>
+      <c r="U44" s="27">
         <f t="shared" si="234"/>
         <v>0</v>
       </c>
-      <c r="V44" s="25"/>
-      <c r="W44" s="28"/>
-      <c r="X44" s="28">
+      <c r="V44" s="24"/>
+      <c r="W44" s="27"/>
+      <c r="X44" s="27">
         <f t="shared" si="235"/>
         <v>0</v>
       </c>
-      <c r="Y44" s="25"/>
-      <c r="Z44" s="28"/>
-      <c r="AA44" s="28">
+      <c r="Y44" s="24"/>
+      <c r="Z44" s="27"/>
+      <c r="AA44" s="27">
         <f t="shared" si="236"/>
         <v>0</v>
       </c>
-      <c r="AB44" s="25"/>
-      <c r="AC44" s="28"/>
-      <c r="AD44" s="28">
+      <c r="AB44" s="24"/>
+      <c r="AC44" s="27"/>
+      <c r="AD44" s="27">
         <f t="shared" si="237"/>
         <v>0</v>
       </c>
-      <c r="AE44" s="25"/>
-      <c r="AF44" s="28"/>
-      <c r="AG44" s="28">
+      <c r="AE44" s="24"/>
+      <c r="AF44" s="27"/>
+      <c r="AG44" s="27">
         <f t="shared" si="238"/>
         <v>0</v>
       </c>
-      <c r="AH44" s="25"/>
-      <c r="AI44" s="28"/>
-      <c r="AJ44" s="28">
+      <c r="AH44" s="24"/>
+      <c r="AI44" s="27"/>
+      <c r="AJ44" s="27">
         <f t="shared" si="239"/>
         <v>0</v>
       </c>
-      <c r="AK44" s="25"/>
-      <c r="AL44" s="28"/>
-      <c r="AM44" s="28">
+      <c r="AK44" s="24"/>
+      <c r="AL44" s="27"/>
+      <c r="AM44" s="27">
         <f t="shared" si="240"/>
         <v>0</v>
       </c>
-      <c r="AN44" s="25"/>
-      <c r="AO44" s="28"/>
-      <c r="AP44" s="28">
+      <c r="AN44" s="24"/>
+      <c r="AO44" s="27"/>
+      <c r="AP44" s="27">
         <f t="shared" si="241"/>
         <v>0</v>
       </c>
-      <c r="AQ44" s="25"/>
-      <c r="AR44" s="28"/>
-      <c r="AS44" s="28">
+      <c r="AQ44" s="24"/>
+      <c r="AR44" s="27"/>
+      <c r="AS44" s="27">
         <f t="shared" si="242"/>
         <v>0</v>
       </c>
-      <c r="AT44" s="25"/>
-      <c r="AU44" s="28"/>
-      <c r="AV44" s="28">
+      <c r="AT44" s="24"/>
+      <c r="AU44" s="27"/>
+      <c r="AV44" s="27">
         <f t="shared" si="243"/>
         <v>0</v>
       </c>
-      <c r="AW44" s="25"/>
-      <c r="AX44" s="28"/>
-      <c r="AY44" s="28">
+      <c r="AW44" s="24"/>
+      <c r="AX44" s="27"/>
+      <c r="AY44" s="27">
         <f t="shared" si="244"/>
         <v>0</v>
       </c>
-      <c r="AZ44" s="28">
+      <c r="AZ44" s="27">
         <f t="shared" si="246"/>
         <v>0</v>
       </c>
-      <c r="BA44" s="28">
+      <c r="BA44" s="27">
         <f t="shared" si="245"/>
         <v>0</v>
       </c>
@@ -5995,101 +5453,101 @@
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28">
+      <c r="G45" s="26"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27">
         <f t="shared" si="230"/>
         <v>0</v>
       </c>
-      <c r="J45" s="25"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="28">
+      <c r="J45" s="24"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27">
         <f t="shared" si="231"/>
         <v>0</v>
       </c>
-      <c r="M45" s="25"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="28">
+      <c r="M45" s="24"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="27">
         <f t="shared" si="232"/>
         <v>0</v>
       </c>
-      <c r="P45" s="25"/>
-      <c r="Q45" s="28"/>
-      <c r="R45" s="28">
+      <c r="P45" s="24"/>
+      <c r="Q45" s="27"/>
+      <c r="R45" s="27">
         <f t="shared" si="233"/>
         <v>0</v>
       </c>
-      <c r="S45" s="25"/>
-      <c r="T45" s="28"/>
-      <c r="U45" s="28">
+      <c r="S45" s="24"/>
+      <c r="T45" s="27"/>
+      <c r="U45" s="27">
         <f t="shared" si="234"/>
         <v>0</v>
       </c>
-      <c r="V45" s="25"/>
-      <c r="W45" s="28"/>
-      <c r="X45" s="28">
+      <c r="V45" s="24"/>
+      <c r="W45" s="27"/>
+      <c r="X45" s="27">
         <f t="shared" si="235"/>
         <v>0</v>
       </c>
-      <c r="Y45" s="25"/>
-      <c r="Z45" s="28"/>
-      <c r="AA45" s="28">
+      <c r="Y45" s="24"/>
+      <c r="Z45" s="27"/>
+      <c r="AA45" s="27">
         <f t="shared" si="236"/>
         <v>0</v>
       </c>
-      <c r="AB45" s="25"/>
-      <c r="AC45" s="28"/>
-      <c r="AD45" s="28">
+      <c r="AB45" s="24"/>
+      <c r="AC45" s="27"/>
+      <c r="AD45" s="27">
         <f t="shared" si="237"/>
         <v>0</v>
       </c>
-      <c r="AE45" s="25"/>
-      <c r="AF45" s="28"/>
-      <c r="AG45" s="28">
+      <c r="AE45" s="24"/>
+      <c r="AF45" s="27"/>
+      <c r="AG45" s="27">
         <f t="shared" si="238"/>
         <v>0</v>
       </c>
-      <c r="AH45" s="25"/>
-      <c r="AI45" s="28"/>
-      <c r="AJ45" s="28">
+      <c r="AH45" s="24"/>
+      <c r="AI45" s="27"/>
+      <c r="AJ45" s="27">
         <f t="shared" si="239"/>
         <v>0</v>
       </c>
-      <c r="AK45" s="25"/>
-      <c r="AL45" s="28"/>
-      <c r="AM45" s="28">
+      <c r="AK45" s="24"/>
+      <c r="AL45" s="27"/>
+      <c r="AM45" s="27">
         <f t="shared" si="240"/>
         <v>0</v>
       </c>
-      <c r="AN45" s="25"/>
-      <c r="AO45" s="28"/>
-      <c r="AP45" s="28">
+      <c r="AN45" s="24"/>
+      <c r="AO45" s="27"/>
+      <c r="AP45" s="27">
         <f t="shared" si="241"/>
         <v>0</v>
       </c>
-      <c r="AQ45" s="25"/>
-      <c r="AR45" s="28"/>
-      <c r="AS45" s="28">
+      <c r="AQ45" s="24"/>
+      <c r="AR45" s="27"/>
+      <c r="AS45" s="27">
         <f t="shared" si="242"/>
         <v>0</v>
       </c>
-      <c r="AT45" s="25"/>
-      <c r="AU45" s="28"/>
-      <c r="AV45" s="28">
+      <c r="AT45" s="24"/>
+      <c r="AU45" s="27"/>
+      <c r="AV45" s="27">
         <f t="shared" si="243"/>
         <v>0</v>
       </c>
-      <c r="AW45" s="25"/>
-      <c r="AX45" s="28"/>
-      <c r="AY45" s="28">
+      <c r="AW45" s="24"/>
+      <c r="AX45" s="27"/>
+      <c r="AY45" s="27">
         <f t="shared" si="244"/>
         <v>0</v>
       </c>
-      <c r="AZ45" s="28">
+      <c r="AZ45" s="27">
         <f t="shared" ref="AZ45:AZ46" si="247">H45+K45+N45+Q45+T45+W45+Z45+AC45+AF45+AI45+AL45+AO45+AR45+AU45+AX45</f>
         <v>0</v>
       </c>
-      <c r="BA45" s="28">
+      <c r="BA45" s="27">
         <f t="shared" si="245"/>
         <v>0</v>
       </c>
@@ -6100,101 +5558,101 @@
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28">
+      <c r="G46" s="26"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27">
         <f t="shared" si="230"/>
         <v>0</v>
       </c>
-      <c r="J46" s="25"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="28">
+      <c r="J46" s="24"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27">
         <f t="shared" si="231"/>
         <v>0</v>
       </c>
-      <c r="M46" s="25"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="28">
+      <c r="M46" s="24"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="27">
         <f t="shared" si="232"/>
         <v>0</v>
       </c>
-      <c r="P46" s="25"/>
-      <c r="Q46" s="28"/>
-      <c r="R46" s="28">
+      <c r="P46" s="24"/>
+      <c r="Q46" s="27"/>
+      <c r="R46" s="27">
         <f t="shared" si="233"/>
         <v>0</v>
       </c>
-      <c r="S46" s="25"/>
-      <c r="T46" s="28"/>
-      <c r="U46" s="28">
+      <c r="S46" s="24"/>
+      <c r="T46" s="27"/>
+      <c r="U46" s="27">
         <f t="shared" si="234"/>
         <v>0</v>
       </c>
-      <c r="V46" s="25"/>
-      <c r="W46" s="28"/>
-      <c r="X46" s="28">
+      <c r="V46" s="24"/>
+      <c r="W46" s="27"/>
+      <c r="X46" s="27">
         <f t="shared" si="235"/>
         <v>0</v>
       </c>
-      <c r="Y46" s="25"/>
-      <c r="Z46" s="28"/>
-      <c r="AA46" s="28">
+      <c r="Y46" s="24"/>
+      <c r="Z46" s="27"/>
+      <c r="AA46" s="27">
         <f t="shared" si="236"/>
         <v>0</v>
       </c>
-      <c r="AB46" s="25"/>
-      <c r="AC46" s="28"/>
-      <c r="AD46" s="28">
+      <c r="AB46" s="24"/>
+      <c r="AC46" s="27"/>
+      <c r="AD46" s="27">
         <f t="shared" si="237"/>
         <v>0</v>
       </c>
-      <c r="AE46" s="25"/>
-      <c r="AF46" s="28"/>
-      <c r="AG46" s="28">
+      <c r="AE46" s="24"/>
+      <c r="AF46" s="27"/>
+      <c r="AG46" s="27">
         <f t="shared" si="238"/>
         <v>0</v>
       </c>
-      <c r="AH46" s="25"/>
-      <c r="AI46" s="28"/>
-      <c r="AJ46" s="28">
+      <c r="AH46" s="24"/>
+      <c r="AI46" s="27"/>
+      <c r="AJ46" s="27">
         <f t="shared" si="239"/>
         <v>0</v>
       </c>
-      <c r="AK46" s="25"/>
-      <c r="AL46" s="28"/>
-      <c r="AM46" s="28">
+      <c r="AK46" s="24"/>
+      <c r="AL46" s="27"/>
+      <c r="AM46" s="27">
         <f t="shared" si="240"/>
         <v>0</v>
       </c>
-      <c r="AN46" s="25"/>
-      <c r="AO46" s="28"/>
-      <c r="AP46" s="28">
+      <c r="AN46" s="24"/>
+      <c r="AO46" s="27"/>
+      <c r="AP46" s="27">
         <f t="shared" si="241"/>
         <v>0</v>
       </c>
-      <c r="AQ46" s="25"/>
-      <c r="AR46" s="28"/>
-      <c r="AS46" s="28">
+      <c r="AQ46" s="24"/>
+      <c r="AR46" s="27"/>
+      <c r="AS46" s="27">
         <f t="shared" si="242"/>
         <v>0</v>
       </c>
-      <c r="AT46" s="25"/>
-      <c r="AU46" s="28"/>
-      <c r="AV46" s="28">
+      <c r="AT46" s="24"/>
+      <c r="AU46" s="27"/>
+      <c r="AV46" s="27">
         <f t="shared" si="243"/>
         <v>0</v>
       </c>
-      <c r="AW46" s="25"/>
-      <c r="AX46" s="28"/>
-      <c r="AY46" s="28">
+      <c r="AW46" s="24"/>
+      <c r="AX46" s="27"/>
+      <c r="AY46" s="27">
         <f t="shared" si="244"/>
         <v>0</v>
       </c>
-      <c r="AZ46" s="28">
+      <c r="AZ46" s="27">
         <f t="shared" si="247"/>
         <v>0</v>
       </c>
-      <c r="BA46" s="28">
+      <c r="BA46" s="27">
         <f t="shared" si="245"/>
         <v>0</v>
       </c>
@@ -6205,101 +5663,101 @@
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28">
+      <c r="G47" s="26"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27">
         <f t="shared" ref="I47:I51" si="248">G47-H47</f>
         <v>0</v>
       </c>
-      <c r="J47" s="25"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="28">
+      <c r="J47" s="24"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27">
         <f t="shared" ref="L47:L51" si="249">I47-K47</f>
         <v>0</v>
       </c>
-      <c r="M47" s="25"/>
-      <c r="N47" s="28"/>
-      <c r="O47" s="28">
+      <c r="M47" s="24"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="27">
         <f t="shared" ref="O47:O51" si="250">L47-N47</f>
         <v>0</v>
       </c>
-      <c r="P47" s="25"/>
-      <c r="Q47" s="28"/>
-      <c r="R47" s="28">
+      <c r="P47" s="24"/>
+      <c r="Q47" s="27"/>
+      <c r="R47" s="27">
         <f t="shared" ref="R47:R51" si="251">O47-Q47</f>
         <v>0</v>
       </c>
-      <c r="S47" s="25"/>
-      <c r="T47" s="28"/>
-      <c r="U47" s="28">
+      <c r="S47" s="24"/>
+      <c r="T47" s="27"/>
+      <c r="U47" s="27">
         <f t="shared" ref="U47:U51" si="252">R47-T47</f>
         <v>0</v>
       </c>
-      <c r="V47" s="25"/>
-      <c r="W47" s="28"/>
-      <c r="X47" s="28">
+      <c r="V47" s="24"/>
+      <c r="W47" s="27"/>
+      <c r="X47" s="27">
         <f t="shared" ref="X47:X51" si="253">U47-W47</f>
         <v>0</v>
       </c>
-      <c r="Y47" s="25"/>
-      <c r="Z47" s="28"/>
-      <c r="AA47" s="28">
+      <c r="Y47" s="24"/>
+      <c r="Z47" s="27"/>
+      <c r="AA47" s="27">
         <f t="shared" ref="AA47:AA51" si="254">X47-Z47</f>
         <v>0</v>
       </c>
-      <c r="AB47" s="25"/>
-      <c r="AC47" s="28"/>
-      <c r="AD47" s="28">
+      <c r="AB47" s="24"/>
+      <c r="AC47" s="27"/>
+      <c r="AD47" s="27">
         <f t="shared" ref="AD47:AD51" si="255">AA47-AC47</f>
         <v>0</v>
       </c>
-      <c r="AE47" s="25"/>
-      <c r="AF47" s="28"/>
-      <c r="AG47" s="28">
+      <c r="AE47" s="24"/>
+      <c r="AF47" s="27"/>
+      <c r="AG47" s="27">
         <f t="shared" ref="AG47:AG51" si="256">AD47-AF47</f>
         <v>0</v>
       </c>
-      <c r="AH47" s="25"/>
-      <c r="AI47" s="28"/>
-      <c r="AJ47" s="28">
+      <c r="AH47" s="24"/>
+      <c r="AI47" s="27"/>
+      <c r="AJ47" s="27">
         <f t="shared" ref="AJ47:AJ51" si="257">AG47-AI47</f>
         <v>0</v>
       </c>
-      <c r="AK47" s="25"/>
-      <c r="AL47" s="28"/>
-      <c r="AM47" s="28">
+      <c r="AK47" s="24"/>
+      <c r="AL47" s="27"/>
+      <c r="AM47" s="27">
         <f t="shared" ref="AM47:AM51" si="258">AJ47-AL47</f>
         <v>0</v>
       </c>
-      <c r="AN47" s="25"/>
-      <c r="AO47" s="28"/>
-      <c r="AP47" s="28">
+      <c r="AN47" s="24"/>
+      <c r="AO47" s="27"/>
+      <c r="AP47" s="27">
         <f t="shared" ref="AP47:AP51" si="259">AM47-AO47</f>
         <v>0</v>
       </c>
-      <c r="AQ47" s="25"/>
-      <c r="AR47" s="28"/>
-      <c r="AS47" s="28">
+      <c r="AQ47" s="24"/>
+      <c r="AR47" s="27"/>
+      <c r="AS47" s="27">
         <f t="shared" ref="AS47:AS51" si="260">AP47-AR47</f>
         <v>0</v>
       </c>
-      <c r="AT47" s="25"/>
-      <c r="AU47" s="28"/>
-      <c r="AV47" s="28">
+      <c r="AT47" s="24"/>
+      <c r="AU47" s="27"/>
+      <c r="AV47" s="27">
         <f t="shared" ref="AV47:AV51" si="261">AS47-AU47</f>
         <v>0</v>
       </c>
-      <c r="AW47" s="25"/>
-      <c r="AX47" s="28"/>
-      <c r="AY47" s="28">
+      <c r="AW47" s="24"/>
+      <c r="AX47" s="27"/>
+      <c r="AY47" s="27">
         <f t="shared" ref="AY47:AY51" si="262">AV47-AX47</f>
         <v>0</v>
       </c>
-      <c r="AZ47" s="28">
+      <c r="AZ47" s="27">
         <f t="shared" ref="AZ47:AZ51" si="263">H47+K47+N47+Q47+T47+W47+Z47+AC47+AF47+AI47+AL47+AO47+AR47+AU47+AX47</f>
         <v>0</v>
       </c>
-      <c r="BA47" s="28">
+      <c r="BA47" s="27">
         <f t="shared" ref="BA47:BA51" si="264">G47-AZ47</f>
         <v>0</v>
       </c>
@@ -6310,53 +5768,53 @@
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="28"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="28"/>
-      <c r="O48" s="28"/>
-      <c r="P48" s="25"/>
-      <c r="Q48" s="28"/>
-      <c r="R48" s="28"/>
-      <c r="S48" s="25"/>
-      <c r="T48" s="28"/>
-      <c r="U48" s="28"/>
-      <c r="V48" s="25"/>
-      <c r="W48" s="28"/>
-      <c r="X48" s="28"/>
-      <c r="Y48" s="25"/>
-      <c r="Z48" s="28"/>
-      <c r="AA48" s="28"/>
-      <c r="AB48" s="25"/>
-      <c r="AC48" s="28"/>
-      <c r="AD48" s="28"/>
-      <c r="AE48" s="25"/>
-      <c r="AF48" s="28"/>
-      <c r="AG48" s="28"/>
-      <c r="AH48" s="25"/>
-      <c r="AI48" s="28"/>
-      <c r="AJ48" s="28"/>
-      <c r="AK48" s="25"/>
-      <c r="AL48" s="28"/>
-      <c r="AM48" s="28"/>
-      <c r="AN48" s="25"/>
-      <c r="AO48" s="28"/>
-      <c r="AP48" s="28"/>
-      <c r="AQ48" s="25"/>
-      <c r="AR48" s="28"/>
-      <c r="AS48" s="28"/>
-      <c r="AT48" s="25"/>
-      <c r="AU48" s="28"/>
-      <c r="AV48" s="28"/>
-      <c r="AW48" s="25"/>
-      <c r="AX48" s="28"/>
-      <c r="AY48" s="28"/>
-      <c r="AZ48" s="28"/>
-      <c r="BA48" s="28"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="27"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="27"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="27"/>
+      <c r="R48" s="27"/>
+      <c r="S48" s="24"/>
+      <c r="T48" s="27"/>
+      <c r="U48" s="27"/>
+      <c r="V48" s="24"/>
+      <c r="W48" s="27"/>
+      <c r="X48" s="27"/>
+      <c r="Y48" s="24"/>
+      <c r="Z48" s="27"/>
+      <c r="AA48" s="27"/>
+      <c r="AB48" s="24"/>
+      <c r="AC48" s="27"/>
+      <c r="AD48" s="27"/>
+      <c r="AE48" s="24"/>
+      <c r="AF48" s="27"/>
+      <c r="AG48" s="27"/>
+      <c r="AH48" s="24"/>
+      <c r="AI48" s="27"/>
+      <c r="AJ48" s="27"/>
+      <c r="AK48" s="24"/>
+      <c r="AL48" s="27"/>
+      <c r="AM48" s="27"/>
+      <c r="AN48" s="24"/>
+      <c r="AO48" s="27"/>
+      <c r="AP48" s="27"/>
+      <c r="AQ48" s="24"/>
+      <c r="AR48" s="27"/>
+      <c r="AS48" s="27"/>
+      <c r="AT48" s="24"/>
+      <c r="AU48" s="27"/>
+      <c r="AV48" s="27"/>
+      <c r="AW48" s="24"/>
+      <c r="AX48" s="27"/>
+      <c r="AY48" s="27"/>
+      <c r="AZ48" s="27"/>
+      <c r="BA48" s="27"/>
     </row>
     <row r="49" spans="2:53">
       <c r="B49" s="18"/>
@@ -6364,101 +5822,101 @@
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28">
+      <c r="G49" s="26"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27">
         <f t="shared" si="248"/>
         <v>0</v>
       </c>
-      <c r="J49" s="25"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="28">
+      <c r="J49" s="24"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27">
         <f t="shared" si="249"/>
         <v>0</v>
       </c>
-      <c r="M49" s="25"/>
-      <c r="N49" s="28"/>
-      <c r="O49" s="28">
+      <c r="M49" s="24"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="27">
         <f t="shared" si="250"/>
         <v>0</v>
       </c>
-      <c r="P49" s="25"/>
-      <c r="Q49" s="28"/>
-      <c r="R49" s="28">
+      <c r="P49" s="24"/>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="27">
         <f t="shared" si="251"/>
         <v>0</v>
       </c>
-      <c r="S49" s="25"/>
-      <c r="T49" s="28"/>
-      <c r="U49" s="28">
+      <c r="S49" s="24"/>
+      <c r="T49" s="27"/>
+      <c r="U49" s="27">
         <f t="shared" si="252"/>
         <v>0</v>
       </c>
-      <c r="V49" s="25"/>
-      <c r="W49" s="28"/>
-      <c r="X49" s="28">
+      <c r="V49" s="24"/>
+      <c r="W49" s="27"/>
+      <c r="X49" s="27">
         <f t="shared" si="253"/>
         <v>0</v>
       </c>
-      <c r="Y49" s="25"/>
-      <c r="Z49" s="28"/>
-      <c r="AA49" s="28">
+      <c r="Y49" s="24"/>
+      <c r="Z49" s="27"/>
+      <c r="AA49" s="27">
         <f t="shared" si="254"/>
         <v>0</v>
       </c>
-      <c r="AB49" s="25"/>
-      <c r="AC49" s="28"/>
-      <c r="AD49" s="28">
+      <c r="AB49" s="24"/>
+      <c r="AC49" s="27"/>
+      <c r="AD49" s="27">
         <f t="shared" si="255"/>
         <v>0</v>
       </c>
-      <c r="AE49" s="25"/>
-      <c r="AF49" s="28"/>
-      <c r="AG49" s="28">
+      <c r="AE49" s="24"/>
+      <c r="AF49" s="27"/>
+      <c r="AG49" s="27">
         <f t="shared" si="256"/>
         <v>0</v>
       </c>
-      <c r="AH49" s="25"/>
-      <c r="AI49" s="28"/>
-      <c r="AJ49" s="28">
+      <c r="AH49" s="24"/>
+      <c r="AI49" s="27"/>
+      <c r="AJ49" s="27">
         <f t="shared" si="257"/>
         <v>0</v>
       </c>
-      <c r="AK49" s="25"/>
-      <c r="AL49" s="28"/>
-      <c r="AM49" s="28">
+      <c r="AK49" s="24"/>
+      <c r="AL49" s="27"/>
+      <c r="AM49" s="27">
         <f t="shared" si="258"/>
         <v>0</v>
       </c>
-      <c r="AN49" s="25"/>
-      <c r="AO49" s="28"/>
-      <c r="AP49" s="28">
+      <c r="AN49" s="24"/>
+      <c r="AO49" s="27"/>
+      <c r="AP49" s="27">
         <f t="shared" si="259"/>
         <v>0</v>
       </c>
-      <c r="AQ49" s="25"/>
-      <c r="AR49" s="28"/>
-      <c r="AS49" s="28">
+      <c r="AQ49" s="24"/>
+      <c r="AR49" s="27"/>
+      <c r="AS49" s="27">
         <f t="shared" si="260"/>
         <v>0</v>
       </c>
-      <c r="AT49" s="25"/>
-      <c r="AU49" s="28"/>
-      <c r="AV49" s="28">
+      <c r="AT49" s="24"/>
+      <c r="AU49" s="27"/>
+      <c r="AV49" s="27">
         <f t="shared" si="261"/>
         <v>0</v>
       </c>
-      <c r="AW49" s="25"/>
-      <c r="AX49" s="28"/>
-      <c r="AY49" s="28">
+      <c r="AW49" s="24"/>
+      <c r="AX49" s="27"/>
+      <c r="AY49" s="27">
         <f t="shared" si="262"/>
         <v>0</v>
       </c>
-      <c r="AZ49" s="28">
+      <c r="AZ49" s="27">
         <f t="shared" si="263"/>
         <v>0</v>
       </c>
-      <c r="BA49" s="28">
+      <c r="BA49" s="27">
         <f t="shared" si="264"/>
         <v>0</v>
       </c>
@@ -6469,101 +5927,101 @@
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28">
+      <c r="G50" s="26"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27">
         <f t="shared" si="248"/>
         <v>0</v>
       </c>
-      <c r="J50" s="25"/>
-      <c r="K50" s="28"/>
-      <c r="L50" s="28">
+      <c r="J50" s="24"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="27">
         <f t="shared" si="249"/>
         <v>0</v>
       </c>
-      <c r="M50" s="25"/>
-      <c r="N50" s="28"/>
-      <c r="O50" s="28">
+      <c r="M50" s="24"/>
+      <c r="N50" s="27"/>
+      <c r="O50" s="27">
         <f t="shared" si="250"/>
         <v>0</v>
       </c>
-      <c r="P50" s="25"/>
-      <c r="Q50" s="28"/>
-      <c r="R50" s="28">
+      <c r="P50" s="24"/>
+      <c r="Q50" s="27"/>
+      <c r="R50" s="27">
         <f t="shared" si="251"/>
         <v>0</v>
       </c>
-      <c r="S50" s="25"/>
-      <c r="T50" s="28"/>
-      <c r="U50" s="28">
+      <c r="S50" s="24"/>
+      <c r="T50" s="27"/>
+      <c r="U50" s="27">
         <f t="shared" si="252"/>
         <v>0</v>
       </c>
-      <c r="V50" s="25"/>
-      <c r="W50" s="28"/>
-      <c r="X50" s="28">
+      <c r="V50" s="24"/>
+      <c r="W50" s="27"/>
+      <c r="X50" s="27">
         <f t="shared" si="253"/>
         <v>0</v>
       </c>
-      <c r="Y50" s="25"/>
-      <c r="Z50" s="28"/>
-      <c r="AA50" s="28">
+      <c r="Y50" s="24"/>
+      <c r="Z50" s="27"/>
+      <c r="AA50" s="27">
         <f t="shared" si="254"/>
         <v>0</v>
       </c>
-      <c r="AB50" s="25"/>
-      <c r="AC50" s="28"/>
-      <c r="AD50" s="28">
+      <c r="AB50" s="24"/>
+      <c r="AC50" s="27"/>
+      <c r="AD50" s="27">
         <f t="shared" si="255"/>
         <v>0</v>
       </c>
-      <c r="AE50" s="25"/>
-      <c r="AF50" s="28"/>
-      <c r="AG50" s="28">
+      <c r="AE50" s="24"/>
+      <c r="AF50" s="27"/>
+      <c r="AG50" s="27">
         <f t="shared" si="256"/>
         <v>0</v>
       </c>
-      <c r="AH50" s="25"/>
-      <c r="AI50" s="28"/>
-      <c r="AJ50" s="28">
+      <c r="AH50" s="24"/>
+      <c r="AI50" s="27"/>
+      <c r="AJ50" s="27">
         <f t="shared" si="257"/>
         <v>0</v>
       </c>
-      <c r="AK50" s="25"/>
-      <c r="AL50" s="28"/>
-      <c r="AM50" s="28">
+      <c r="AK50" s="24"/>
+      <c r="AL50" s="27"/>
+      <c r="AM50" s="27">
         <f t="shared" si="258"/>
         <v>0</v>
       </c>
-      <c r="AN50" s="25"/>
-      <c r="AO50" s="28"/>
-      <c r="AP50" s="28">
+      <c r="AN50" s="24"/>
+      <c r="AO50" s="27"/>
+      <c r="AP50" s="27">
         <f t="shared" si="259"/>
         <v>0</v>
       </c>
-      <c r="AQ50" s="25"/>
-      <c r="AR50" s="28"/>
-      <c r="AS50" s="28">
+      <c r="AQ50" s="24"/>
+      <c r="AR50" s="27"/>
+      <c r="AS50" s="27">
         <f t="shared" si="260"/>
         <v>0</v>
       </c>
-      <c r="AT50" s="25"/>
-      <c r="AU50" s="28"/>
-      <c r="AV50" s="28">
+      <c r="AT50" s="24"/>
+      <c r="AU50" s="27"/>
+      <c r="AV50" s="27">
         <f t="shared" si="261"/>
         <v>0</v>
       </c>
-      <c r="AW50" s="25"/>
-      <c r="AX50" s="28"/>
-      <c r="AY50" s="28">
+      <c r="AW50" s="24"/>
+      <c r="AX50" s="27"/>
+      <c r="AY50" s="27">
         <f t="shared" si="262"/>
         <v>0</v>
       </c>
-      <c r="AZ50" s="28">
+      <c r="AZ50" s="27">
         <f t="shared" si="263"/>
         <v>0</v>
       </c>
-      <c r="BA50" s="28">
+      <c r="BA50" s="27">
         <f t="shared" si="264"/>
         <v>0</v>
       </c>
@@ -6574,101 +6032,101 @@
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28">
+      <c r="G51" s="26"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27">
         <f t="shared" si="248"/>
         <v>0</v>
       </c>
-      <c r="J51" s="25"/>
-      <c r="K51" s="28"/>
-      <c r="L51" s="28">
+      <c r="J51" s="24"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="27">
         <f t="shared" si="249"/>
         <v>0</v>
       </c>
-      <c r="M51" s="25"/>
-      <c r="N51" s="28"/>
-      <c r="O51" s="28">
+      <c r="M51" s="24"/>
+      <c r="N51" s="27"/>
+      <c r="O51" s="27">
         <f t="shared" si="250"/>
         <v>0</v>
       </c>
-      <c r="P51" s="25"/>
-      <c r="Q51" s="28"/>
-      <c r="R51" s="28">
+      <c r="P51" s="24"/>
+      <c r="Q51" s="27"/>
+      <c r="R51" s="27">
         <f t="shared" si="251"/>
         <v>0</v>
       </c>
-      <c r="S51" s="25"/>
-      <c r="T51" s="28"/>
-      <c r="U51" s="28">
+      <c r="S51" s="24"/>
+      <c r="T51" s="27"/>
+      <c r="U51" s="27">
         <f t="shared" si="252"/>
         <v>0</v>
       </c>
-      <c r="V51" s="25"/>
-      <c r="W51" s="28"/>
-      <c r="X51" s="28">
+      <c r="V51" s="24"/>
+      <c r="W51" s="27"/>
+      <c r="X51" s="27">
         <f t="shared" si="253"/>
         <v>0</v>
       </c>
-      <c r="Y51" s="25"/>
-      <c r="Z51" s="28"/>
-      <c r="AA51" s="28">
+      <c r="Y51" s="24"/>
+      <c r="Z51" s="27"/>
+      <c r="AA51" s="27">
         <f t="shared" si="254"/>
         <v>0</v>
       </c>
-      <c r="AB51" s="25"/>
-      <c r="AC51" s="28"/>
-      <c r="AD51" s="28">
+      <c r="AB51" s="24"/>
+      <c r="AC51" s="27"/>
+      <c r="AD51" s="27">
         <f t="shared" si="255"/>
         <v>0</v>
       </c>
-      <c r="AE51" s="25"/>
-      <c r="AF51" s="28"/>
-      <c r="AG51" s="28">
+      <c r="AE51" s="24"/>
+      <c r="AF51" s="27"/>
+      <c r="AG51" s="27">
         <f t="shared" si="256"/>
         <v>0</v>
       </c>
-      <c r="AH51" s="25"/>
-      <c r="AI51" s="28"/>
-      <c r="AJ51" s="28">
+      <c r="AH51" s="24"/>
+      <c r="AI51" s="27"/>
+      <c r="AJ51" s="27">
         <f t="shared" si="257"/>
         <v>0</v>
       </c>
-      <c r="AK51" s="25"/>
-      <c r="AL51" s="28"/>
-      <c r="AM51" s="28">
+      <c r="AK51" s="24"/>
+      <c r="AL51" s="27"/>
+      <c r="AM51" s="27">
         <f t="shared" si="258"/>
         <v>0</v>
       </c>
-      <c r="AN51" s="25"/>
-      <c r="AO51" s="28"/>
-      <c r="AP51" s="28">
+      <c r="AN51" s="24"/>
+      <c r="AO51" s="27"/>
+      <c r="AP51" s="27">
         <f t="shared" si="259"/>
         <v>0</v>
       </c>
-      <c r="AQ51" s="25"/>
-      <c r="AR51" s="28"/>
-      <c r="AS51" s="28">
+      <c r="AQ51" s="24"/>
+      <c r="AR51" s="27"/>
+      <c r="AS51" s="27">
         <f t="shared" si="260"/>
         <v>0</v>
       </c>
-      <c r="AT51" s="25"/>
-      <c r="AU51" s="28"/>
-      <c r="AV51" s="28">
+      <c r="AT51" s="24"/>
+      <c r="AU51" s="27"/>
+      <c r="AV51" s="27">
         <f t="shared" si="261"/>
         <v>0</v>
       </c>
-      <c r="AW51" s="25"/>
-      <c r="AX51" s="28"/>
-      <c r="AY51" s="28">
+      <c r="AW51" s="24"/>
+      <c r="AX51" s="27"/>
+      <c r="AY51" s="27">
         <f t="shared" si="262"/>
         <v>0</v>
       </c>
-      <c r="AZ51" s="28">
+      <c r="AZ51" s="27">
         <f t="shared" si="263"/>
         <v>0</v>
       </c>
-      <c r="BA51" s="28">
+      <c r="BA51" s="27">
         <f t="shared" si="264"/>
         <v>0</v>
       </c>
@@ -6679,101 +6137,101 @@
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28">
+      <c r="G52" s="26"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27">
         <f t="shared" ref="I52:I53" si="265">G52-H52</f>
         <v>0</v>
       </c>
-      <c r="J52" s="25"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="28">
+      <c r="J52" s="24"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="27">
         <f t="shared" ref="L52:L53" si="266">I52-K52</f>
         <v>0</v>
       </c>
-      <c r="M52" s="25"/>
-      <c r="N52" s="28"/>
-      <c r="O52" s="28">
+      <c r="M52" s="24"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="27">
         <f t="shared" ref="O52:O53" si="267">L52-N52</f>
         <v>0</v>
       </c>
-      <c r="P52" s="25"/>
-      <c r="Q52" s="28"/>
-      <c r="R52" s="28">
+      <c r="P52" s="24"/>
+      <c r="Q52" s="27"/>
+      <c r="R52" s="27">
         <f t="shared" ref="R52:R53" si="268">O52-Q52</f>
         <v>0</v>
       </c>
-      <c r="S52" s="25"/>
-      <c r="T52" s="28"/>
-      <c r="U52" s="28">
+      <c r="S52" s="24"/>
+      <c r="T52" s="27"/>
+      <c r="U52" s="27">
         <f t="shared" ref="U52:U53" si="269">R52-T52</f>
         <v>0</v>
       </c>
-      <c r="V52" s="25"/>
-      <c r="W52" s="28"/>
-      <c r="X52" s="28">
+      <c r="V52" s="24"/>
+      <c r="W52" s="27"/>
+      <c r="X52" s="27">
         <f t="shared" ref="X52:X53" si="270">U52-W52</f>
         <v>0</v>
       </c>
-      <c r="Y52" s="25"/>
-      <c r="Z52" s="28"/>
-      <c r="AA52" s="28">
+      <c r="Y52" s="24"/>
+      <c r="Z52" s="27"/>
+      <c r="AA52" s="27">
         <f t="shared" ref="AA52:AA53" si="271">X52-Z52</f>
         <v>0</v>
       </c>
-      <c r="AB52" s="25"/>
-      <c r="AC52" s="28"/>
-      <c r="AD52" s="28">
+      <c r="AB52" s="24"/>
+      <c r="AC52" s="27"/>
+      <c r="AD52" s="27">
         <f t="shared" ref="AD52:AD53" si="272">AA52-AC52</f>
         <v>0</v>
       </c>
-      <c r="AE52" s="25"/>
-      <c r="AF52" s="28"/>
-      <c r="AG52" s="28">
+      <c r="AE52" s="24"/>
+      <c r="AF52" s="27"/>
+      <c r="AG52" s="27">
         <f t="shared" ref="AG52:AG53" si="273">AD52-AF52</f>
         <v>0</v>
       </c>
-      <c r="AH52" s="25"/>
-      <c r="AI52" s="28"/>
-      <c r="AJ52" s="28">
+      <c r="AH52" s="24"/>
+      <c r="AI52" s="27"/>
+      <c r="AJ52" s="27">
         <f t="shared" ref="AJ52:AJ53" si="274">AG52-AI52</f>
         <v>0</v>
       </c>
-      <c r="AK52" s="25"/>
-      <c r="AL52" s="28"/>
-      <c r="AM52" s="28">
+      <c r="AK52" s="24"/>
+      <c r="AL52" s="27"/>
+      <c r="AM52" s="27">
         <f t="shared" ref="AM52:AM53" si="275">AJ52-AL52</f>
         <v>0</v>
       </c>
-      <c r="AN52" s="25"/>
-      <c r="AO52" s="28"/>
-      <c r="AP52" s="28">
+      <c r="AN52" s="24"/>
+      <c r="AO52" s="27"/>
+      <c r="AP52" s="27">
         <f t="shared" ref="AP52:AP53" si="276">AM52-AO52</f>
         <v>0</v>
       </c>
-      <c r="AQ52" s="25"/>
-      <c r="AR52" s="28"/>
-      <c r="AS52" s="28">
+      <c r="AQ52" s="24"/>
+      <c r="AR52" s="27"/>
+      <c r="AS52" s="27">
         <f t="shared" ref="AS52:AS53" si="277">AP52-AR52</f>
         <v>0</v>
       </c>
-      <c r="AT52" s="25"/>
-      <c r="AU52" s="28"/>
-      <c r="AV52" s="28">
+      <c r="AT52" s="24"/>
+      <c r="AU52" s="27"/>
+      <c r="AV52" s="27">
         <f t="shared" ref="AV52:AV53" si="278">AS52-AU52</f>
         <v>0</v>
       </c>
-      <c r="AW52" s="25"/>
-      <c r="AX52" s="28"/>
-      <c r="AY52" s="28">
+      <c r="AW52" s="24"/>
+      <c r="AX52" s="27"/>
+      <c r="AY52" s="27">
         <f t="shared" ref="AY52:AY53" si="279">AV52-AX52</f>
         <v>0</v>
       </c>
-      <c r="AZ52" s="28">
+      <c r="AZ52" s="27">
         <f t="shared" ref="AZ52:AZ53" si="280">H52+K52+N52+Q52+T52+W52+Z52+AC52+AF52+AI52+AL52+AO52+AR52+AU52+AX52</f>
         <v>0</v>
       </c>
-      <c r="BA52" s="28">
+      <c r="BA52" s="27">
         <f t="shared" ref="BA52:BA53" si="281">G52-AZ52</f>
         <v>0</v>
       </c>
@@ -6784,101 +6242,101 @@
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28">
+      <c r="G53" s="26"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27">
         <f t="shared" si="265"/>
         <v>0</v>
       </c>
-      <c r="J53" s="25"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="28">
+      <c r="J53" s="24"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="27">
         <f t="shared" si="266"/>
         <v>0</v>
       </c>
-      <c r="M53" s="25"/>
-      <c r="N53" s="28"/>
-      <c r="O53" s="28">
+      <c r="M53" s="24"/>
+      <c r="N53" s="27"/>
+      <c r="O53" s="27">
         <f t="shared" si="267"/>
         <v>0</v>
       </c>
-      <c r="P53" s="25"/>
-      <c r="Q53" s="28"/>
-      <c r="R53" s="28">
+      <c r="P53" s="24"/>
+      <c r="Q53" s="27"/>
+      <c r="R53" s="27">
         <f t="shared" si="268"/>
         <v>0</v>
       </c>
-      <c r="S53" s="25"/>
-      <c r="T53" s="28"/>
-      <c r="U53" s="28">
+      <c r="S53" s="24"/>
+      <c r="T53" s="27"/>
+      <c r="U53" s="27">
         <f t="shared" si="269"/>
         <v>0</v>
       </c>
-      <c r="V53" s="25"/>
-      <c r="W53" s="28"/>
-      <c r="X53" s="28">
+      <c r="V53" s="24"/>
+      <c r="W53" s="27"/>
+      <c r="X53" s="27">
         <f t="shared" si="270"/>
         <v>0</v>
       </c>
-      <c r="Y53" s="25"/>
-      <c r="Z53" s="28"/>
-      <c r="AA53" s="28">
+      <c r="Y53" s="24"/>
+      <c r="Z53" s="27"/>
+      <c r="AA53" s="27">
         <f t="shared" si="271"/>
         <v>0</v>
       </c>
-      <c r="AB53" s="25"/>
-      <c r="AC53" s="28"/>
-      <c r="AD53" s="28">
+      <c r="AB53" s="24"/>
+      <c r="AC53" s="27"/>
+      <c r="AD53" s="27">
         <f t="shared" si="272"/>
         <v>0</v>
       </c>
-      <c r="AE53" s="25"/>
-      <c r="AF53" s="28"/>
-      <c r="AG53" s="28">
+      <c r="AE53" s="24"/>
+      <c r="AF53" s="27"/>
+      <c r="AG53" s="27">
         <f t="shared" si="273"/>
         <v>0</v>
       </c>
-      <c r="AH53" s="25"/>
-      <c r="AI53" s="28"/>
-      <c r="AJ53" s="28">
+      <c r="AH53" s="24"/>
+      <c r="AI53" s="27"/>
+      <c r="AJ53" s="27">
         <f t="shared" si="274"/>
         <v>0</v>
       </c>
-      <c r="AK53" s="25"/>
-      <c r="AL53" s="28"/>
-      <c r="AM53" s="28">
+      <c r="AK53" s="24"/>
+      <c r="AL53" s="27"/>
+      <c r="AM53" s="27">
         <f t="shared" si="275"/>
         <v>0</v>
       </c>
-      <c r="AN53" s="25"/>
-      <c r="AO53" s="28"/>
-      <c r="AP53" s="28">
+      <c r="AN53" s="24"/>
+      <c r="AO53" s="27"/>
+      <c r="AP53" s="27">
         <f t="shared" si="276"/>
         <v>0</v>
       </c>
-      <c r="AQ53" s="25"/>
-      <c r="AR53" s="28"/>
-      <c r="AS53" s="28">
+      <c r="AQ53" s="24"/>
+      <c r="AR53" s="27"/>
+      <c r="AS53" s="27">
         <f t="shared" si="277"/>
         <v>0</v>
       </c>
-      <c r="AT53" s="25"/>
-      <c r="AU53" s="28"/>
-      <c r="AV53" s="28">
+      <c r="AT53" s="24"/>
+      <c r="AU53" s="27"/>
+      <c r="AV53" s="27">
         <f t="shared" si="278"/>
         <v>0</v>
       </c>
-      <c r="AW53" s="25"/>
-      <c r="AX53" s="28"/>
-      <c r="AY53" s="28">
+      <c r="AW53" s="24"/>
+      <c r="AX53" s="27"/>
+      <c r="AY53" s="27">
         <f t="shared" si="279"/>
         <v>0</v>
       </c>
-      <c r="AZ53" s="28">
+      <c r="AZ53" s="27">
         <f t="shared" si="280"/>
         <v>0</v>
       </c>
-      <c r="BA53" s="28">
+      <c r="BA53" s="27">
         <f t="shared" si="281"/>
         <v>0</v>
       </c>
@@ -6889,127 +6347,126 @@
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28">
+      <c r="G54" s="26"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27">
         <f t="shared" ref="I54" si="282">G54-H54</f>
         <v>0</v>
       </c>
-      <c r="J54" s="25"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="28">
+      <c r="J54" s="24"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="27">
         <f t="shared" ref="L54" si="283">I54-K54</f>
         <v>0</v>
       </c>
-      <c r="M54" s="25"/>
-      <c r="N54" s="28"/>
-      <c r="O54" s="28">
+      <c r="M54" s="24"/>
+      <c r="N54" s="27"/>
+      <c r="O54" s="27">
         <f t="shared" ref="O54" si="284">L54-N54</f>
         <v>0</v>
       </c>
-      <c r="P54" s="25"/>
-      <c r="Q54" s="28"/>
-      <c r="R54" s="28">
+      <c r="P54" s="24"/>
+      <c r="Q54" s="27"/>
+      <c r="R54" s="27">
         <f t="shared" ref="R54" si="285">O54-Q54</f>
         <v>0</v>
       </c>
-      <c r="S54" s="25"/>
-      <c r="T54" s="28"/>
-      <c r="U54" s="28">
+      <c r="S54" s="24"/>
+      <c r="T54" s="27"/>
+      <c r="U54" s="27">
         <f t="shared" ref="U54" si="286">R54-T54</f>
         <v>0</v>
       </c>
-      <c r="V54" s="25"/>
-      <c r="W54" s="28"/>
-      <c r="X54" s="28">
+      <c r="V54" s="24"/>
+      <c r="W54" s="27"/>
+      <c r="X54" s="27">
         <f t="shared" ref="X54" si="287">U54-W54</f>
         <v>0</v>
       </c>
-      <c r="Y54" s="25"/>
-      <c r="Z54" s="28"/>
-      <c r="AA54" s="28">
+      <c r="Y54" s="24"/>
+      <c r="Z54" s="27"/>
+      <c r="AA54" s="27">
         <f t="shared" ref="AA54" si="288">X54-Z54</f>
         <v>0</v>
       </c>
-      <c r="AB54" s="25"/>
-      <c r="AC54" s="28"/>
-      <c r="AD54" s="28">
+      <c r="AB54" s="24"/>
+      <c r="AC54" s="27"/>
+      <c r="AD54" s="27">
         <f t="shared" ref="AD54" si="289">AA54-AC54</f>
         <v>0</v>
       </c>
-      <c r="AE54" s="25"/>
-      <c r="AF54" s="28"/>
-      <c r="AG54" s="28">
+      <c r="AE54" s="24"/>
+      <c r="AF54" s="27"/>
+      <c r="AG54" s="27">
         <f t="shared" ref="AG54" si="290">AD54-AF54</f>
         <v>0</v>
       </c>
-      <c r="AH54" s="25"/>
-      <c r="AI54" s="28"/>
-      <c r="AJ54" s="28">
+      <c r="AH54" s="24"/>
+      <c r="AI54" s="27"/>
+      <c r="AJ54" s="27">
         <f t="shared" ref="AJ54" si="291">AG54-AI54</f>
         <v>0</v>
       </c>
-      <c r="AK54" s="25"/>
-      <c r="AL54" s="28"/>
-      <c r="AM54" s="28">
+      <c r="AK54" s="24"/>
+      <c r="AL54" s="27"/>
+      <c r="AM54" s="27">
         <f t="shared" ref="AM54" si="292">AJ54-AL54</f>
         <v>0</v>
       </c>
-      <c r="AN54" s="25"/>
-      <c r="AO54" s="28"/>
-      <c r="AP54" s="28">
+      <c r="AN54" s="24"/>
+      <c r="AO54" s="27"/>
+      <c r="AP54" s="27">
         <f t="shared" ref="AP54" si="293">AM54-AO54</f>
         <v>0</v>
       </c>
-      <c r="AQ54" s="25"/>
-      <c r="AR54" s="28"/>
-      <c r="AS54" s="28">
+      <c r="AQ54" s="24"/>
+      <c r="AR54" s="27"/>
+      <c r="AS54" s="27">
         <f t="shared" ref="AS54" si="294">AP54-AR54</f>
         <v>0</v>
       </c>
-      <c r="AT54" s="25"/>
-      <c r="AU54" s="28"/>
-      <c r="AV54" s="28">
+      <c r="AT54" s="24"/>
+      <c r="AU54" s="27"/>
+      <c r="AV54" s="27">
         <f t="shared" ref="AV54" si="295">AS54-AU54</f>
         <v>0</v>
       </c>
-      <c r="AW54" s="25"/>
-      <c r="AX54" s="28"/>
-      <c r="AY54" s="28">
+      <c r="AW54" s="24"/>
+      <c r="AX54" s="27"/>
+      <c r="AY54" s="27">
         <f t="shared" ref="AY54" si="296">AV54-AX54</f>
         <v>0</v>
       </c>
-      <c r="AZ54" s="28">
+      <c r="AZ54" s="27">
         <f t="shared" ref="AZ54" si="297">H54+K54+N54+Q54+T54+W54+Z54+AC54+AF54+AI54+AL54+AO54+AR54+AU54+AX54</f>
         <v>0</v>
       </c>
-      <c r="BA54" s="28">
+      <c r="BA54" s="27">
         <f t="shared" ref="BA54" si="298">G54-AZ54</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AO4:AP4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AU4:AV4"/>
+    <mergeCell ref="AX4:AY4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AI4:AJ4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="Q4:R4"/>
     <mergeCell ref="T4:U4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AO4:AP4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AU4:AV4"/>
-    <mergeCell ref="AX4:AY4"/>
-    <mergeCell ref="AZ4:BA4"/>
   </mergeCells>
-  <pageMargins left="0.629166666666667" right="0.629166666666667" top="0.747916666666667" bottom="0.747916666666667" header="0.313888888888889" footer="0.313888888888889"/>
-  <pageSetup paperSize="1" scale="84" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.62916666666666698" right="0.62916666666666698" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>
+  <pageSetup scale="84" orientation="portrait" r:id="rId1"/>
   <colBreaks count="3" manualBreakCount="3">
     <brk id="21" max="33" man="1"/>
     <brk id="36" max="33" man="1"/>
@@ -7019,29 +6476,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:C14"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A4" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8533333333333" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.42666666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7133333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="86" style="1" customWidth="1"/>
-    <col min="4" max="4" width="2.85333333333333" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.8533333333333" style="1"/>
+    <col min="4" max="4" width="2.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.25" spans="2:2">
+    <row r="1" spans="2:3" ht="28.5">
       <c r="B1" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" ht="18" spans="2:2">
+    <row r="2" spans="2:3" ht="21">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -7054,7 +6510,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" ht="25.5" spans="2:3">
+    <row r="5" spans="2:3" ht="30">
       <c r="B5" s="5" t="str">
         <f>'Casos de Uso'!B5</f>
         <v>Identificador (ID) de CU</v>
@@ -7063,7 +6519,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" ht="25.5" spans="2:3">
+    <row r="6" spans="2:3" ht="30">
       <c r="B6" s="5" t="str">
         <f>'Casos de Uso'!C5</f>
         <v>Elemento</v>
@@ -7072,7 +6528,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" ht="38.25" spans="2:3">
+    <row r="7" spans="2:3" ht="60">
       <c r="B7" s="5" t="s">
         <v>20</v>
       </c>
@@ -7080,7 +6536,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" ht="38.25" spans="2:3">
+    <row r="8" spans="2:3" ht="60">
       <c r="B8" s="5" t="s">
         <v>21</v>
       </c>
@@ -7088,7 +6544,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" ht="25.5" spans="2:3">
+    <row r="9" spans="2:3" ht="30">
       <c r="B9" s="5" t="s">
         <v>22</v>
       </c>
@@ -7096,7 +6552,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" ht="25.5" spans="2:3">
+    <row r="10" spans="2:3" ht="30">
       <c r="B10" s="5" t="s">
         <v>23</v>
       </c>
@@ -7104,7 +6560,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" ht="25.5" spans="2:3">
+    <row r="11" spans="2:3" ht="30">
       <c r="B11" s="5" t="s">
         <v>68</v>
       </c>
@@ -7120,7 +6576,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" ht="38.25" spans="2:3">
+    <row r="13" spans="2:3" ht="45">
       <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
@@ -7128,7 +6584,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" ht="25.5" spans="2:3">
+    <row r="14" spans="2:3" ht="45">
       <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
@@ -7137,8 +6593,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>